--- a/create_forecast_basic/current/Intermediates/taz_with_pop_info.xlsx
+++ b/create_forecast_basic/current/Intermediates/taz_with_pop_info.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2561,61 +2561,61 @@
         <v>30002412</v>
       </c>
       <c r="C29" t="n">
-        <v>84.26458073098235</v>
+        <v>-111.3268887701272</v>
       </c>
       <c r="D29" t="n">
-        <v>412.2631631368552</v>
+        <v>-500.9709994655723</v>
       </c>
       <c r="E29" t="n">
-        <v>43.23846790757729</v>
+        <v>-52.54221191678091</v>
       </c>
       <c r="F29" t="n">
-        <v>37.3127140226533</v>
+        <v>-45.34139672939077</v>
       </c>
       <c r="G29" t="n">
-        <v>43.69429512949453</v>
+        <v>-53.09612077734941</v>
       </c>
       <c r="H29" t="n">
-        <v>36.92200497529568</v>
+        <v>-44.86661770604636</v>
       </c>
       <c r="I29" t="n">
-        <v>34.96845973850755</v>
+        <v>-42.49272258932433</v>
       </c>
       <c r="J29" t="n">
-        <v>26.828687918557</v>
+        <v>-32.60149293631587</v>
       </c>
       <c r="K29" t="n">
-        <v>22.72624292130192</v>
+        <v>-27.61631319119961</v>
       </c>
       <c r="L29" t="n">
-        <v>22.72624292130192</v>
+        <v>-27.61631319119961</v>
       </c>
       <c r="M29" t="n">
-        <v>20.44710681171577</v>
+        <v>-24.84676888835725</v>
       </c>
       <c r="N29" t="n">
-        <v>43.17334973301771</v>
+        <v>-52.46308207955687</v>
       </c>
       <c r="O29" t="n">
-        <v>18.94938879684487</v>
+        <v>-23.02678263220369</v>
       </c>
       <c r="P29" t="n">
-        <v>18.36332522580843</v>
+        <v>-22.31461409718708</v>
       </c>
       <c r="Q29" t="n">
-        <v>13.21898943559968</v>
+        <v>-16.06335695648573</v>
       </c>
       <c r="R29" t="n">
-        <v>9.051426263785007</v>
+        <v>-10.99904737414541</v>
       </c>
       <c r="S29" t="n">
-        <v>7.358353725235295</v>
+        <v>-8.941671606319646</v>
       </c>
       <c r="T29" t="n">
-        <v>13.28410761015929</v>
+        <v>-16.1424867937098</v>
       </c>
       <c r="U29" t="n">
-        <v>0.8245263262737105</v>
+        <v>-1.001941998931145</v>
       </c>
       <c r="V29" t="n">
         <v>0.07226807952914438</v>
@@ -2624,7 +2624,7 @@
         <v>0.002</v>
       </c>
       <c r="X29" t="n">
-        <v>4.892484595075835</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="30">
@@ -2635,61 +2635,61 @@
         <v>30002412</v>
       </c>
       <c r="C30" t="n">
-        <v>229.505431516609</v>
+        <v>-303.2131107156309</v>
       </c>
       <c r="D30" t="n">
-        <v>1122.851788181242</v>
+        <v>-1364.458998220339</v>
       </c>
       <c r="E30" t="n">
-        <v>117.7655326729338</v>
+        <v>-143.1054769891494</v>
       </c>
       <c r="F30" t="n">
-        <v>101.6259792493842</v>
+        <v>-123.4931299921425</v>
       </c>
       <c r="G30" t="n">
-        <v>119.0070367824377</v>
+        <v>-144.6141190658423</v>
       </c>
       <c r="H30" t="n">
-        <v>100.5618328698095</v>
+        <v>-122.2000082121201</v>
       </c>
       <c r="I30" t="n">
-        <v>95.24110097193598</v>
+        <v>-115.7343993120079</v>
       </c>
       <c r="J30" t="n">
-        <v>73.07138473079631</v>
+        <v>-88.79436222820718</v>
       </c>
       <c r="K30" t="n">
-        <v>61.89784774526193</v>
+        <v>-75.21658353797162</v>
       </c>
       <c r="L30" t="n">
-        <v>61.89784774526193</v>
+        <v>-75.21658353797162</v>
       </c>
       <c r="M30" t="n">
-        <v>55.69032719774283</v>
+        <v>-67.67337315450742</v>
       </c>
       <c r="N30" t="n">
-        <v>117.5881749430048</v>
+        <v>-142.889956692479</v>
       </c>
       <c r="O30" t="n">
-        <v>51.61109940937313</v>
+        <v>-62.71640633108808</v>
       </c>
       <c r="P30" t="n">
-        <v>50.01487984001106</v>
+        <v>-60.77672366105442</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.0036191756108</v>
+        <v>-43.75062022409237</v>
       </c>
       <c r="R30" t="n">
-        <v>24.6527244601473</v>
+        <v>-29.95732123718641</v>
       </c>
       <c r="S30" t="n">
-        <v>20.04142348199026</v>
+        <v>-24.35379352375586</v>
       </c>
       <c r="T30" t="n">
-        <v>36.18097690553993</v>
+        <v>-43.96614052076278</v>
       </c>
       <c r="U30" t="n">
-        <v>2.245703576362483</v>
+        <v>-2.728917996440678</v>
       </c>
       <c r="V30" t="n">
         <v>0.1968314163950334</v>
@@ -2698,7 +2698,7 @@
         <v>0.002</v>
       </c>
       <c r="X30" t="n">
-        <v>4.892484595075836</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="31">
@@ -2709,61 +2709,61 @@
         <v>30002412</v>
       </c>
       <c r="C31" t="n">
-        <v>276.3841914487384</v>
+        <v>-365.1473949353207</v>
       </c>
       <c r="D31" t="n">
-        <v>1352.205398985443</v>
+        <v>-1643.163277208944</v>
       </c>
       <c r="E31" t="n">
-        <v>141.8203103658717</v>
+        <v>-172.3361895540575</v>
       </c>
       <c r="F31" t="n">
-        <v>122.3840931319947</v>
+        <v>-148.717826226619</v>
       </c>
       <c r="G31" t="n">
-        <v>143.3154039992469</v>
+        <v>-174.1529867330913</v>
       </c>
       <c r="H31" t="n">
-        <v>121.1025843033875</v>
+        <v>-147.1605715017329</v>
       </c>
       <c r="I31" t="n">
-        <v>114.6950401603511</v>
+        <v>-139.3742978773026</v>
       </c>
       <c r="J31" t="n">
-        <v>87.9969395643662</v>
+        <v>-106.9314911088429</v>
       </c>
       <c r="K31" t="n">
-        <v>74.54109686398982</v>
+        <v>-90.58031649753929</v>
       </c>
       <c r="L31" t="n">
-        <v>74.54109686398982</v>
+        <v>-90.58031649753929</v>
       </c>
       <c r="M31" t="n">
-        <v>67.06562869711406</v>
+        <v>-81.49633060237061</v>
       </c>
       <c r="N31" t="n">
-        <v>141.6067255611039</v>
+        <v>-172.0766470999099</v>
       </c>
       <c r="O31" t="n">
-        <v>62.15317818745283</v>
+        <v>-75.52685415697403</v>
       </c>
       <c r="P31" t="n">
-        <v>60.23091494454192</v>
+        <v>-73.19097206964493</v>
       </c>
       <c r="Q31" t="n">
-        <v>43.35771536787946</v>
+        <v>-52.68711819197843</v>
       </c>
       <c r="R31" t="n">
-        <v>29.6882878627352</v>
+        <v>-36.07640112652712</v>
       </c>
       <c r="S31" t="n">
-        <v>24.13508293877035</v>
+        <v>-29.32829731868751</v>
       </c>
       <c r="T31" t="n">
-        <v>43.57130017264735</v>
+        <v>-52.94666064612613</v>
       </c>
       <c r="U31" t="n">
-        <v>2.704410797970886</v>
+        <v>-3.286326554417887</v>
       </c>
       <c r="V31" t="n">
         <v>0.2370361847759334</v>
@@ -2772,7 +2772,7 @@
         <v>0.002</v>
       </c>
       <c r="X31" t="n">
-        <v>4.892484595075835</v>
+        <v>4.500000000000001</v>
       </c>
     </row>
     <row r="32">
@@ -2783,61 +2783,61 @@
         <v>30002412</v>
       </c>
       <c r="C32" t="n">
-        <v>254.0422982845282</v>
+        <v>-335.6302071248606</v>
       </c>
       <c r="D32" t="n">
-        <v>1242.898030854715</v>
+        <v>-1510.335932061873</v>
       </c>
       <c r="E32" t="n">
-        <v>130.3560721035429</v>
+        <v>-158.4051585672221</v>
       </c>
       <c r="F32" t="n">
-        <v>112.4910080050152</v>
+        <v>-136.6960178599674</v>
       </c>
       <c r="G32" t="n">
-        <v>131.7303078034298</v>
+        <v>-160.0750924677803</v>
       </c>
       <c r="H32" t="n">
-        <v>111.3130916908266</v>
+        <v>-135.2646459452033</v>
       </c>
       <c r="I32" t="n">
-        <v>105.4235101198834</v>
+        <v>-128.107786371383</v>
       </c>
       <c r="J32" t="n">
-        <v>80.88358690762003</v>
+        <v>-98.28753814713183</v>
       </c>
       <c r="K32" t="n">
-        <v>68.5154656086393</v>
+        <v>-83.25813304210924</v>
       </c>
       <c r="L32" t="n">
-        <v>68.5154656086393</v>
+        <v>-83.25813304210924</v>
       </c>
       <c r="M32" t="n">
-        <v>61.64428710920557</v>
+        <v>-74.90846353931893</v>
       </c>
       <c r="N32" t="n">
-        <v>130.1597527178449</v>
+        <v>-158.1665965814282</v>
       </c>
       <c r="O32" t="n">
-        <v>57.1289412381491</v>
+        <v>-69.42153786605671</v>
       </c>
       <c r="P32" t="n">
-        <v>55.36206676686614</v>
+        <v>-67.27447999391062</v>
       </c>
       <c r="Q32" t="n">
-        <v>39.8528352967157</v>
+        <v>-48.42808311618388</v>
       </c>
       <c r="R32" t="n">
-        <v>27.28839461203686</v>
+        <v>-33.16011602536729</v>
       </c>
       <c r="S32" t="n">
-        <v>22.18409058388609</v>
+        <v>-26.95750439472306</v>
       </c>
       <c r="T32" t="n">
-        <v>40.04915468241381</v>
+        <v>-48.6666451019779</v>
       </c>
       <c r="U32" t="n">
-        <v>2.48579606170943</v>
+        <v>-3.020671864123746</v>
       </c>
       <c r="V32" t="n">
         <v>0.2178750414104016</v>
@@ -2846,7 +2846,7 @@
         <v>0.002</v>
       </c>
       <c r="X32" t="n">
-        <v>4.892484595075836</v>
+        <v>4.500000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -2857,61 +2857,61 @@
         <v>30002412</v>
       </c>
       <c r="C33" t="n">
-        <v>116.1687610816831</v>
+        <v>-153.4773760376515</v>
       </c>
       <c r="D33" t="n">
-        <v>568.35387402118</v>
+        <v>-690.6481921694316</v>
       </c>
       <c r="E33" t="n">
-        <v>59.60937803665509</v>
+        <v>-72.43569729908425</v>
       </c>
       <c r="F33" t="n">
-        <v>51.44002050452316</v>
+        <v>-62.50851589213148</v>
       </c>
       <c r="G33" t="n">
-        <v>60.23779015451142</v>
+        <v>-73.19932663808066</v>
       </c>
       <c r="H33" t="n">
-        <v>50.90138154636062</v>
+        <v>-61.85397645870601</v>
       </c>
       <c r="I33" t="n">
-        <v>48.20818675554789</v>
+        <v>-58.5812792915787</v>
       </c>
       <c r="J33" t="n">
-        <v>36.98654179382817</v>
+        <v>-44.94504109521495</v>
       </c>
       <c r="K33" t="n">
-        <v>31.33083273312144</v>
+        <v>-38.07237704424761</v>
       </c>
       <c r="L33" t="n">
-        <v>31.33083273312144</v>
+        <v>-38.07237704424761</v>
       </c>
       <c r="M33" t="n">
-        <v>28.18877214383992</v>
+        <v>-34.25423034926576</v>
       </c>
       <c r="N33" t="n">
-        <v>59.51960487696137</v>
+        <v>-72.32660739351338</v>
       </c>
       <c r="O33" t="n">
-        <v>26.12398947088349</v>
+        <v>-31.74516252113483</v>
       </c>
       <c r="P33" t="n">
-        <v>25.31603103363967</v>
+        <v>-30.76335337099664</v>
       </c>
       <c r="Q33" t="n">
-        <v>18.22395141783281</v>
+        <v>-22.14525083089474</v>
       </c>
       <c r="R33" t="n">
-        <v>12.47846919743232</v>
+        <v>-15.1634968743565</v>
       </c>
       <c r="S33" t="n">
-        <v>10.14436704539462</v>
+        <v>-12.32715932951284</v>
       </c>
       <c r="T33" t="n">
-        <v>18.31372457752657</v>
+        <v>-22.25434073646565</v>
       </c>
       <c r="U33" t="n">
-        <v>1.13670774804236</v>
+        <v>-1.381296384338863</v>
       </c>
       <c r="V33" t="n">
         <v>0.09963015530161504</v>
@@ -2920,7 +2920,7 @@
         <v>0.002</v>
       </c>
       <c r="X33" t="n">
-        <v>4.892484595075835</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="34">
@@ -2931,61 +2931,61 @@
         <v>30002412</v>
       </c>
       <c r="C34" t="n">
-        <v>79.28954207711278</v>
+        <v>-104.7540728842377</v>
       </c>
       <c r="D34" t="n">
-        <v>387.9228631628915</v>
+        <v>-471.3933279790695</v>
       </c>
       <c r="E34" t="n">
-        <v>40.68563909969356</v>
+        <v>-49.44008368000348</v>
       </c>
       <c r="F34" t="n">
-        <v>35.109745789344</v>
+        <v>-42.66440956120784</v>
       </c>
       <c r="G34" t="n">
-        <v>41.11455396972047</v>
+        <v>-49.96128938144933</v>
       </c>
       <c r="H34" t="n">
-        <v>34.74210447217809</v>
+        <v>-42.21766181711142</v>
       </c>
       <c r="I34" t="n">
-        <v>32.90389788634857</v>
+        <v>-39.98392309662933</v>
       </c>
       <c r="J34" t="n">
-        <v>25.24470377872553</v>
+        <v>-30.67667842795398</v>
       </c>
       <c r="K34" t="n">
-        <v>21.38446994848352</v>
+        <v>-25.9858271149416</v>
       </c>
       <c r="L34" t="n">
-        <v>21.38446994848352</v>
+        <v>-25.9858271149416</v>
       </c>
       <c r="M34" t="n">
-        <v>19.23989559834907</v>
+        <v>-23.3797986077125</v>
       </c>
       <c r="N34" t="n">
-        <v>40.6243655468326</v>
+        <v>-49.36562572265411</v>
       </c>
       <c r="O34" t="n">
-        <v>17.83060388254643</v>
+        <v>-21.66726558867623</v>
       </c>
       <c r="P34" t="n">
-        <v>17.27914190679757</v>
+        <v>-20.9971439725316</v>
       </c>
       <c r="Q34" t="n">
-        <v>12.43853123077981</v>
+        <v>-15.11496534192878</v>
       </c>
       <c r="R34" t="n">
-        <v>8.517023847676818</v>
+        <v>-10.349656071567</v>
       </c>
       <c r="S34" t="n">
-        <v>6.923911473291227</v>
+        <v>-8.413749180482524</v>
       </c>
       <c r="T34" t="n">
-        <v>12.4998047836408</v>
+        <v>-15.18942329927818</v>
       </c>
       <c r="U34" t="n">
-        <v>0.7758457263257832</v>
+        <v>-0.942786655958139</v>
       </c>
       <c r="V34" t="n">
         <v>0.06800132253611731</v>
@@ -2994,7 +2994,7 @@
         <v>0.002</v>
       </c>
       <c r="X34" t="n">
-        <v>4.892484595075835</v>
+        <v>4.500000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3005,61 +3005,61 @@
         <v>30002412</v>
       </c>
       <c r="C35" t="n">
-        <v>60.69777153363354</v>
+        <v>-80.19139241542436</v>
       </c>
       <c r="D35" t="n">
-        <v>296.9629121837347</v>
+        <v>-360.8612658694097</v>
       </c>
       <c r="E35" t="n">
-        <v>31.14569162691514</v>
+        <v>-37.84739860010866</v>
       </c>
       <c r="F35" t="n">
-        <v>26.87723087684093</v>
+        <v>-32.66048102087692</v>
       </c>
       <c r="G35" t="n">
-        <v>31.47403476153625</v>
+        <v>-38.24639226004959</v>
       </c>
       <c r="H35" t="n">
-        <v>26.59579390430857</v>
+        <v>-32.31848645521328</v>
       </c>
       <c r="I35" t="n">
-        <v>25.18860904164674</v>
+        <v>-30.60851362689512</v>
       </c>
       <c r="J35" t="n">
-        <v>19.32533878055578</v>
+        <v>-23.48362684223611</v>
       </c>
       <c r="K35" t="n">
-        <v>16.37025056896594</v>
+        <v>-19.89268390276796</v>
       </c>
       <c r="L35" t="n">
-        <v>16.37025056896594</v>
+        <v>-19.89268390276796</v>
       </c>
       <c r="M35" t="n">
-        <v>14.72853489586048</v>
+        <v>-17.89771560306344</v>
       </c>
       <c r="N35" t="n">
-        <v>31.09878546482643</v>
+        <v>-37.79039950583141</v>
       </c>
       <c r="O35" t="n">
-        <v>13.64969316781974</v>
+        <v>-16.58673643468618</v>
       </c>
       <c r="P35" t="n">
-        <v>13.22753770902119</v>
+        <v>-16.07374458619073</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.521950904011709</v>
+        <v>-11.57081613828623</v>
       </c>
       <c r="R35" t="n">
-        <v>6.519956530333141</v>
+        <v>-7.922874104540823</v>
       </c>
       <c r="S35" t="n">
-        <v>5.300396316026224</v>
+        <v>-6.440897653331749</v>
       </c>
       <c r="T35" t="n">
-        <v>9.568857066100437</v>
+        <v>-11.62781523256351</v>
       </c>
       <c r="U35" t="n">
-        <v>0.5939258243674693</v>
+        <v>-0.7217225317388194</v>
       </c>
       <c r="V35" t="n">
         <v>0.05205640783330492</v>
@@ -3068,7 +3068,7 @@
         <v>0.002</v>
       </c>
       <c r="X35" t="n">
-        <v>4.892484595075836</v>
+        <v>4.500000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3079,61 +3079,61 @@
         <v>30002412</v>
       </c>
       <c r="C36" t="n">
-        <v>65.64742332671266</v>
+        <v>-86.73066822785808</v>
       </c>
       <c r="D36" t="n">
-        <v>321.1790073323638</v>
+        <v>-390.2880070253614</v>
       </c>
       <c r="E36" t="n">
-        <v>33.68549374011838</v>
+        <v>-40.93369715129361</v>
       </c>
       <c r="F36" t="n">
-        <v>29.06895770043349</v>
+        <v>-35.32380793326995</v>
       </c>
       <c r="G36" t="n">
-        <v>34.04061189701724</v>
+        <v>-41.36522709114161</v>
       </c>
       <c r="H36" t="n">
-        <v>28.76457070880592</v>
+        <v>-34.95392512768598</v>
       </c>
       <c r="I36" t="n">
-        <v>27.24263575066804</v>
+        <v>-33.10451109976608</v>
       </c>
       <c r="J36" t="n">
-        <v>20.9012400917602</v>
+        <v>-25.39861931676653</v>
       </c>
       <c r="K36" t="n">
-        <v>17.70517667967066</v>
+        <v>-21.51484985813475</v>
       </c>
       <c r="L36" t="n">
-        <v>17.70517667967066</v>
+        <v>-21.51484985813475</v>
       </c>
       <c r="M36" t="n">
-        <v>15.92958589517647</v>
+        <v>-19.35720015889488</v>
       </c>
       <c r="N36" t="n">
-        <v>33.63476257484714</v>
+        <v>-40.87205001702964</v>
       </c>
       <c r="O36" t="n">
-        <v>14.76276909393743</v>
+        <v>-17.93931607082296</v>
       </c>
       <c r="P36" t="n">
-        <v>14.30618860649606</v>
+        <v>-17.38449186244699</v>
       </c>
       <c r="Q36" t="n">
-        <v>10.29842655006631</v>
+        <v>-12.51436825559127</v>
       </c>
       <c r="R36" t="n">
-        <v>7.051631972705507</v>
+        <v>-8.568951662695504</v>
       </c>
       <c r="S36" t="n">
-        <v>5.73262167565268</v>
+        <v>-6.966126171831598</v>
       </c>
       <c r="T36" t="n">
-        <v>10.34915771533758</v>
+        <v>-12.57601538985527</v>
       </c>
       <c r="U36" t="n">
-        <v>0.6423580146647275</v>
+        <v>-0.7805760140507227</v>
       </c>
       <c r="V36" t="n">
         <v>0.05630139221844997</v>
@@ -3142,7 +3142,7 @@
         <v>0.002</v>
       </c>
       <c r="X36" t="n">
-        <v>4.892484595075836</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="37">
@@ -3153,58 +3153,58 @@
         <v>30002511</v>
       </c>
       <c r="C37" t="n">
-        <v>4375.967911874831</v>
+        <v>-1540.471111111111</v>
       </c>
       <c r="D37" t="n">
-        <v>19691.85560343674</v>
+        <v>-6932.12</v>
       </c>
       <c r="E37" t="n">
-        <v>1854.389989561307</v>
+        <v>-652.8005381165918</v>
       </c>
       <c r="F37" t="n">
-        <v>1877.817657067913</v>
+        <v>-661.0477752356547</v>
       </c>
       <c r="G37" t="n">
-        <v>1867.004887449479</v>
+        <v>-657.2413581037796</v>
       </c>
       <c r="H37" t="n">
-        <v>1913.86022246269</v>
+        <v>-673.7358323419054</v>
       </c>
       <c r="I37" t="n">
-        <v>1645.343110271597</v>
+        <v>-579.2098069003385</v>
       </c>
       <c r="J37" t="n">
-        <v>1275.005750840257</v>
+        <v>-448.840020133614</v>
       </c>
       <c r="K37" t="n">
-        <v>1117.319527238105</v>
+        <v>-393.3297702937677</v>
       </c>
       <c r="L37" t="n">
-        <v>1110.11101415915</v>
+        <v>-390.7921588725176</v>
       </c>
       <c r="M37" t="n">
-        <v>1091.188667326892</v>
+        <v>-384.1309288917361</v>
       </c>
       <c r="N37" t="n">
-        <v>1903.047452844257</v>
+        <v>-669.9294152100302</v>
       </c>
       <c r="O37" t="n">
-        <v>970.4460732543868</v>
+        <v>-341.6259375857966</v>
       </c>
       <c r="P37" t="n">
-        <v>876.7354032279649</v>
+        <v>-308.6369891095451</v>
       </c>
       <c r="Q37" t="n">
-        <v>682.105550096166</v>
+        <v>-240.1214807357921</v>
       </c>
       <c r="R37" t="n">
-        <v>538.8363526519252</v>
+        <v>-189.6864537384461</v>
       </c>
       <c r="S37" t="n">
-        <v>441.5214260860255</v>
+        <v>-155.4286995515695</v>
       </c>
       <c r="T37" t="n">
-        <v>527.1225188986223</v>
+        <v>-185.5628351789146</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X37" t="n">
         <v>4.5</v>
@@ -3301,61 +3301,61 @@
         <v>30002513</v>
       </c>
       <c r="C39" t="n">
-        <v>433.5119671094083</v>
+        <v>-1540.471111111111</v>
       </c>
       <c r="D39" t="n">
-        <v>1950.803851992338</v>
+        <v>-6932.12</v>
       </c>
       <c r="E39" t="n">
-        <v>188.322404187713</v>
+        <v>-669.1977274826789</v>
       </c>
       <c r="F39" t="n">
-        <v>177.5096345692797</v>
+        <v>-630.7748914549653</v>
       </c>
       <c r="G39" t="n">
-        <v>145.0713257139799</v>
+        <v>-515.5063833718245</v>
       </c>
       <c r="H39" t="n">
-        <v>146.8734539837187</v>
+        <v>-521.9101893764433</v>
       </c>
       <c r="I39" t="n">
-        <v>142.3681333093715</v>
+        <v>-505.9006743648961</v>
       </c>
       <c r="J39" t="n">
-        <v>147.7745181185882</v>
+        <v>-525.1120923787529</v>
       </c>
       <c r="K39" t="n">
-        <v>91.00747762181348</v>
+        <v>-323.3922032332564</v>
       </c>
       <c r="L39" t="n">
-        <v>108.1276961843328</v>
+        <v>-384.2283602771363</v>
       </c>
       <c r="M39" t="n">
-        <v>98.21599070076897</v>
+        <v>-349.0074272517321</v>
       </c>
       <c r="N39" t="n">
-        <v>191.0255965923213</v>
+        <v>-678.8034364896073</v>
       </c>
       <c r="O39" t="n">
-        <v>88.30428521720512</v>
+        <v>-313.7864942263279</v>
       </c>
       <c r="P39" t="n">
-        <v>88.30428521720512</v>
+        <v>-313.7864942263279</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.99683627311904</v>
+        <v>-291.3731732101616</v>
       </c>
       <c r="R39" t="n">
-        <v>88.30428521720512</v>
+        <v>-313.7864942263279</v>
       </c>
       <c r="S39" t="n">
-        <v>70.28300251981634</v>
+        <v>-249.7484341801386</v>
       </c>
       <c r="T39" t="n">
-        <v>97.31492656589954</v>
+        <v>-345.8055242494226</v>
       </c>
       <c r="U39" t="n">
-        <v>661.3225058254025</v>
+        <v>-2349.98868</v>
       </c>
       <c r="V39" t="n">
         <v>1</v>
@@ -3364,7 +3364,7 @@
         <v>0.339</v>
       </c>
       <c r="X39" t="n">
-        <v>4.500000000000001</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="40">
@@ -3375,61 +3375,61 @@
         <v>30002514</v>
       </c>
       <c r="C40" t="n">
-        <v>775.5158654109646</v>
+        <v>-1540.471111111111</v>
       </c>
       <c r="D40" t="n">
-        <v>3489.821394349341</v>
+        <v>-6932.12</v>
       </c>
       <c r="E40" t="n">
-        <v>204.5415586153629</v>
+        <v>-406.2977640072296</v>
       </c>
       <c r="F40" t="n">
-        <v>285.6373307536125</v>
+        <v>-567.3849832171444</v>
       </c>
       <c r="G40" t="n">
-        <v>277.5277535397875</v>
+        <v>-551.2762612961528</v>
       </c>
       <c r="H40" t="n">
-        <v>288.3405231582208</v>
+        <v>-572.7545571908081</v>
       </c>
       <c r="I40" t="n">
-        <v>231.5734826614461</v>
+        <v>-459.9935037438678</v>
       </c>
       <c r="J40" t="n">
-        <v>230.6724185265766</v>
+        <v>-458.2036457526465</v>
       </c>
       <c r="K40" t="n">
-        <v>225.26603371736</v>
+        <v>-447.4644978053188</v>
       </c>
       <c r="L40" t="n">
-        <v>245.0894446844877</v>
+        <v>-486.8413736121869</v>
       </c>
       <c r="M40" t="n">
-        <v>220.7607130430128</v>
+        <v>-438.5152078492125</v>
       </c>
       <c r="N40" t="n">
-        <v>260.4075349772681</v>
+        <v>-517.2689594629486</v>
       </c>
       <c r="O40" t="n">
-        <v>193.7287889969296</v>
+        <v>-384.8194681125743</v>
       </c>
       <c r="P40" t="n">
-        <v>177.5096345692797</v>
+        <v>-352.6020242705912</v>
       </c>
       <c r="Q40" t="n">
-        <v>147.7745181185881</v>
+        <v>-293.5367105602891</v>
       </c>
       <c r="R40" t="n">
-        <v>127.9511071514604</v>
+        <v>-254.1598347534211</v>
       </c>
       <c r="S40" t="n">
-        <v>133.3574919606771</v>
+        <v>-264.8989827007487</v>
       </c>
       <c r="T40" t="n">
-        <v>239.6830598752711</v>
+        <v>-476.1022256648593</v>
       </c>
       <c r="U40" t="n">
-        <v>6.979642788698682</v>
+        <v>-13.86424</v>
       </c>
       <c r="V40" t="n">
         <v>1</v>
@@ -3438,7 +3438,7 @@
         <v>0.002</v>
       </c>
       <c r="X40" t="n">
-        <v>4.500000000000001</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="41">
@@ -6475,58 +6475,58 @@
         <v>30002311</v>
       </c>
       <c r="C82" t="n">
-        <v>1697.29419564303</v>
+        <v>-648.2190373626498</v>
       </c>
       <c r="D82" t="n">
-        <v>6789.176782572118</v>
+        <v>-2592.876149450599</v>
       </c>
       <c r="E82" t="n">
-        <v>851.0063232721704</v>
+        <v>-325.0105379945772</v>
       </c>
       <c r="F82" t="n">
-        <v>817.6401347557565</v>
+        <v>-312.2675505642948</v>
       </c>
       <c r="G82" t="n">
-        <v>799.7774277722216</v>
+        <v>-305.4455471925273</v>
       </c>
       <c r="H82" t="n">
-        <v>666.3126737065666</v>
+        <v>-254.4735974713976</v>
       </c>
       <c r="I82" t="n">
-        <v>559.8104962198316</v>
+        <v>-213.7990113302941</v>
       </c>
       <c r="J82" t="n">
-        <v>432.4123218844335</v>
+        <v>-165.1439684146703</v>
       </c>
       <c r="K82" t="n">
-        <v>384.55374845685</v>
+        <v>-146.8661480601238</v>
       </c>
       <c r="L82" t="n">
-        <v>352.1986565621458</v>
+        <v>-134.5093117640924</v>
       </c>
       <c r="M82" t="n">
-        <v>316.1362103878399</v>
+        <v>-120.7365879758073</v>
       </c>
       <c r="N82" t="n">
-        <v>813.2587160616821</v>
+        <v>-310.5942289825406</v>
       </c>
       <c r="O82" t="n">
-        <v>248.3927367333028</v>
+        <v>-94.86446198099144</v>
       </c>
       <c r="P82" t="n">
-        <v>198.5119700623004</v>
+        <v>-75.81433935794297</v>
       </c>
       <c r="Q82" t="n">
-        <v>136.4980439307838</v>
+        <v>-52.13040312388269</v>
       </c>
       <c r="R82" t="n">
-        <v>93.35792140451136</v>
+        <v>-35.65462139584074</v>
       </c>
       <c r="S82" t="n">
-        <v>59.65470068086105</v>
+        <v>-22.78291692080799</v>
       </c>
       <c r="T82" t="n">
-        <v>59.65470068086105</v>
+        <v>-22.78291692080799</v>
       </c>
       <c r="U82" t="n">
         <v>0</v>
@@ -6535,10 +6535,10 @@
         <v>0.3740379782015602</v>
       </c>
       <c r="W82" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X82" t="n">
-        <v>3.999999999999999</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -6549,58 +6549,58 @@
         <v>30002311</v>
       </c>
       <c r="C83" t="n">
-        <v>657.4218408327309</v>
+        <v>-251.0780711438911</v>
       </c>
       <c r="D83" t="n">
-        <v>2629.687363330923</v>
+        <v>-1004.312284575564</v>
       </c>
       <c r="E83" t="n">
-        <v>329.624731553345</v>
+        <v>-125.8880320965697</v>
       </c>
       <c r="F83" t="n">
-        <v>316.7008311874911</v>
+        <v>-120.9522241054567</v>
       </c>
       <c r="G83" t="n">
-        <v>309.7819754360742</v>
+        <v>-118.309821847588</v>
       </c>
       <c r="H83" t="n">
-        <v>258.0863739726586</v>
+        <v>-98.56658988313593</v>
       </c>
       <c r="I83" t="n">
-        <v>216.834328360438</v>
+        <v>-82.81188962867415</v>
       </c>
       <c r="J83" t="n">
-        <v>167.4885269635412</v>
+        <v>-63.96607729896986</v>
       </c>
       <c r="K83" t="n">
-        <v>148.95121532767</v>
+        <v>-56.88643351373703</v>
       </c>
       <c r="L83" t="n">
-        <v>136.4189483062358</v>
+        <v>-52.10019546174865</v>
       </c>
       <c r="M83" t="n">
-        <v>122.4506923552624</v>
+        <v>-46.76553429963658</v>
       </c>
       <c r="N83" t="n">
-        <v>315.0037533616719</v>
+        <v>-120.3040877025832</v>
       </c>
       <c r="O83" t="n">
-        <v>96.21125827913475</v>
+        <v>-36.74434837828588</v>
       </c>
       <c r="P83" t="n">
-        <v>76.89067995442386</v>
+        <v>-29.36556471480379</v>
       </c>
       <c r="Q83" t="n">
-        <v>52.87050149667514</v>
+        <v>-20.19194178182603</v>
       </c>
       <c r="R83" t="n">
-        <v>36.16081213476299</v>
+        <v>-13.81029104584151</v>
       </c>
       <c r="S83" t="n">
-        <v>23.10636732076913</v>
+        <v>-8.824626408353598</v>
       </c>
       <c r="T83" t="n">
-        <v>23.10636732076913</v>
+        <v>-8.824626408353598</v>
       </c>
       <c r="U83" t="n">
         <v>0</v>
@@ -6609,10 +6609,10 @@
         <v>0.1448780870174729</v>
       </c>
       <c r="W83" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X83" t="n">
-        <v>3.999999999999999</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -6623,58 +6623,58 @@
         <v>30002311</v>
       </c>
       <c r="C84" t="n">
-        <v>897.6020375980113</v>
+        <v>-342.8060558034851</v>
       </c>
       <c r="D84" t="n">
-        <v>3590.408150392045</v>
+        <v>-1371.22422321394</v>
       </c>
       <c r="E84" t="n">
-        <v>450.0486785017829</v>
+        <v>-171.8795255964655</v>
       </c>
       <c r="F84" t="n">
-        <v>432.403205562505</v>
+        <v>-165.1404867710991</v>
       </c>
       <c r="G84" t="n">
-        <v>422.9566392414773</v>
+        <v>-161.5327185110544</v>
       </c>
       <c r="H84" t="n">
-        <v>352.3747474843661</v>
+        <v>-134.576563209589</v>
       </c>
       <c r="I84" t="n">
-        <v>296.0518237589945</v>
+        <v>-113.0660958478135</v>
       </c>
       <c r="J84" t="n">
-        <v>228.6781998090247</v>
+        <v>-87.33522033277828</v>
       </c>
       <c r="K84" t="n">
-        <v>203.3685315526868</v>
+        <v>-77.66912423982853</v>
       </c>
       <c r="L84" t="n">
-        <v>186.2577699145992</v>
+        <v>-71.13429871220055</v>
       </c>
       <c r="M84" t="n">
-        <v>167.1864001721474</v>
+        <v>-63.85069109286518</v>
       </c>
       <c r="N84" t="n">
-        <v>430.0861232573474</v>
+        <v>-164.2555624808995</v>
       </c>
       <c r="O84" t="n">
-        <v>131.3607429924016</v>
+        <v>-50.16840014439406</v>
       </c>
       <c r="P84" t="n">
-        <v>104.9816521336832</v>
+        <v>-40.09387745596759</v>
       </c>
       <c r="Q84" t="n">
-        <v>72.18602566068201</v>
+        <v>-27.5687951946806</v>
       </c>
       <c r="R84" t="n">
-        <v>49.37167680989855</v>
+        <v>-18.8556944911766</v>
       </c>
       <c r="S84" t="n">
-        <v>31.54796677022398</v>
+        <v>-12.04858456656411</v>
       </c>
       <c r="T84" t="n">
-        <v>31.54796677022398</v>
+        <v>-12.04858456656411</v>
       </c>
       <c r="U84" t="n">
         <v>0</v>
@@ -6683,7 +6683,7 @@
         <v>0.1978073407866483</v>
       </c>
       <c r="W84" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X84" t="n">
         <v>4</v>
@@ -6697,58 +6697,58 @@
         <v>30002311</v>
       </c>
       <c r="C85" t="n">
-        <v>1219.928001622169</v>
+        <v>-465.9065923239498</v>
       </c>
       <c r="D85" t="n">
-        <v>4879.712006488675</v>
+        <v>-1863.626369295799</v>
       </c>
       <c r="E85" t="n">
-        <v>611.6596910436808</v>
+        <v>-233.6009026246969</v>
       </c>
       <c r="F85" t="n">
-        <v>587.6777863255326</v>
+        <v>-224.4418969376295</v>
       </c>
       <c r="G85" t="n">
-        <v>574.83898885016</v>
+        <v>-219.5385908627348</v>
       </c>
       <c r="H85" t="n">
-        <v>478.911369977567</v>
+        <v>-182.9025681144656</v>
       </c>
       <c r="I85" t="n">
-        <v>402.3630680489322</v>
+        <v>-153.6677620830184</v>
       </c>
       <c r="J85" t="n">
-        <v>310.7957954887297</v>
+        <v>-118.6970130960341</v>
       </c>
       <c r="K85" t="n">
-        <v>276.3975079132039</v>
+        <v>-105.5598534236749</v>
       </c>
       <c r="L85" t="n">
-        <v>253.142327580454</v>
+        <v>-96.67839336348841</v>
       </c>
       <c r="M85" t="n">
-        <v>227.2224911679099</v>
+        <v>-86.77926600473887</v>
       </c>
       <c r="N85" t="n">
-        <v>584.5286473221394</v>
+        <v>-223.239199221146</v>
       </c>
       <c r="O85" t="n">
-        <v>178.5319573462149</v>
+        <v>-68.18370900372339</v>
       </c>
       <c r="P85" t="n">
-        <v>142.6802209998923</v>
+        <v>-54.49145807760257</v>
       </c>
       <c r="Q85" t="n">
-        <v>98.10779202878841</v>
+        <v>-37.46865962891178</v>
       </c>
       <c r="R85" t="n">
-        <v>67.10088491845528</v>
+        <v>-25.62671288199645</v>
       </c>
       <c r="S85" t="n">
-        <v>42.87673873850753</v>
+        <v>-16.37519198596885</v>
       </c>
       <c r="T85" t="n">
-        <v>42.87673873850753</v>
+        <v>-16.37519198596885</v>
       </c>
       <c r="U85" t="n">
         <v>0</v>
@@ -6757,10 +6757,10 @@
         <v>0.2688393116818231</v>
       </c>
       <c r="W85" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X85" t="n">
-        <v>3.999999999999999</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -6771,58 +6771,58 @@
         <v>90005166</v>
       </c>
       <c r="C86" t="n">
-        <v>3024.317110598469</v>
+        <v>-704.1965804688737</v>
       </c>
       <c r="D86" t="n">
-        <v>12217.06805287177</v>
+        <v>-3156.37449042692</v>
       </c>
       <c r="E86" t="n">
-        <v>1369.657746556014</v>
+        <v>-354.2997158449337</v>
       </c>
       <c r="F86" t="n">
-        <v>1296.861441316086</v>
+        <v>-335.5267666905541</v>
       </c>
       <c r="G86" t="n">
-        <v>1336.296139061481</v>
+        <v>-345.5211705725575</v>
       </c>
       <c r="H86" t="n">
-        <v>1191.70318407824</v>
+        <v>-307.905607888488</v>
       </c>
       <c r="I86" t="n">
-        <v>986.1769763748659</v>
+        <v>-254.8438962768623</v>
       </c>
       <c r="J86" t="n">
-        <v>816.3929650398387</v>
+        <v>-210.8178195673538</v>
       </c>
       <c r="K86" t="n">
-        <v>685.4332694006242</v>
+        <v>-177.1048011101271</v>
       </c>
       <c r="L86" t="n">
-        <v>719.9386245539077</v>
+        <v>-185.7683913724327</v>
       </c>
       <c r="M86" t="n">
-        <v>622.8048381529361</v>
+        <v>-160.760437817307</v>
       </c>
       <c r="N86" t="n">
-        <v>1352.309987279321</v>
+        <v>-349.6808044291411</v>
       </c>
       <c r="O86" t="n">
-        <v>505.3793008787213</v>
+        <v>-130.4105089571908</v>
       </c>
       <c r="P86" t="n">
-        <v>427.9728685563871</v>
+        <v>-110.3784981302199</v>
       </c>
       <c r="Q86" t="n">
-        <v>322.2892842673225</v>
+        <v>-83.05831665813042</v>
       </c>
       <c r="R86" t="n">
-        <v>214.9505852659591</v>
+        <v>-55.40698904496798</v>
       </c>
       <c r="S86" t="n">
-        <v>161.6074527695664</v>
+        <v>-41.60559048272156</v>
       </c>
       <c r="T86" t="n">
-        <v>207.2933893204997</v>
+        <v>-53.28517558393195</v>
       </c>
       <c r="U86" t="n">
         <v>0</v>
@@ -6831,10 +6831,10 @@
         <v>0.4687927642680424</v>
       </c>
       <c r="W86" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X86" t="n">
-        <v>4.039612119396496</v>
+        <v>4.482234901403977</v>
       </c>
     </row>
     <row r="87">
@@ -6845,58 +6845,58 @@
         <v>30002312</v>
       </c>
       <c r="C87" t="n">
-        <v>658.13564805357</v>
+        <v>-151.0712193441982</v>
       </c>
       <c r="D87" t="n">
-        <v>2659.189977058482</v>
+        <v>-679.8204870488919</v>
       </c>
       <c r="E87" t="n">
-        <v>297.3506886253212</v>
+        <v>-76.01754357888947</v>
       </c>
       <c r="F87" t="n">
-        <v>281.4448568415002</v>
+        <v>-71.9512262403456</v>
       </c>
       <c r="G87" t="n">
-        <v>290.3697957868665</v>
+        <v>-74.23288208030635</v>
       </c>
       <c r="H87" t="n">
-        <v>259.3534238084154</v>
+        <v>-66.3035632701458</v>
       </c>
       <c r="I87" t="n">
-        <v>214.5519976173195</v>
+        <v>-54.85010276658058</v>
       </c>
       <c r="J87" t="n">
-        <v>177.8802187823987</v>
+        <v>-45.47498223604889</v>
       </c>
       <c r="K87" t="n">
-        <v>149.1613558393885</v>
+        <v>-38.13302037478913</v>
       </c>
       <c r="L87" t="n">
-        <v>157.114271731299</v>
+        <v>-40.16617904406106</v>
       </c>
       <c r="M87" t="n">
-        <v>135.8181302874053</v>
+        <v>-34.72183194078846</v>
       </c>
       <c r="N87" t="n">
-        <v>293.8160593400278</v>
+        <v>-75.11391750365755</v>
       </c>
       <c r="O87" t="n">
-        <v>110.2804337011593</v>
+        <v>-28.19313354723746</v>
       </c>
       <c r="P87" t="n">
-        <v>93.49094459601484</v>
+        <v>-23.90090968988561</v>
       </c>
       <c r="Q87" t="n">
-        <v>70.51585424160663</v>
+        <v>-18.0273402008778</v>
       </c>
       <c r="R87" t="n">
-        <v>47.01056949440443</v>
+        <v>-12.0182268005852</v>
       </c>
       <c r="S87" t="n">
-        <v>35.43465858506801</v>
+        <v>-9.058851404200503</v>
       </c>
       <c r="T87" t="n">
-        <v>45.59671778028701</v>
+        <v>-11.65677637049241</v>
       </c>
       <c r="U87" t="n">
         <v>0</v>
@@ -6905,10 +6905,10 @@
         <v>0.09806819371979883</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X87" t="n">
-        <v>4.040489198424385</v>
+        <v>4.500000000000001</v>
       </c>
     </row>
     <row r="88">
@@ -6919,58 +6919,58 @@
         <v>30002312</v>
       </c>
       <c r="C88" t="n">
-        <v>507.4497284524065</v>
+        <v>-116.4821408168843</v>
       </c>
       <c r="D88" t="n">
-        <v>2050.345146555336</v>
+        <v>-524.1696336759792</v>
       </c>
       <c r="E88" t="n">
-        <v>229.2696447066994</v>
+        <v>-58.61266132720798</v>
       </c>
       <c r="F88" t="n">
-        <v>217.0055923895505</v>
+        <v>-55.47736295012108</v>
       </c>
       <c r="G88" t="n">
-        <v>223.8870884119508</v>
+        <v>-57.23661370615319</v>
       </c>
       <c r="H88" t="n">
-        <v>199.9721863935105</v>
+        <v>-51.12278187083371</v>
       </c>
       <c r="I88" t="n">
-        <v>165.4284390335412</v>
+        <v>-42.29169144203893</v>
       </c>
       <c r="J88" t="n">
-        <v>137.1529850801147</v>
+        <v>-35.06308685042189</v>
       </c>
       <c r="K88" t="n">
-        <v>115.0095572852626</v>
+        <v>-29.40213144734831</v>
       </c>
       <c r="L88" t="n">
-        <v>121.141583443837</v>
+        <v>-30.96978063589176</v>
       </c>
       <c r="M88" t="n">
-        <v>104.7213800636544</v>
+        <v>-26.77196447545874</v>
       </c>
       <c r="N88" t="n">
-        <v>226.5442997473331</v>
+        <v>-57.91592835452203</v>
       </c>
       <c r="O88" t="n">
-        <v>85.03076273223205</v>
+        <v>-21.73806874780254</v>
       </c>
       <c r="P88" t="n">
-        <v>72.08537417524161</v>
+        <v>-18.42858712754414</v>
       </c>
       <c r="Q88" t="n">
-        <v>54.37063193935992</v>
+        <v>-13.89982280508528</v>
       </c>
       <c r="R88" t="n">
-        <v>36.24708795957328</v>
+        <v>-9.266548536723521</v>
       </c>
       <c r="S88" t="n">
-        <v>27.32158321764829</v>
+        <v>-6.984748051176942</v>
       </c>
       <c r="T88" t="n">
-        <v>35.15694997582672</v>
+        <v>-8.987855347649131</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
@@ -6979,10 +6979,10 @@
         <v>0.07561462203135248</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X88" t="n">
-        <v>4.040489198424385</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="89">
@@ -6993,58 +6993,58 @@
         <v>30002312</v>
       </c>
       <c r="C89" t="n">
-        <v>1206.239503429391</v>
+        <v>-276.8852791110102</v>
       </c>
       <c r="D89" t="n">
-        <v>4873.79768431925</v>
+        <v>-1245.983755999546</v>
       </c>
       <c r="E89" t="n">
-        <v>544.9881769093899</v>
+        <v>-139.3259342351534</v>
       </c>
       <c r="F89" t="n">
-        <v>515.8357632857079</v>
+        <v>-131.8731353756207</v>
       </c>
       <c r="G89" t="n">
-        <v>532.1935064856631</v>
+        <v>-136.0549836245808</v>
       </c>
       <c r="H89" t="n">
-        <v>475.3462999194828</v>
+        <v>-121.5220258484919</v>
       </c>
       <c r="I89" t="n">
-        <v>393.2336682127783</v>
+        <v>-100.5299757274747</v>
       </c>
       <c r="J89" t="n">
-        <v>326.0211590248446</v>
+        <v>-83.34713391244095</v>
       </c>
       <c r="K89" t="n">
-        <v>273.384856648752</v>
+        <v>-69.89069152717353</v>
       </c>
       <c r="L89" t="n">
-        <v>287.961063460593</v>
+        <v>-73.61709095693988</v>
       </c>
       <c r="M89" t="n">
-        <v>248.929220775552</v>
+        <v>-63.63862137278775</v>
       </c>
       <c r="N89" t="n">
-        <v>538.5098627707943</v>
+        <v>-137.6697567108129</v>
       </c>
       <c r="O89" t="n">
-        <v>202.1234011241958</v>
+        <v>-51.67273875942688</v>
       </c>
       <c r="P89" t="n">
-        <v>171.3514089658647</v>
+        <v>-43.805895518809</v>
       </c>
       <c r="Q89" t="n">
-        <v>129.2423670649906</v>
+        <v>-33.04074161059507</v>
       </c>
       <c r="R89" t="n">
-        <v>86.16157804332704</v>
+        <v>-22.02716107373005</v>
       </c>
       <c r="S89" t="n">
-        <v>64.9450992394251</v>
+        <v>-16.60317968151457</v>
       </c>
       <c r="T89" t="n">
-        <v>83.57025238788864</v>
+        <v>-21.36469006399381</v>
       </c>
       <c r="U89" t="n">
         <v>0</v>
@@ -7053,10 +7053,10 @@
         <v>0.1797406501906409</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X89" t="n">
-        <v>4.040489198424385</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="90">
@@ -7067,58 +7067,58 @@
         <v>30002312</v>
       </c>
       <c r="C90" t="n">
-        <v>1380.37091697272</v>
+        <v>-316.8561347361689</v>
       </c>
       <c r="D90" t="n">
-        <v>5577.37377984744</v>
+        <v>-1425.85260631276</v>
       </c>
       <c r="E90" t="n">
-        <v>623.6620732125954</v>
+        <v>-159.4388735002305</v>
       </c>
       <c r="F90" t="n">
-        <v>590.3012490882961</v>
+        <v>-150.9101967602479</v>
       </c>
       <c r="G90" t="n">
-        <v>609.0203781802643</v>
+        <v>-155.6957320421271</v>
       </c>
       <c r="H90" t="n">
-        <v>543.9667711378804</v>
+        <v>-139.064812399161</v>
       </c>
       <c r="I90" t="n">
-        <v>450.0004498544374</v>
+        <v>-115.0423729148766</v>
       </c>
       <c r="J90" t="n">
-        <v>373.0852164567473</v>
+        <v>-95.37903487547224</v>
       </c>
       <c r="K90" t="n">
-        <v>312.8503951212069</v>
+        <v>-79.98003520605918</v>
       </c>
       <c r="L90" t="n">
-        <v>329.5308071833565</v>
+        <v>-84.24437357605048</v>
       </c>
       <c r="M90" t="n">
-        <v>284.8643704391558</v>
+        <v>-72.82542305196267</v>
       </c>
       <c r="N90" t="n">
-        <v>616.2485567405292</v>
+        <v>-157.5436120024567</v>
       </c>
       <c r="O90" t="n">
-        <v>231.3017139284752</v>
+        <v>-59.13215873054612</v>
       </c>
       <c r="P90" t="n">
-        <v>196.0875106861593</v>
+        <v>-50.12966661612003</v>
       </c>
       <c r="Q90" t="n">
-        <v>147.8996536177269</v>
+        <v>-37.81046688058959</v>
       </c>
       <c r="R90" t="n">
-        <v>98.59976907848464</v>
+        <v>-25.20697792039306</v>
       </c>
       <c r="S90" t="n">
-        <v>74.32050263246683</v>
+        <v>-18.9999965151835</v>
       </c>
       <c r="T90" t="n">
-        <v>95.63436248965805</v>
+        <v>-24.4488733212835</v>
       </c>
       <c r="U90" t="n">
         <v>0</v>
@@ -7127,10 +7127,10 @@
         <v>0.205687813585564</v>
       </c>
       <c r="W90" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X90" t="n">
-        <v>4.040489198424385</v>
+        <v>4.500000000000001</v>
       </c>
     </row>
     <row r="91">
@@ -7141,58 +7141,58 @@
         <v>30002411</v>
       </c>
       <c r="C91" t="n">
-        <v>751.7419949791321</v>
+        <v>-419.174172970412</v>
       </c>
       <c r="D91" t="n">
-        <v>3382.838977406093</v>
+        <v>-1886.283778366854</v>
       </c>
       <c r="E91" t="n">
-        <v>356.50125919754</v>
+        <v>-198.7864473251725</v>
       </c>
       <c r="F91" t="n">
-        <v>322.9107003873179</v>
+        <v>-180.0562249843551</v>
       </c>
       <c r="G91" t="n">
-        <v>308.9350664297802</v>
+        <v>-172.2633587549638</v>
       </c>
       <c r="H91" t="n">
-        <v>293.4883131082912</v>
+        <v>-163.6501908172156</v>
       </c>
       <c r="I91" t="n">
-        <v>309.1802529904388</v>
+        <v>-172.4000757063567</v>
       </c>
       <c r="J91" t="n">
-        <v>238.8117100814333</v>
+        <v>-133.1623106566149</v>
       </c>
       <c r="K91" t="n">
-        <v>191.7358904349906</v>
+        <v>-106.9126559891918</v>
       </c>
       <c r="L91" t="n">
-        <v>175.0632043102088</v>
+        <v>-97.61590329447949</v>
       </c>
       <c r="M91" t="n">
-        <v>163.0490628379395</v>
+        <v>-90.91677267623091</v>
       </c>
       <c r="N91" t="n">
-        <v>329.5307375250989</v>
+        <v>-183.7475826719614</v>
       </c>
       <c r="O91" t="n">
-        <v>143.4341379852551</v>
+        <v>-79.97941656480462</v>
       </c>
       <c r="P91" t="n">
-        <v>154.9579063362072</v>
+        <v>-86.40511328026757</v>
       </c>
       <c r="Q91" t="n">
-        <v>119.6510416013752</v>
+        <v>-66.71787227970027</v>
       </c>
       <c r="R91" t="n">
-        <v>94.39682585354394</v>
+        <v>-52.63602628623894</v>
       </c>
       <c r="S91" t="n">
-        <v>70.12335634834693</v>
+        <v>-39.10104809834893</v>
       </c>
       <c r="T91" t="n">
-        <v>111.0695119783257</v>
+        <v>-61.93277898095128</v>
       </c>
       <c r="U91" t="n">
         <v>0</v>
@@ -7201,10 +7201,10 @@
         <v>0.2721077792027337</v>
       </c>
       <c r="W91" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X91" t="n">
-        <v>4.499999999999999</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="92">
@@ -7215,58 +7215,58 @@
         <v>30002411</v>
       </c>
       <c r="C92" t="n">
-        <v>565.1174107547845</v>
+        <v>-315.1116006109158</v>
       </c>
       <c r="D92" t="n">
-        <v>2543.02834839653</v>
+        <v>-1418.002202749121</v>
       </c>
       <c r="E92" t="n">
-        <v>267.9976240174352</v>
+        <v>-149.4364863953919</v>
       </c>
       <c r="F92" t="n">
-        <v>242.7461284944719</v>
+        <v>-135.3561572095813</v>
       </c>
       <c r="G92" t="n">
-        <v>232.2400318170346</v>
+        <v>-129.4979180592805</v>
       </c>
       <c r="H92" t="n">
-        <v>220.6280302261829</v>
+        <v>-123.0230221563165</v>
       </c>
       <c r="I92" t="n">
-        <v>232.4243493026037</v>
+        <v>-129.6006941847244</v>
       </c>
       <c r="J92" t="n">
-        <v>179.5252309442791</v>
+        <v>-100.1039461823327</v>
       </c>
       <c r="K92" t="n">
-        <v>144.1362737150167</v>
+        <v>-80.370930097109</v>
       </c>
       <c r="L92" t="n">
-        <v>131.6026846963196</v>
+        <v>-73.3821535669256</v>
       </c>
       <c r="M92" t="n">
-        <v>122.5711279034349</v>
+        <v>-68.3461234201758</v>
       </c>
       <c r="N92" t="n">
-        <v>247.7227006048369</v>
+        <v>-138.1311125965659</v>
       </c>
       <c r="O92" t="n">
-        <v>107.8257290579089</v>
+        <v>-60.12403338466593</v>
       </c>
       <c r="P92" t="n">
-        <v>116.4886508796555</v>
+        <v>-64.95451128052798</v>
       </c>
       <c r="Q92" t="n">
-        <v>89.94693295770865</v>
+        <v>-50.15474921661022</v>
       </c>
       <c r="R92" t="n">
-        <v>70.96223194409392</v>
+        <v>-39.56880829589125</v>
       </c>
       <c r="S92" t="n">
-        <v>52.71480087275548</v>
+        <v>-29.39397187694779</v>
       </c>
       <c r="T92" t="n">
-        <v>83.49582096279102</v>
+        <v>-46.55758482607465</v>
       </c>
       <c r="U92" t="n">
         <v>0</v>
@@ -7275,10 +7275,10 @@
         <v>0.2045553456589213</v>
       </c>
       <c r="W92" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X92" t="n">
-        <v>4.499999999999999</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="93">
@@ -7289,58 +7289,58 @@
         <v>30002411</v>
       </c>
       <c r="C93" t="n">
-        <v>402.3094315718705</v>
+        <v>-224.3292570904153</v>
       </c>
       <c r="D93" t="n">
-        <v>1810.392442073417</v>
+        <v>-1009.481656906869</v>
       </c>
       <c r="E93" t="n">
-        <v>190.7886214955967</v>
+        <v>-106.3844552542282</v>
       </c>
       <c r="F93" t="n">
-        <v>172.8119769667819</v>
+        <v>-96.36061043316272</v>
       </c>
       <c r="G93" t="n">
-        <v>165.3326431117275</v>
+        <v>-92.19010565359532</v>
       </c>
       <c r="H93" t="n">
-        <v>157.0660109561412</v>
+        <v>-87.58060037091555</v>
       </c>
       <c r="I93" t="n">
-        <v>165.4638594951496</v>
+        <v>-92.26327240411405</v>
       </c>
       <c r="J93" t="n">
-        <v>127.8047574530338</v>
+        <v>-71.26441500523954</v>
       </c>
       <c r="K93" t="n">
-        <v>102.6112118360087</v>
+        <v>-57.21639890564408</v>
       </c>
       <c r="L93" t="n">
-        <v>93.68849776331228</v>
+        <v>-52.24105987037068</v>
       </c>
       <c r="M93" t="n">
-        <v>87.25889497563399</v>
+        <v>-48.65588909495307</v>
       </c>
       <c r="N93" t="n">
-        <v>176.3548193191761</v>
+        <v>-98.33611269716833</v>
       </c>
       <c r="O93" t="n">
-        <v>76.7615843018735</v>
+        <v>-42.80254905345496</v>
       </c>
       <c r="P93" t="n">
-        <v>82.92875432270779</v>
+        <v>-46.24138632783511</v>
       </c>
       <c r="Q93" t="n">
-        <v>64.03359510993893</v>
+        <v>-35.7053742531385</v>
       </c>
       <c r="R93" t="n">
-        <v>50.5183076174723</v>
+        <v>-28.16919894970967</v>
       </c>
       <c r="S93" t="n">
-        <v>37.52788565869371</v>
+        <v>-20.92569064835576</v>
       </c>
       <c r="T93" t="n">
-        <v>59.44102169016872</v>
+        <v>-33.14453798498307</v>
       </c>
       <c r="U93" t="n">
         <v>0</v>
@@ -7349,10 +7349,10 @@
         <v>0.1456238000650405</v>
       </c>
       <c r="W93" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X93" t="n">
-        <v>4.499999999999999</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="94">
@@ -7363,58 +7363,58 @@
         <v>30002411</v>
       </c>
       <c r="C94" t="n">
-        <v>553.0721797129254</v>
+        <v>-308.3951343313528</v>
       </c>
       <c r="D94" t="n">
-        <v>2488.824808708163</v>
+        <v>-1387.778104491088</v>
       </c>
       <c r="E94" t="n">
-        <v>262.2853715924962</v>
+        <v>-146.2513128890368</v>
       </c>
       <c r="F94" t="n">
-        <v>237.5721006790354</v>
+        <v>-132.4710997763834</v>
       </c>
       <c r="G94" t="n">
-        <v>227.2899368683254</v>
+        <v>-126.7377264375422</v>
       </c>
       <c r="H94" t="n">
-        <v>215.9254400249092</v>
+        <v>-120.4008401156651</v>
       </c>
       <c r="I94" t="n">
-        <v>227.4703257071098</v>
+        <v>-126.8383119347149</v>
       </c>
       <c r="J94" t="n">
-        <v>175.6987289759912</v>
+        <v>-97.9702742461636</v>
       </c>
       <c r="K94" t="n">
-        <v>141.0640719293893</v>
+        <v>-78.65785878901431</v>
       </c>
       <c r="L94" t="n">
-        <v>128.7976308920511</v>
+        <v>-71.81804498127393</v>
       </c>
       <c r="M94" t="n">
-        <v>119.9585777916162</v>
+        <v>-66.88935561981395</v>
       </c>
       <c r="N94" t="n">
-        <v>242.4425993262138</v>
+        <v>-135.1869082000451</v>
       </c>
       <c r="O94" t="n">
-        <v>105.5274706888654</v>
+        <v>-58.84251584600175</v>
       </c>
       <c r="P94" t="n">
-        <v>114.0057461117315</v>
+        <v>-63.57003421311642</v>
       </c>
       <c r="Q94" t="n">
-        <v>88.02975332678001</v>
+        <v>-49.08572262025445</v>
       </c>
       <c r="R94" t="n">
-        <v>69.44970293198831</v>
+        <v>-38.72541641147123</v>
       </c>
       <c r="S94" t="n">
-        <v>51.59120789233418</v>
+        <v>-28.76745219137863</v>
       </c>
       <c r="T94" t="n">
-        <v>81.71614396932652</v>
+        <v>-45.56523021921161</v>
       </c>
       <c r="U94" t="n">
         <v>0</v>
@@ -7423,10 +7423,10 @@
         <v>0.2001953377164688</v>
       </c>
       <c r="W94" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X94" t="n">
-        <v>4.499999999999998</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="95">
@@ -7437,58 +7437,58 @@
         <v>30002411</v>
       </c>
       <c r="C95" t="n">
-        <v>490.4216204909906</v>
+        <v>-273.4609461080151</v>
       </c>
       <c r="D95" t="n">
-        <v>2206.897292209457</v>
+        <v>-1230.574257486068</v>
       </c>
       <c r="E95" t="n">
-        <v>232.5743757970972</v>
+        <v>-129.6843495241533</v>
       </c>
       <c r="F95" t="n">
-        <v>210.660559095445</v>
+        <v>-117.4651226432668</v>
       </c>
       <c r="G95" t="n">
-        <v>201.5431317086262</v>
+        <v>-112.3812107293213</v>
       </c>
       <c r="H95" t="n">
-        <v>191.4659751231949</v>
+        <v>-106.7621501928552</v>
       </c>
       <c r="I95" t="n">
-        <v>201.7030865750616</v>
+        <v>-112.470402166408</v>
       </c>
       <c r="J95" t="n">
-        <v>155.7960399080968</v>
+        <v>-86.87245972250709</v>
       </c>
       <c r="K95" t="n">
-        <v>125.0847055524966</v>
+        <v>-69.74770380184862</v>
       </c>
       <c r="L95" t="n">
-        <v>114.2077746348882</v>
+        <v>-63.68268607994872</v>
       </c>
       <c r="M95" t="n">
-        <v>106.3699861795527</v>
+        <v>-59.31230566269734</v>
       </c>
       <c r="N95" t="n">
-        <v>214.9793404892013</v>
+        <v>-119.8732914446094</v>
       </c>
       <c r="O95" t="n">
-        <v>93.57359686471929</v>
+        <v>-52.1769906957563</v>
       </c>
       <c r="P95" t="n">
-        <v>101.0914755871839</v>
+        <v>-56.36898823883417</v>
       </c>
       <c r="Q95" t="n">
-        <v>78.05797482048379</v>
+        <v>-43.52542129834031</v>
       </c>
       <c r="R95" t="n">
-        <v>61.58262357763578</v>
+        <v>-34.33870327840372</v>
       </c>
       <c r="S95" t="n">
-        <v>45.74709180052944</v>
+        <v>-25.5087510068142</v>
       </c>
       <c r="T95" t="n">
-        <v>72.45955449524418</v>
+        <v>-40.40372100030361</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
@@ -7497,10 +7497,10 @@
         <v>0.1775177373568357</v>
       </c>
       <c r="W95" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X95" t="n">
-        <v>4.499999999999998</v>
+        <v>4.500000000000001</v>
       </c>
     </row>
     <row r="96">
@@ -7807,58 +7807,58 @@
         <v>30002711</v>
       </c>
       <c r="C100" t="n">
-        <v>35.72596396570864</v>
+        <v>-10.51329622169944</v>
       </c>
       <c r="D100" t="n">
-        <v>196.4928018113975</v>
+        <v>-57.82312921934695</v>
       </c>
       <c r="E100" t="n">
-        <v>26.78729853711588</v>
+        <v>-7.88286090111129</v>
       </c>
       <c r="F100" t="n">
-        <v>23.37499956521616</v>
+        <v>-6.878702974875452</v>
       </c>
       <c r="G100" t="n">
-        <v>22.83384201901181</v>
+        <v>-6.719453259701489</v>
       </c>
       <c r="H100" t="n">
-        <v>20.14308644205123</v>
+        <v>-5.927628287030938</v>
       </c>
       <c r="I100" t="n">
-        <v>15.91905115084496</v>
+        <v>-4.684595788034152</v>
       </c>
       <c r="J100" t="n">
-        <v>11.95056247867965</v>
+        <v>-3.516764543425072</v>
       </c>
       <c r="K100" t="n">
-        <v>10.34963807115841</v>
+        <v>-3.045650802702091</v>
       </c>
       <c r="L100" t="n">
-        <v>9.605546445127414</v>
+        <v>-2.826682444337888</v>
       </c>
       <c r="M100" t="n">
-        <v>8.733681509575945</v>
+        <v>-2.570113458779832</v>
       </c>
       <c r="N100" t="n">
-        <v>25.46446897972746</v>
+        <v>-7.493583819574935</v>
       </c>
       <c r="O100" t="n">
-        <v>6.854662251921912</v>
+        <v>-2.01716305887023</v>
       </c>
       <c r="P100" t="n">
-        <v>5.095900226757736</v>
+        <v>-1.499601484554842</v>
       </c>
       <c r="Q100" t="n">
-        <v>3.487459742205885</v>
+        <v>-1.026275942232222</v>
       </c>
       <c r="R100" t="n">
-        <v>2.081953337480669</v>
+        <v>-0.6126690430998396</v>
       </c>
       <c r="S100" t="n">
-        <v>1.841438872500952</v>
+        <v>-0.5418913919114103</v>
       </c>
       <c r="T100" t="n">
-        <v>1.969212182021427</v>
+        <v>-0.5794920191052636</v>
       </c>
       <c r="U100" t="n">
         <v>0</v>
@@ -7867,10 +7867,10 @@
         <v>0.008341334140111099</v>
       </c>
       <c r="W100" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X100" t="n">
-        <v>5.500000000000001</v>
+        <v>5.500000000000003</v>
       </c>
     </row>
     <row r="101">
@@ -7881,58 +7881,58 @@
         <v>30002711</v>
       </c>
       <c r="C101" t="n">
-        <v>959.8962857502189</v>
+        <v>-282.474505205445</v>
       </c>
       <c r="D101" t="n">
-        <v>5279.429571626205</v>
+        <v>-1553.609778629948</v>
       </c>
       <c r="E101" t="n">
-        <v>719.7294493086406</v>
+        <v>-211.7991527765419</v>
       </c>
       <c r="F101" t="n">
-        <v>628.0467416806599</v>
+        <v>-184.8191260199341</v>
       </c>
       <c r="G101" t="n">
-        <v>613.5067528057382</v>
+        <v>-180.5403552567717</v>
       </c>
       <c r="H101" t="n">
-        <v>541.2106970109869</v>
+        <v>-159.2653561843806</v>
       </c>
       <c r="I101" t="n">
-        <v>427.7180060706232</v>
+        <v>-125.8671732830291</v>
       </c>
       <c r="J101" t="n">
-        <v>321.0914209878616</v>
+        <v>-94.48952101983771</v>
       </c>
       <c r="K101" t="n">
-        <v>278.0772872328839</v>
+        <v>-81.83149084548211</v>
       </c>
       <c r="L101" t="n">
-        <v>258.0848025298661</v>
+        <v>-75.94818104613371</v>
       </c>
       <c r="M101" t="n">
-        <v>234.6592648980473</v>
+        <v>-69.05460592770528</v>
       </c>
       <c r="N101" t="n">
-        <v>684.1872542810538</v>
+        <v>-201.3399353554782</v>
       </c>
       <c r="O101" t="n">
-        <v>184.1731924156791</v>
+        <v>-54.19776300005785</v>
       </c>
       <c r="P101" t="n">
-        <v>136.9182285721825</v>
+        <v>-40.29175801977986</v>
       </c>
       <c r="Q101" t="n">
-        <v>93.70215052727534</v>
+        <v>-27.57430047371365</v>
       </c>
       <c r="R101" t="n">
-        <v>55.93856831046394</v>
+        <v>-16.46138196383336</v>
       </c>
       <c r="S101" t="n">
-        <v>49.47635103272081</v>
+        <v>-14.55970606909449</v>
       </c>
       <c r="T101" t="n">
-        <v>52.90940396152187</v>
+        <v>-15.56997138817452</v>
       </c>
       <c r="U101" t="n">
         <v>0</v>
@@ -7941,10 +7941,10 @@
         <v>0.2241175540281974</v>
       </c>
       <c r="W101" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X101" t="n">
-        <v>5.500000000000001</v>
+        <v>5.500000000000003</v>
       </c>
     </row>
     <row r="102">
@@ -7955,61 +7955,61 @@
         <v>30002612</v>
       </c>
       <c r="C102" t="n">
-        <v>1410.034564396215</v>
+        <v>-868.3071696422294</v>
       </c>
       <c r="D102" t="n">
-        <v>6345.155539782967</v>
+        <v>-3907.382263390033</v>
       </c>
       <c r="E102" t="n">
-        <v>708.5161272710508</v>
+        <v>-436.3081931825097</v>
       </c>
       <c r="F102" t="n">
-        <v>711.0556115981872</v>
+        <v>-437.8720218319095</v>
       </c>
       <c r="G102" t="n">
-        <v>698.3581899625055</v>
+        <v>-430.0528785849112</v>
       </c>
       <c r="H102" t="n">
-        <v>614.0473103015775</v>
+        <v>-378.1337674248419</v>
       </c>
       <c r="I102" t="n">
-        <v>511.9600403506949</v>
+        <v>-315.2678557189749</v>
       </c>
       <c r="J102" t="n">
-        <v>420.0307077083578</v>
+        <v>-258.6572586107065</v>
       </c>
       <c r="K102" t="n">
-        <v>352.48042460653</v>
+        <v>-217.0594165366751</v>
       </c>
       <c r="L102" t="n">
-        <v>344.3540747596936</v>
+        <v>-212.0551648585962</v>
       </c>
       <c r="M102" t="n">
-        <v>315.9118502957661</v>
+        <v>-194.5402839853198</v>
       </c>
       <c r="N102" t="n">
-        <v>738.9899391966878</v>
+        <v>-455.0741369753061</v>
       </c>
       <c r="O102" t="n">
-        <v>260.5510919641929</v>
+        <v>-160.4488194284068</v>
       </c>
       <c r="P102" t="n">
-        <v>212.8087866140289</v>
+        <v>-131.0488408196929</v>
       </c>
       <c r="Q102" t="n">
-        <v>153.3848533590375</v>
+        <v>-94.45525042374048</v>
       </c>
       <c r="R102" t="n">
-        <v>117.8320727791282</v>
+        <v>-72.56164933214501</v>
       </c>
       <c r="S102" t="n">
-        <v>85.32667339178246</v>
+        <v>-52.54464261982914</v>
       </c>
       <c r="T102" t="n">
-        <v>99.54778562374621</v>
+        <v>-61.30208305646732</v>
       </c>
       <c r="U102" t="n">
-        <v>12.69031107956594</v>
+        <v>-7.814764526780066</v>
       </c>
       <c r="V102" t="n">
         <v>0.5636633906207672</v>
@@ -8018,7 +8018,7 @@
         <v>0.002</v>
       </c>
       <c r="X102" t="n">
-        <v>4.5</v>
+        <v>4.500000000000001</v>
       </c>
     </row>
     <row r="103">
@@ -8029,70 +8029,70 @@
         <v>60003949</v>
       </c>
       <c r="C103" t="n">
-        <v>1046.319497286146</v>
+        <v>-607.1528536507793</v>
       </c>
       <c r="D103" t="n">
-        <v>4657.820016995201</v>
+        <v>-2782.805562220964</v>
       </c>
       <c r="E103" t="n">
-        <v>518.0390371648</v>
+        <v>-312.8000473630593</v>
       </c>
       <c r="F103" t="n">
-        <v>519.8487477449795</v>
+        <v>-313.9682546485712</v>
       </c>
       <c r="G103" t="n">
-        <v>510.2177582340495</v>
+        <v>-308.7096548310453</v>
       </c>
       <c r="H103" t="n">
-        <v>449.4464276676542</v>
+        <v>-270.6141122564908</v>
       </c>
       <c r="I103" t="n">
-        <v>374.5593520379206</v>
+        <v>-225.788889685436</v>
       </c>
       <c r="J103" t="n">
-        <v>308.0094277649674</v>
+        <v>-184.5381872203659</v>
       </c>
       <c r="K103" t="n">
-        <v>258.7528480409317</v>
+        <v>-154.5821517170143</v>
       </c>
       <c r="L103" t="n">
-        <v>252.7387841679449</v>
+        <v>-151.066878419789</v>
       </c>
       <c r="M103" t="n">
-        <v>231.8809326415021</v>
+        <v>-138.5720498504898</v>
       </c>
       <c r="N103" t="n">
-        <v>540.2547955069817</v>
+        <v>-326.3193034091734</v>
       </c>
       <c r="O103" t="n">
-        <v>191.2876662379261</v>
+        <v>-114.2467067819965</v>
       </c>
       <c r="P103" t="n">
-        <v>156.7226092309225</v>
+        <v>-92.82690791400442</v>
       </c>
       <c r="Q103" t="n">
-        <v>113.7962732538917</v>
+        <v>-66.06996583385995</v>
       </c>
       <c r="R103" t="n">
-        <v>88.51024826938311</v>
+        <v>-49.66514069869103</v>
       </c>
       <c r="S103" t="n">
-        <v>64.770172651454</v>
+        <v>-35.28786763577209</v>
       </c>
       <c r="T103" t="n">
-        <v>78.98493637989172</v>
+        <v>-37.74944395520539</v>
       </c>
       <c r="U103" t="n">
-        <v>10.69152171734901</v>
+        <v>-4.189729441083318</v>
       </c>
       <c r="V103" t="n">
         <v>0.4223161116520809</v>
       </c>
       <c r="W103" t="n">
-        <v>0.002295391766607204</v>
+        <v>0.001505577499902467</v>
       </c>
       <c r="X103" t="n">
-        <v>4.45162307409568</v>
+        <v>4.583368991001353</v>
       </c>
     </row>
     <row r="104">
@@ -8103,67 +8103,67 @@
         <v>30002611</v>
       </c>
       <c r="C104" t="n">
-        <v>1624.295991207681</v>
+        <v>-638.3066954258609</v>
       </c>
       <c r="D104" t="n">
-        <v>6497.183964830721</v>
+        <v>-2553.226781703444</v>
       </c>
       <c r="E104" t="n">
-        <v>795.8444678788411</v>
+        <v>-312.7464791604872</v>
       </c>
       <c r="F104" t="n">
-        <v>735.1107157429664</v>
+        <v>-288.879671117798</v>
       </c>
       <c r="G104" t="n">
-        <v>711.2154690009826</v>
+        <v>-279.4894515600184</v>
       </c>
       <c r="H104" t="n">
-        <v>649.1542031572199</v>
+        <v>-255.1009646530079</v>
       </c>
       <c r="I104" t="n">
-        <v>530.341726301246</v>
+        <v>-208.4107062962713</v>
       </c>
       <c r="J104" t="n">
-        <v>433.1013471984518</v>
+        <v>-170.1977294847522</v>
       </c>
       <c r="K104" t="n">
-        <v>355.4417952870053</v>
+        <v>-139.6795159219691</v>
       </c>
       <c r="L104" t="n">
-        <v>347.8085914666494</v>
+        <v>-136.6798624521228</v>
       </c>
       <c r="M104" t="n">
-        <v>306.6556665221223</v>
+        <v>-120.5078176581694</v>
       </c>
       <c r="N104" t="n">
-        <v>749.3814881027616</v>
+        <v>-294.4877189092493</v>
       </c>
       <c r="O104" t="n">
-        <v>254.2188750605471</v>
+        <v>-99.90150251748672</v>
       </c>
       <c r="P104" t="n">
-        <v>215.0572206778519</v>
+        <v>-84.51197602001487</v>
       </c>
       <c r="Q104" t="n">
-        <v>152.6640764071171</v>
+        <v>-59.99306939692415</v>
       </c>
       <c r="R104" t="n">
-        <v>108.1923671928699</v>
+        <v>-42.51682744216798</v>
       </c>
       <c r="S104" t="n">
-        <v>64.38441483256679</v>
+        <v>-25.30142491957236</v>
       </c>
       <c r="T104" t="n">
-        <v>88.6115400015223</v>
+        <v>-34.82206419343206</v>
       </c>
       <c r="U104" t="n">
-        <v>6.497183964830721</v>
+        <v>-2.553226781703444</v>
       </c>
       <c r="V104" t="n">
         <v>0.368318318451418</v>
       </c>
       <c r="W104" t="n">
-        <v>0.0009999999999999998</v>
+        <v>0.001</v>
       </c>
       <c r="X104" t="n">
         <v>4</v>
@@ -8177,61 +8177,61 @@
         <v>30002611</v>
       </c>
       <c r="C105" t="n">
-        <v>1502.15050603412</v>
+        <v>-590.3066502220582</v>
       </c>
       <c r="D105" t="n">
-        <v>6008.602024136478</v>
+        <v>-2361.226600888233</v>
       </c>
       <c r="E105" t="n">
-        <v>735.9977347846593</v>
+        <v>-289.2282468677521</v>
       </c>
       <c r="F105" t="n">
-        <v>679.831101979992</v>
+        <v>-267.1561996714225</v>
       </c>
       <c r="G105" t="n">
-        <v>657.7327546470078</v>
+        <v>-258.4721155286041</v>
       </c>
       <c r="H105" t="n">
-        <v>600.3384358793968</v>
+        <v>-235.917619213229</v>
       </c>
       <c r="I105" t="n">
-        <v>490.460542195949</v>
+        <v>-192.7384230586605</v>
       </c>
       <c r="J105" t="n">
-        <v>400.5325454103338</v>
+        <v>-157.3990250885807</v>
       </c>
       <c r="K105" t="n">
-        <v>328.7129165781359</v>
+        <v>-129.1757516244214</v>
       </c>
       <c r="L105" t="n">
-        <v>321.6537222912105</v>
+        <v>-126.40166918991</v>
       </c>
       <c r="M105" t="n">
-        <v>283.5954574399605</v>
+        <v>-111.4457464995008</v>
       </c>
       <c r="N105" t="n">
-        <v>693.0287260816348</v>
+        <v>-272.342527701161</v>
       </c>
       <c r="O105" t="n">
-        <v>235.1018619036901</v>
+        <v>-92.3890062972052</v>
       </c>
       <c r="P105" t="n">
-        <v>198.8851259968553</v>
+        <v>-78.15675728536418</v>
       </c>
       <c r="Q105" t="n">
-        <v>141.1838857385085</v>
+        <v>-55.48164869022767</v>
       </c>
       <c r="R105" t="n">
-        <v>100.0564059798994</v>
+        <v>-39.31960320220482</v>
       </c>
       <c r="S105" t="n">
-        <v>59.54276920276226</v>
+        <v>-23.39878227370471</v>
       </c>
       <c r="T105" t="n">
-        <v>81.94803802648205</v>
+        <v>-32.20347869628431</v>
       </c>
       <c r="U105" t="n">
-        <v>6.008602024136477</v>
+        <v>-2.361226600888233</v>
       </c>
       <c r="V105" t="n">
         <v>0.3406211376733572</v>
@@ -8240,7 +8240,7 @@
         <v>0.001</v>
       </c>
       <c r="X105" t="n">
-        <v>3.999999999999999</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
@@ -8251,70 +8251,70 @@
         <v>30002611</v>
       </c>
       <c r="C106" t="n">
-        <v>1283.586644842956</v>
+        <v>-504.4166543520808</v>
       </c>
       <c r="D106" t="n">
-        <v>5134.346579371821</v>
+        <v>-2017.666617408323</v>
       </c>
       <c r="E106" t="n">
-        <v>628.9095927534162</v>
+        <v>-247.1453516138918</v>
       </c>
       <c r="F106" t="n">
-        <v>580.9152410128512</v>
+        <v>-228.2848014281778</v>
       </c>
       <c r="G106" t="n">
-        <v>562.0322173772188</v>
+        <v>-220.8642570928149</v>
       </c>
       <c r="H106" t="n">
-        <v>512.9888087680075</v>
+        <v>-201.5914544440252</v>
       </c>
       <c r="I106" t="n">
-        <v>419.0982190241697</v>
+        <v>-164.6948589987486</v>
       </c>
       <c r="J106" t="n">
-        <v>342.2548033958332</v>
+        <v>-134.4973660784524</v>
       </c>
       <c r="K106" t="n">
-        <v>280.8849765800286</v>
+        <v>-110.380596988523</v>
       </c>
       <c r="L106" t="n">
-        <v>274.8528995853127</v>
+        <v>-108.0101453258376</v>
       </c>
       <c r="M106" t="n">
-        <v>242.3321366572796</v>
+        <v>-95.23031897049042</v>
       </c>
       <c r="N106" t="n">
-        <v>592.1926023507979</v>
+        <v>-232.7165154062417</v>
       </c>
       <c r="O106" t="n">
-        <v>200.8943903457534</v>
+        <v>-78.9463466789996</v>
       </c>
       <c r="P106" t="n">
-        <v>169.9472127206895</v>
+        <v>-66.78489901826597</v>
       </c>
       <c r="Q106" t="n">
-        <v>120.6415398943167</v>
+        <v>-47.40903325370734</v>
       </c>
       <c r="R106" t="n">
-        <v>85.49813479466789</v>
+        <v>-33.59857574067085</v>
       </c>
       <c r="S106" t="n">
-        <v>50.87925812934225</v>
+        <v>-19.99424445917223</v>
       </c>
       <c r="T106" t="n">
-        <v>70.02454598213598</v>
+        <v>-27.51785191030404</v>
       </c>
       <c r="U106" t="n">
-        <v>5.134346579371821</v>
+        <v>-2.017666617408323</v>
       </c>
       <c r="V106" t="n">
         <v>0.2910605438752248</v>
       </c>
       <c r="W106" t="n">
-        <v>0.0009999999999999998</v>
+        <v>0.001</v>
       </c>
       <c r="X106" t="n">
-        <v>3.999999999999999</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
@@ -8325,58 +8325,58 @@
         <v>30002613</v>
       </c>
       <c r="C107" t="n">
-        <v>1455.943649054564</v>
+        <v>-540.1828349648964</v>
       </c>
       <c r="D107" t="n">
-        <v>5976.707836632252</v>
+        <v>-2160.731339859586</v>
       </c>
       <c r="E107" t="n">
-        <v>726.8665357708775</v>
+        <v>-262.780672347585</v>
       </c>
       <c r="F107" t="n">
-        <v>684.1757655092182</v>
+        <v>-247.3468770628735</v>
       </c>
       <c r="G107" t="n">
-        <v>653.5619894663182</v>
+        <v>-236.2792212337056</v>
       </c>
       <c r="H107" t="n">
-        <v>603.8497109379392</v>
+        <v>-218.3069727771668</v>
       </c>
       <c r="I107" t="n">
-        <v>505.5485952038559</v>
+        <v>-182.7686283715815</v>
       </c>
       <c r="J107" t="n">
-        <v>388.4298373149626</v>
+        <v>-140.4272294654984</v>
       </c>
       <c r="K107" t="n">
-        <v>312.0358273730466</v>
+        <v>-112.808858956015</v>
       </c>
       <c r="L107" t="n">
-        <v>322.9893802691302</v>
+        <v>-116.7688459040659</v>
       </c>
       <c r="M107" t="n">
-        <v>289.5670009195419</v>
+        <v>-104.6858088061669</v>
       </c>
       <c r="N107" t="n">
-        <v>707.7680332853979</v>
+        <v>-255.876079720214</v>
       </c>
       <c r="O107" t="n">
-        <v>228.3394488337416</v>
+        <v>-82.55049714783095</v>
       </c>
       <c r="P107" t="n">
-        <v>193.2319075001406</v>
+        <v>-69.85823128869339</v>
       </c>
       <c r="Q107" t="n">
-        <v>133.689517398353</v>
+        <v>-48.33214839159599</v>
       </c>
       <c r="R107" t="n">
-        <v>88.47100416067478</v>
+        <v>-31.98450996502676</v>
       </c>
       <c r="S107" t="n">
-        <v>61.22755208580033</v>
+        <v>-22.13531165833598</v>
       </c>
       <c r="T107" t="n">
-        <v>76.95573060325361</v>
+        <v>-27.82144676322962</v>
       </c>
       <c r="U107" t="n">
         <v>0</v>
@@ -8385,10 +8385,10 @@
         <v>0.3116984904848135</v>
       </c>
       <c r="W107" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X107" t="n">
-        <v>4.105040631561053</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
@@ -8399,58 +8399,58 @@
         <v>30002613</v>
       </c>
       <c r="C108" t="n">
-        <v>797.4366612572104</v>
+        <v>-295.8641954738993</v>
       </c>
       <c r="D108" t="n">
-        <v>3273.509895557237</v>
+        <v>-1183.456781895597</v>
       </c>
       <c r="E108" t="n">
-        <v>398.1129515837468</v>
+        <v>-143.927920655348</v>
       </c>
       <c r="F108" t="n">
-        <v>374.7307380440521</v>
+        <v>-135.4746579275223</v>
       </c>
       <c r="G108" t="n">
-        <v>357.9632296504554</v>
+        <v>-129.412778734542</v>
       </c>
       <c r="H108" t="n">
-        <v>330.7352573048901</v>
+        <v>-119.5691767422713</v>
       </c>
       <c r="I108" t="n">
-        <v>276.8946340226986</v>
+        <v>-100.1044270400411</v>
       </c>
       <c r="J108" t="n">
-        <v>212.7473771407734</v>
+        <v>-76.91356810909825</v>
       </c>
       <c r="K108" t="n">
-        <v>170.905521332899</v>
+        <v>-61.78667691193647</v>
       </c>
       <c r="L108" t="n">
-        <v>176.9049050700575</v>
+        <v>-63.9556061644707</v>
       </c>
       <c r="M108" t="n">
-        <v>158.5990931541124</v>
+        <v>-57.33759126571243</v>
       </c>
       <c r="N108" t="n">
-        <v>387.6524876317779</v>
+        <v>-140.1461978560575</v>
       </c>
       <c r="O108" t="n">
-        <v>125.0640763669189</v>
+        <v>-45.21383287975189</v>
       </c>
       <c r="P108" t="n">
-        <v>105.8352823375648</v>
+        <v>-38.26213655752683</v>
       </c>
       <c r="Q108" t="n">
-        <v>73.2232476637803</v>
+        <v>-26.47205959503309</v>
       </c>
       <c r="R108" t="n">
-        <v>48.45656095397226</v>
+        <v>-17.51827473200719</v>
       </c>
       <c r="S108" t="n">
-        <v>33.5350167871935</v>
+        <v>-12.12375838596053</v>
       </c>
       <c r="T108" t="n">
-        <v>42.14951651234412</v>
+        <v>-15.23811833831737</v>
       </c>
       <c r="U108" t="n">
         <v>0</v>
@@ -8459,10 +8459,10 @@
         <v>0.1707207581368466</v>
       </c>
       <c r="W108" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X108" t="n">
-        <v>4.105040631561054</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109">
@@ -8473,58 +8473,58 @@
         <v>30002613</v>
       </c>
       <c r="C109" t="n">
-        <v>2417.619689688226</v>
+        <v>-896.9829695612044</v>
       </c>
       <c r="D109" t="n">
-        <v>9924.427057832192</v>
+        <v>-3587.931878244818</v>
       </c>
       <c r="E109" t="n">
-        <v>1206.974493687487</v>
+        <v>-436.3518656436838</v>
       </c>
       <c r="F109" t="n">
-        <v>1136.085728988685</v>
+        <v>-410.7237807990778</v>
       </c>
       <c r="G109" t="n">
-        <v>1085.251022724413</v>
+        <v>-392.3457462723539</v>
       </c>
       <c r="H109" t="n">
-        <v>1002.702921726467</v>
+        <v>-362.5025158940959</v>
       </c>
       <c r="I109" t="n">
-        <v>839.4722135384372</v>
+        <v>-303.4904784229639</v>
       </c>
       <c r="J109" t="n">
-        <v>644.9944840686994</v>
+        <v>-233.1818509216439</v>
       </c>
       <c r="K109" t="n">
-        <v>518.1409051340021</v>
+        <v>-187.3210675155071</v>
       </c>
       <c r="L109" t="n">
-        <v>536.3294697606683</v>
+        <v>-193.8966945480047</v>
       </c>
       <c r="M109" t="n">
-        <v>480.8310289767383</v>
+        <v>-173.8326018078199</v>
       </c>
       <c r="N109" t="n">
-        <v>1175.261098953812</v>
+        <v>-424.8866697921493</v>
       </c>
       <c r="O109" t="n">
-        <v>379.1616164481942</v>
+        <v>-137.076532754372</v>
       </c>
       <c r="P109" t="n">
-        <v>320.8649349524695</v>
+        <v>-116.0008050861107</v>
       </c>
       <c r="Q109" t="n">
-        <v>221.9937631357201</v>
+        <v>-80.25637096073935</v>
       </c>
       <c r="R109" t="n">
-        <v>146.9076373692265</v>
+        <v>-53.11083372401868</v>
       </c>
       <c r="S109" t="n">
-        <v>101.6694125285441</v>
+        <v>-36.75606905344785</v>
       </c>
       <c r="T109" t="n">
-        <v>127.7863258386288</v>
+        <v>-46.19799504882895</v>
       </c>
       <c r="U109" t="n">
         <v>0</v>
@@ -8533,10 +8533,10 @@
         <v>0.5175807513783399</v>
       </c>
       <c r="W109" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X109" t="n">
-        <v>4.105040631561054</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
@@ -8547,58 +8547,58 @@
         <v>30002711</v>
       </c>
       <c r="C110" t="n">
-        <v>1182.119069173609</v>
+        <v>-347.8693522579454</v>
       </c>
       <c r="D110" t="n">
-        <v>6501.65488045485</v>
+        <v>-1913.281437418701</v>
       </c>
       <c r="E110" t="n">
-        <v>886.3519104135363</v>
+        <v>-260.8321555659354</v>
       </c>
       <c r="F110" t="n">
-        <v>773.4440071229232</v>
+        <v>-227.6060616751007</v>
       </c>
       <c r="G110" t="n">
-        <v>755.53790792265</v>
+        <v>-222.3367251990213</v>
       </c>
       <c r="H110" t="n">
-        <v>666.5048035657346</v>
+        <v>-196.1364132762926</v>
       </c>
       <c r="I110" t="n">
-        <v>526.7377514747111</v>
+        <v>-155.0063146713387</v>
       </c>
       <c r="J110" t="n">
-        <v>395.4263573393724</v>
+        <v>-116.3645138467557</v>
       </c>
       <c r="K110" t="n">
-        <v>342.4541472052301</v>
+        <v>-100.7760601050205</v>
       </c>
       <c r="L110" t="n">
-        <v>317.833260804854</v>
+        <v>-93.53072245041119</v>
       </c>
       <c r="M110" t="n">
-        <v>288.9845454266356</v>
+        <v>-85.04123590561642</v>
       </c>
       <c r="N110" t="n">
-        <v>842.5814457017574</v>
+        <v>-247.9515552910745</v>
       </c>
       <c r="O110" t="n">
-        <v>226.8105898701306</v>
+        <v>-66.74492869700704</v>
       </c>
       <c r="P110" t="n">
-        <v>168.6157674692418</v>
+        <v>-49.61958514974865</v>
       </c>
       <c r="Q110" t="n">
-        <v>115.3948615128734</v>
+        <v>-33.95794617917903</v>
       </c>
       <c r="R110" t="n">
-        <v>68.88874275660764</v>
+        <v>-20.2723083871392</v>
       </c>
       <c r="S110" t="n">
-        <v>60.93047644537499</v>
+        <v>-17.9303810644372</v>
       </c>
       <c r="T110" t="n">
-        <v>65.15830542321736</v>
+        <v>-19.17452995462265</v>
       </c>
       <c r="U110" t="n">
         <v>0</v>
@@ -8607,10 +8607,10 @@
         <v>0.2760023538857811</v>
       </c>
       <c r="W110" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X110" t="n">
-        <v>5.500000000000001</v>
+        <v>5.500000000000003</v>
       </c>
     </row>
     <row r="111">
@@ -8621,58 +8621,58 @@
         <v>30002711</v>
       </c>
       <c r="C111" t="n">
-        <v>888.2118583600518</v>
+        <v>-261.3794937353805</v>
       </c>
       <c r="D111" t="n">
-        <v>4885.165220980286</v>
+        <v>-1437.587215544594</v>
       </c>
       <c r="E111" t="n">
-        <v>665.9805243305564</v>
+        <v>-195.9821304441315</v>
       </c>
       <c r="F111" t="n">
-        <v>581.1446213995595</v>
+        <v>-171.0169544560182</v>
       </c>
       <c r="G111" t="n">
-        <v>567.6904693928818</v>
+        <v>-167.057719497551</v>
       </c>
       <c r="H111" t="n">
-        <v>500.7934358041222</v>
+        <v>-147.3715234540608</v>
       </c>
       <c r="I111" t="n">
-        <v>395.7763048631085</v>
+        <v>-116.4674950282465</v>
       </c>
       <c r="J111" t="n">
-        <v>297.1125234808038</v>
+        <v>-87.43310533281964</v>
       </c>
       <c r="K111" t="n">
-        <v>257.310657127715</v>
+        <v>-75.72036858068721</v>
       </c>
       <c r="L111" t="n">
-        <v>238.8111981185328</v>
+        <v>-70.27642051279466</v>
       </c>
       <c r="M111" t="n">
-        <v>217.1350643299962</v>
+        <v>-63.89765307970843</v>
       </c>
       <c r="N111" t="n">
-        <v>633.0925972031218</v>
+        <v>-186.304000545656</v>
       </c>
       <c r="O111" t="n">
-        <v>170.4192587512535</v>
+        <v>-50.15030947391919</v>
       </c>
       <c r="P111" t="n">
-        <v>126.6932647295503</v>
+        <v>-37.28279585890045</v>
       </c>
       <c r="Q111" t="n">
-        <v>86.70453515414653</v>
+        <v>-25.51506973234485</v>
       </c>
       <c r="R111" t="n">
-        <v>51.76111258124696</v>
+        <v>-15.23205671521449</v>
       </c>
       <c r="S111" t="n">
-        <v>45.78148946716788</v>
+        <v>-13.47239673367347</v>
       </c>
       <c r="T111" t="n">
-        <v>48.95816424652241</v>
+        <v>-14.40721609886714</v>
       </c>
       <c r="U111" t="n">
         <v>0</v>
@@ -8681,10 +8681,10 @@
         <v>0.2073806015395858</v>
       </c>
       <c r="W111" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X111" t="n">
-        <v>5.500000000000001</v>
+        <v>5.500000000000003</v>
       </c>
     </row>
     <row r="112">
@@ -8695,58 +8695,58 @@
         <v>30002711</v>
       </c>
       <c r="C112" t="n">
-        <v>1217.050400548914</v>
+        <v>-358.1488071249835</v>
       </c>
       <c r="D112" t="n">
-        <v>6693.777203019031</v>
+        <v>-1969.81843918741</v>
       </c>
       <c r="E112" t="n">
-        <v>912.5433940848342</v>
+        <v>-268.5396824107382</v>
       </c>
       <c r="F112" t="n">
-        <v>796.2990896755988</v>
+        <v>-234.3317655155431</v>
       </c>
       <c r="G112" t="n">
-        <v>777.8638695930772</v>
+        <v>-228.9067214264374</v>
       </c>
       <c r="H112" t="n">
-        <v>686.1998586272044</v>
+        <v>-201.9321966500501</v>
       </c>
       <c r="I112" t="n">
-        <v>542.302724094186</v>
+        <v>-159.5867136211963</v>
       </c>
       <c r="J112" t="n">
-        <v>407.1111101556921</v>
+        <v>-119.8030569677536</v>
       </c>
       <c r="K112" t="n">
-        <v>352.5735840782315</v>
+        <v>-103.7539682041489</v>
       </c>
       <c r="L112" t="n">
-        <v>327.2251564647638</v>
+        <v>-96.29453258162837</v>
       </c>
       <c r="M112" t="n">
-        <v>297.5239685540341</v>
+        <v>-87.55418377140231</v>
       </c>
       <c r="N112" t="n">
-        <v>867.4795227720035</v>
+        <v>-255.2784635262575</v>
       </c>
       <c r="O112" t="n">
-        <v>233.5127877119442</v>
+        <v>-68.71722512867376</v>
       </c>
       <c r="P112" t="n">
-        <v>173.5983224437479</v>
+        <v>-51.08583183907984</v>
       </c>
       <c r="Q112" t="n">
-        <v>118.804751642919</v>
+        <v>-34.9613952409042</v>
       </c>
       <c r="R112" t="n">
-        <v>70.92438837303568</v>
+        <v>-20.87135017614324</v>
       </c>
       <c r="S112" t="n">
-        <v>62.73095722524815</v>
+        <v>-18.46021946987398</v>
       </c>
       <c r="T112" t="n">
-        <v>67.0837175225103</v>
+        <v>-19.74113265757953</v>
       </c>
       <c r="U112" t="n">
         <v>0</v>
@@ -8755,10 +8755,10 @@
         <v>0.2841581564063245</v>
       </c>
       <c r="W112" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X112" t="n">
-        <v>5.500000000000001</v>
+        <v>5.500000000000003</v>
       </c>
     </row>
     <row r="113">
@@ -8769,58 +8769,58 @@
         <v>30002811</v>
       </c>
       <c r="C113" t="n">
-        <v>806.6495700550283</v>
+        <v>-252.030090484061</v>
       </c>
       <c r="D113" t="n">
-        <v>3559.260426978339</v>
+        <v>-1386.165497662336</v>
       </c>
       <c r="E113" t="n">
-        <v>484.1415797960309</v>
+        <v>-188.5505058326767</v>
       </c>
       <c r="F113" t="n">
-        <v>427.5653028864835</v>
+        <v>-166.5166916043698</v>
       </c>
       <c r="G113" t="n">
-        <v>408.2861257230392</v>
+        <v>-159.0083536348514</v>
       </c>
       <c r="H113" t="n">
-        <v>349.908056555226</v>
+        <v>-136.2728255776175</v>
       </c>
       <c r="I113" t="n">
-        <v>279.9985169345114</v>
+        <v>-109.0463290152511</v>
       </c>
       <c r="J113" t="n">
-        <v>230.2690506063742</v>
+        <v>-89.67902733686672</v>
       </c>
       <c r="K113" t="n">
-        <v>198.0169691834157</v>
+        <v>-77.11834979907397</v>
       </c>
       <c r="L113" t="n">
-        <v>189.5485455695663</v>
+        <v>-73.82029480311721</v>
       </c>
       <c r="M113" t="n">
-        <v>152.43162504929</v>
+        <v>-59.36498992722164</v>
       </c>
       <c r="N113" t="n">
-        <v>455.8534413412572</v>
+        <v>-177.5335987185233</v>
       </c>
       <c r="O113" t="n">
-        <v>118.9182890455454</v>
+        <v>-46.31311270918</v>
       </c>
       <c r="P113" t="n">
-        <v>92.43194284903755</v>
+        <v>-35.99791942395355</v>
       </c>
       <c r="Q113" t="n">
-        <v>69.18882271740821</v>
+        <v>-26.94581103079564</v>
       </c>
       <c r="R113" t="n">
-        <v>44.86462723081939</v>
+        <v>-17.47267434028154</v>
       </c>
       <c r="S113" t="n">
-        <v>25.7656292932015</v>
+        <v>-10.03450775365567</v>
       </c>
       <c r="T113" t="n">
-        <v>32.07190219713194</v>
+        <v>-12.49050615490006</v>
       </c>
       <c r="U113" t="n">
         <v>0</v>
@@ -8829,10 +8829,10 @@
         <v>0.1999627094831503</v>
       </c>
       <c r="W113" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X113" t="n">
-        <v>4.412399831485105</v>
+        <v>5.500000000000002</v>
       </c>
     </row>
     <row r="114">
@@ -8843,58 +8843,58 @@
         <v>30002811</v>
       </c>
       <c r="C114" t="n">
-        <v>2054.984129866628</v>
+        <v>-642.0605122968875</v>
       </c>
       <c r="D114" t="n">
-        <v>9067.411628328073</v>
+        <v>-3531.332817632883</v>
       </c>
       <c r="E114" t="n">
-        <v>1233.3772929694</v>
+        <v>-480.3427802460035</v>
       </c>
       <c r="F114" t="n">
-        <v>1089.246116939481</v>
+        <v>-424.2104270650414</v>
       </c>
       <c r="G114" t="n">
-        <v>1040.131353133108</v>
+        <v>-405.0825232740769</v>
       </c>
       <c r="H114" t="n">
-        <v>891.410012261472</v>
+        <v>-347.1625155332114</v>
       </c>
       <c r="I114" t="n">
-        <v>713.3116164028463</v>
+        <v>-277.8015186089653</v>
       </c>
       <c r="J114" t="n">
-        <v>586.6230667714527</v>
+        <v>-228.4622527556355</v>
       </c>
       <c r="K114" t="n">
-        <v>504.4591161047156</v>
+        <v>-196.4632361333673</v>
       </c>
       <c r="L114" t="n">
-        <v>482.8853413486449</v>
+        <v>-188.0612597018221</v>
       </c>
       <c r="M114" t="n">
-        <v>388.3279456092715</v>
+        <v>-151.2355757678151</v>
       </c>
       <c r="N114" t="n">
-        <v>1161.311704954441</v>
+        <v>-452.2766036555226</v>
       </c>
       <c r="O114" t="n">
-        <v>302.9508795533324</v>
+        <v>-117.9852009536146</v>
       </c>
       <c r="P114" t="n">
-        <v>235.4754563800902</v>
+        <v>-91.7066789230368</v>
       </c>
       <c r="Q114" t="n">
-        <v>176.2623299219388</v>
+        <v>-68.64593510028486</v>
       </c>
       <c r="R114" t="n">
-        <v>114.2951045587572</v>
+        <v>-44.51259854159095</v>
       </c>
       <c r="S114" t="n">
-        <v>65.63935723655536</v>
+        <v>-25.5634602066165</v>
       </c>
       <c r="T114" t="n">
-        <v>81.70493418256541</v>
+        <v>-31.82025116627788</v>
       </c>
       <c r="U114" t="n">
         <v>0</v>
@@ -8903,10 +8903,10 @@
         <v>0.5094159964964373</v>
       </c>
       <c r="W114" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X114" t="n">
-        <v>4.412399831485104</v>
+        <v>5.500000000000003</v>
       </c>
     </row>
     <row r="115">
@@ -8917,58 +8917,58 @@
         <v>30002812</v>
       </c>
       <c r="C115" t="n">
-        <v>1095.018189900087</v>
+        <v>-1733.03</v>
       </c>
       <c r="D115" t="n">
-        <v>4380.072759600347</v>
+        <v>-6932.12</v>
       </c>
       <c r="E115" t="n">
-        <v>581.1863669907885</v>
+        <v>-919.814318041555</v>
       </c>
       <c r="F115" t="n">
-        <v>464.0480294577617</v>
+        <v>-734.4253857231025</v>
       </c>
       <c r="G115" t="n">
-        <v>489.2778252341059</v>
+        <v>-774.3553096070768</v>
       </c>
       <c r="H115" t="n">
-        <v>466.7512218623699</v>
+        <v>-738.7035918535281</v>
       </c>
       <c r="I115" t="n">
-        <v>376.6448083754258</v>
+        <v>-596.0967208393334</v>
       </c>
       <c r="J115" t="n">
-        <v>271.2203045957014</v>
+        <v>-429.2466817527258</v>
       </c>
       <c r="K115" t="n">
-        <v>218.9585847732739</v>
+        <v>-346.5346965644929</v>
       </c>
       <c r="L115" t="n">
-        <v>245.0894446844876</v>
+        <v>-387.8906891586093</v>
       </c>
       <c r="M115" t="n">
-        <v>211.7500716943184</v>
+        <v>-335.1261468833573</v>
       </c>
       <c r="N115" t="n">
-        <v>507.2991079314947</v>
+        <v>-802.8766838099158</v>
       </c>
       <c r="O115" t="n">
-        <v>171.2021856251936</v>
+        <v>-270.9530549269698</v>
       </c>
       <c r="P115" t="n">
-        <v>136.0606843652854</v>
+        <v>-215.3363752314339</v>
       </c>
       <c r="Q115" t="n">
-        <v>93.71067002642174</v>
+        <v>-148.3111458547624</v>
       </c>
       <c r="R115" t="n">
-        <v>60.37129703625246</v>
+        <v>-95.54660357951037</v>
       </c>
       <c r="S115" t="n">
-        <v>46.85533501321089</v>
+        <v>-74.15557292738123</v>
       </c>
       <c r="T115" t="n">
-        <v>39.64682193425535</v>
+        <v>-62.74702324624563</v>
       </c>
       <c r="U115" t="n">
         <v>0</v>
@@ -8977,10 +8977,10 @@
         <v>1</v>
       </c>
       <c r="W115" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X115" t="n">
-        <v>3.999999999999999</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116">
@@ -8991,58 +8991,58 @@
         <v>30002811</v>
       </c>
       <c r="C116" t="n">
-        <v>1172.366300078344</v>
+        <v>-366.2948517645056</v>
       </c>
       <c r="D116" t="n">
-        <v>5172.948864904499</v>
+        <v>-2014.621684704781</v>
       </c>
       <c r="E116" t="n">
-        <v>703.6404576287529</v>
+        <v>-274.0350545105672</v>
       </c>
       <c r="F116" t="n">
-        <v>621.4137722192149</v>
+        <v>-242.0116056395892</v>
       </c>
       <c r="G116" t="n">
-        <v>593.3938507580033</v>
+        <v>-231.0991565020267</v>
       </c>
       <c r="H116" t="n">
-        <v>508.5484810997538</v>
+        <v>-198.0558525714633</v>
       </c>
       <c r="I116" t="n">
-        <v>406.9435322497515</v>
+        <v>-158.485476259554</v>
       </c>
       <c r="J116" t="n">
-        <v>334.6678469853169</v>
+        <v>-130.337476615</v>
       </c>
       <c r="K116" t="n">
-        <v>287.7933989333828</v>
+        <v>-112.0820710484233</v>
       </c>
       <c r="L116" t="n">
-        <v>275.4855829644392</v>
+        <v>-107.2887522683725</v>
       </c>
       <c r="M116" t="n">
-        <v>221.5406874409844</v>
+        <v>-86.27973804091552</v>
       </c>
       <c r="N116" t="n">
-        <v>662.527114923984</v>
+        <v>-258.0233300750783</v>
       </c>
       <c r="O116" t="n">
-        <v>172.8331604149524</v>
+        <v>-67.31043393262912</v>
       </c>
       <c r="P116" t="n">
-        <v>134.3385019588948</v>
+        <v>-52.31856455672536</v>
       </c>
       <c r="Q116" t="n">
-        <v>100.5574751505177</v>
+        <v>-39.16243428807513</v>
       </c>
       <c r="R116" t="n">
-        <v>65.20523779291383</v>
+        <v>-25.39439098367371</v>
       </c>
       <c r="S116" t="n">
-        <v>37.44718475657302</v>
+        <v>-14.58392735206964</v>
       </c>
       <c r="T116" t="n">
-        <v>46.61257962706291</v>
+        <v>-18.15342006061816</v>
       </c>
       <c r="U116" t="n">
         <v>0</v>
@@ -9051,10 +9051,10 @@
         <v>0.2906212940204124</v>
       </c>
       <c r="W116" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X116" t="n">
-        <v>4.412399831485104</v>
+        <v>5.500000000000002</v>
       </c>
     </row>
     <row r="117">
@@ -12025,58 +12025,58 @@
         <v>30002911</v>
       </c>
       <c r="C157" t="n">
-        <v>141.8405036861525</v>
+        <v>-61.49766347142328</v>
       </c>
       <c r="D157" t="n">
-        <v>533.2442331495325</v>
+        <v>-276.7394856214048</v>
       </c>
       <c r="E157" t="n">
-        <v>55.89999583880018</v>
+        <v>-29.01060177115914</v>
       </c>
       <c r="F157" t="n">
-        <v>55.14459048962718</v>
+        <v>-28.61856661208942</v>
       </c>
       <c r="G157" t="n">
-        <v>56.04388257197598</v>
+        <v>-29.08527513479147</v>
       </c>
       <c r="H157" t="n">
-        <v>51.87116730987762</v>
+        <v>-26.91974758945397</v>
       </c>
       <c r="I157" t="n">
-        <v>43.38185005250514</v>
+        <v>-22.51401913514666</v>
       </c>
       <c r="J157" t="n">
-        <v>36.54723022665441</v>
+        <v>-18.96703436261112</v>
       </c>
       <c r="K157" t="n">
-        <v>30.71981753303432</v>
+        <v>-15.94276313550187</v>
       </c>
       <c r="L157" t="n">
-        <v>32.9500618972593</v>
+        <v>-17.10020027180294</v>
       </c>
       <c r="M157" t="n">
-        <v>30.68384584974037</v>
+        <v>-15.92409479459379</v>
       </c>
       <c r="N157" t="n">
-        <v>51.69130889340786</v>
+        <v>-26.82640588491357</v>
       </c>
       <c r="O157" t="n">
-        <v>25.00031988929608</v>
+        <v>-12.97449693111686</v>
       </c>
       <c r="P157" t="n">
-        <v>20.21608601120057</v>
+        <v>-10.49160759034198</v>
       </c>
       <c r="Q157" t="n">
-        <v>15.75559728275062</v>
+        <v>-8.176733317739835</v>
       </c>
       <c r="R157" t="n">
-        <v>9.856241222542627</v>
+        <v>-5.115125408814415</v>
       </c>
       <c r="S157" t="n">
-        <v>8.453345574078529</v>
+        <v>-4.387060113399225</v>
       </c>
       <c r="T157" t="n">
-        <v>9.028892506781752</v>
+        <v>-4.685753567928534</v>
       </c>
       <c r="U157" t="n">
         <v>0</v>
@@ -12085,10 +12085,10 @@
         <v>0.03992133512134885</v>
       </c>
       <c r="W157" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X157" t="n">
-        <v>3.759463758881109</v>
+        <v>4.500000000000001</v>
       </c>
     </row>
     <row r="158">
@@ -12099,58 +12099,58 @@
         <v>30002911</v>
       </c>
       <c r="C158" t="n">
-        <v>793.3653459973051</v>
+        <v>-343.9787210992175</v>
       </c>
       <c r="D158" t="n">
-        <v>2982.62826582904</v>
+        <v>-1547.904244946479</v>
       </c>
       <c r="E158" t="n">
-        <v>312.6689372030714</v>
+        <v>-162.2668103512432</v>
       </c>
       <c r="F158" t="n">
-        <v>308.4436812949216</v>
+        <v>-160.0740156167669</v>
       </c>
       <c r="G158" t="n">
-        <v>313.4737478522428</v>
+        <v>-162.6844855387625</v>
       </c>
       <c r="H158" t="n">
-        <v>290.1342390262733</v>
+        <v>-150.571905100703</v>
       </c>
       <c r="I158" t="n">
-        <v>242.6504107251634</v>
+        <v>-125.9290690370651</v>
       </c>
       <c r="J158" t="n">
-        <v>204.4219048895241</v>
+        <v>-106.089497629899</v>
       </c>
       <c r="K158" t="n">
-        <v>171.8270735980842</v>
+        <v>-89.17365253536782</v>
       </c>
       <c r="L158" t="n">
-        <v>184.3016386602402</v>
+        <v>-95.64761794191678</v>
       </c>
       <c r="M158" t="n">
-        <v>171.6258709357914</v>
+        <v>-89.06923373848801</v>
       </c>
       <c r="N158" t="n">
-        <v>289.1282257148092</v>
+        <v>-150.049811116304</v>
       </c>
       <c r="O158" t="n">
-        <v>139.8358502935229</v>
+        <v>-72.57106383147617</v>
       </c>
       <c r="P158" t="n">
-        <v>113.0758962085753</v>
+        <v>-58.68336384645987</v>
       </c>
       <c r="Q158" t="n">
-        <v>88.12676608426334</v>
+        <v>-45.73543303336196</v>
       </c>
       <c r="R158" t="n">
-        <v>55.12952946823778</v>
+        <v>-28.61075034507117</v>
       </c>
       <c r="S158" t="n">
-        <v>47.28262563881707</v>
+        <v>-24.53841726675812</v>
       </c>
       <c r="T158" t="n">
-        <v>50.50186823550251</v>
+        <v>-26.20911801683528</v>
       </c>
       <c r="U158" t="n">
         <v>0</v>
@@ -12159,10 +12159,10 @@
         <v>0.2232944964810878</v>
       </c>
       <c r="W158" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X158" t="n">
-        <v>3.759463758881109</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="159">
@@ -12173,58 +12173,58 @@
         <v>30002911</v>
       </c>
       <c r="C159" t="n">
-        <v>413.5610051511052</v>
+        <v>-179.3072842998455</v>
       </c>
       <c r="D159" t="n">
-        <v>1554.767610952024</v>
+        <v>-806.8827793493047</v>
       </c>
       <c r="E159" t="n">
-        <v>162.9862970466437</v>
+        <v>-84.58552611365486</v>
       </c>
       <c r="F159" t="n">
-        <v>160.7837795189863</v>
+        <v>-83.44247846347034</v>
       </c>
       <c r="G159" t="n">
-        <v>163.4058241947689</v>
+        <v>-84.80324947559478</v>
       </c>
       <c r="H159" t="n">
-        <v>151.2395368991377</v>
+        <v>-78.48927197933737</v>
       </c>
       <c r="I159" t="n">
-        <v>126.4874351597504</v>
+        <v>-65.64359362488271</v>
       </c>
       <c r="J159" t="n">
-        <v>106.559895623803</v>
+        <v>-55.30173393273701</v>
       </c>
       <c r="K159" t="n">
-        <v>89.56904612473207</v>
+        <v>-46.48393777417068</v>
       </c>
       <c r="L159" t="n">
-        <v>96.07171692067281</v>
+        <v>-49.85864988423928</v>
       </c>
       <c r="M159" t="n">
-        <v>89.46416433770078</v>
+        <v>-46.4295069336857</v>
       </c>
       <c r="N159" t="n">
-        <v>150.7151279639812</v>
+        <v>-78.2171177769125</v>
       </c>
       <c r="O159" t="n">
-        <v>72.89284198675502</v>
+        <v>-37.82943413705928</v>
       </c>
       <c r="P159" t="n">
-        <v>58.94356431159184</v>
+        <v>-30.59013235255729</v>
       </c>
       <c r="Q159" t="n">
-        <v>45.93822271971036</v>
+        <v>-23.84070813242009</v>
       </c>
       <c r="R159" t="n">
-        <v>28.7376096465768</v>
+        <v>-14.9140502928838</v>
       </c>
       <c r="S159" t="n">
-        <v>24.64721995235601</v>
+        <v>-12.79124751396968</v>
       </c>
       <c r="T159" t="n">
-        <v>26.32532854485685</v>
+        <v>-13.66214096172932</v>
       </c>
       <c r="U159" t="n">
         <v>0</v>
@@ -12233,10 +12233,10 @@
         <v>0.1163976935409809</v>
       </c>
       <c r="W159" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X159" t="n">
-        <v>3.759463758881109</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="160">
@@ -12247,58 +12247,58 @@
         <v>30002911</v>
       </c>
       <c r="C160" t="n">
-        <v>592.0882358283859</v>
+        <v>-256.7111799950383</v>
       </c>
       <c r="D160" t="n">
-        <v>2225.934264656668</v>
+        <v>-1155.200309977673</v>
       </c>
       <c r="E160" t="n">
-        <v>233.3447009765558</v>
+        <v>-121.0996547291759</v>
       </c>
       <c r="F160" t="n">
-        <v>230.1913942066023</v>
+        <v>-119.4631729085113</v>
       </c>
       <c r="G160" t="n">
-        <v>233.9453308374993</v>
+        <v>-121.4113655521596</v>
       </c>
       <c r="H160" t="n">
-        <v>216.5270648701373</v>
+        <v>-112.3717516856317</v>
       </c>
       <c r="I160" t="n">
-        <v>181.0899030744699</v>
+        <v>-93.98081312959208</v>
       </c>
       <c r="J160" t="n">
-        <v>152.5599846796529</v>
+        <v>-79.17454903786529</v>
       </c>
       <c r="K160" t="n">
-        <v>128.2344753114405</v>
+        <v>-66.55026070702456</v>
       </c>
       <c r="L160" t="n">
-        <v>137.544238156065</v>
+        <v>-71.38177846327225</v>
       </c>
       <c r="M160" t="n">
-        <v>128.0843178462047</v>
+        <v>-66.47233300127864</v>
       </c>
       <c r="N160" t="n">
-        <v>215.7762775439579</v>
+        <v>-111.982113156902</v>
       </c>
       <c r="O160" t="n">
-        <v>104.3594383389358</v>
+        <v>-54.15975549342164</v>
       </c>
       <c r="P160" t="n">
-        <v>84.38849546256392</v>
+        <v>-43.7953706292129</v>
       </c>
       <c r="Q160" t="n">
-        <v>65.76896977331494</v>
+        <v>-34.13233511671753</v>
       </c>
       <c r="R160" t="n">
-        <v>41.1431454746308</v>
+        <v>-21.35219137438493</v>
       </c>
       <c r="S160" t="n">
-        <v>35.28700433043152</v>
+        <v>-18.31301085029364</v>
       </c>
       <c r="T160" t="n">
-        <v>37.6895237742056</v>
+        <v>-19.55985414222853</v>
       </c>
       <c r="U160" t="n">
         <v>0</v>
@@ -12307,10 +12307,10 @@
         <v>0.166644592127325</v>
       </c>
       <c r="W160" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X160" t="n">
-        <v>3.759463758881108</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="161">
@@ -12321,58 +12321,58 @@
         <v>30002911</v>
       </c>
       <c r="C161" t="n">
-        <v>376.3785910608595</v>
+        <v>-163.1861374528445</v>
       </c>
       <c r="D161" t="n">
-        <v>1414.981672712035</v>
+        <v>-734.3376185378005</v>
       </c>
       <c r="E161" t="n">
-        <v>148.3325363865692</v>
+        <v>-76.98061651428375</v>
       </c>
       <c r="F161" t="n">
-        <v>146.3280426516156</v>
+        <v>-75.94033791273937</v>
       </c>
       <c r="G161" t="n">
-        <v>148.7143447170366</v>
+        <v>-77.17876481933983</v>
       </c>
       <c r="H161" t="n">
-        <v>137.6419031334831</v>
+        <v>-71.43246397271373</v>
       </c>
       <c r="I161" t="n">
-        <v>115.1152116359089</v>
+        <v>-59.74171397440552</v>
       </c>
       <c r="J161" t="n">
-        <v>96.97931593870932</v>
+        <v>-50.32966948424212</v>
       </c>
       <c r="K161" t="n">
-        <v>81.51607855478126</v>
+        <v>-42.30466312947124</v>
       </c>
       <c r="L161" t="n">
-        <v>87.43410767702535</v>
+        <v>-45.37596185784034</v>
       </c>
       <c r="M161" t="n">
-        <v>81.42062647216443</v>
+        <v>-42.25512605320722</v>
       </c>
       <c r="N161" t="n">
-        <v>137.1646427203989</v>
+        <v>-71.18477859139365</v>
       </c>
       <c r="O161" t="n">
-        <v>66.33919741870372</v>
+        <v>-34.42826800349241</v>
       </c>
       <c r="P161" t="n">
-        <v>53.64407043066402</v>
+        <v>-27.83983686037803</v>
       </c>
       <c r="Q161" t="n">
-        <v>41.80801218617587</v>
+        <v>-21.69723940363982</v>
       </c>
       <c r="R161" t="n">
-        <v>26.15387063701413</v>
+        <v>-13.57315889634089</v>
       </c>
       <c r="S161" t="n">
-        <v>22.43123941495737</v>
+        <v>-11.64121292204419</v>
       </c>
       <c r="T161" t="n">
-        <v>23.95847273682682</v>
+        <v>-12.43380614226848</v>
       </c>
       <c r="U161" t="n">
         <v>0</v>
@@ -12381,10 +12381,10 @@
         <v>0.105932617804914</v>
       </c>
       <c r="W161" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X161" t="n">
-        <v>3.759463758881109</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="162">
@@ -12395,58 +12395,58 @@
         <v>30002911</v>
       </c>
       <c r="C162" t="n">
-        <v>555.0892558982438</v>
+        <v>-240.6695645368442</v>
       </c>
       <c r="D162" t="n">
-        <v>2086.837940493729</v>
+        <v>-1083.013040415799</v>
       </c>
       <c r="E162" t="n">
-        <v>218.7632325639002</v>
+        <v>-113.532262871435</v>
       </c>
       <c r="F162" t="n">
-        <v>215.806972664388</v>
+        <v>-111.998043102902</v>
       </c>
       <c r="G162" t="n">
-        <v>219.3263296876168</v>
+        <v>-113.8244952082984</v>
       </c>
       <c r="H162" t="n">
-        <v>202.9965130998352</v>
+        <v>-105.3497574392594</v>
       </c>
       <c r="I162" t="n">
-        <v>169.7737828005557</v>
+        <v>-88.10804956431824</v>
       </c>
       <c r="J162" t="n">
-        <v>143.0266694240171</v>
+        <v>-74.22701356330623</v>
       </c>
       <c r="K162" t="n">
-        <v>120.2212359134947</v>
+        <v>-62.39160392033811</v>
       </c>
       <c r="L162" t="n">
-        <v>128.949241331102</v>
+        <v>-66.92120514172098</v>
       </c>
       <c r="M162" t="n">
-        <v>120.0804616325655</v>
+        <v>-62.31854583612227</v>
       </c>
       <c r="N162" t="n">
-        <v>202.2926416951895</v>
+        <v>-104.9844670181802</v>
       </c>
       <c r="O162" t="n">
-        <v>97.8381252457597</v>
+        <v>-50.77536853001756</v>
       </c>
       <c r="P162" t="n">
-        <v>79.11514588218267</v>
+        <v>-41.05864332930916</v>
       </c>
       <c r="Q162" t="n">
-        <v>61.65913504696799</v>
+        <v>-31.99944088654344</v>
       </c>
       <c r="R162" t="n">
-        <v>38.57215297458728</v>
+        <v>-20.01791507514361</v>
       </c>
       <c r="S162" t="n">
-        <v>33.0819560183504</v>
+        <v>-17.16864979072536</v>
       </c>
       <c r="T162" t="n">
-        <v>35.33434451321682</v>
+        <v>-18.337579138179</v>
       </c>
       <c r="U162" t="n">
         <v>0</v>
@@ -12455,10 +12455,10 @@
         <v>0.1562311443563872</v>
       </c>
       <c r="W162" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X162" t="n">
-        <v>3.759463758881108</v>
+        <v>4.500000000000001</v>
       </c>
     </row>
     <row r="163">
@@ -12469,58 +12469,58 @@
         <v>30002911</v>
       </c>
       <c r="C163" t="n">
-        <v>250.7573326601744</v>
+        <v>-108.7206380135878</v>
       </c>
       <c r="D163" t="n">
-        <v>942.7131044096201</v>
+        <v>-489.242871061145</v>
       </c>
       <c r="E163" t="n">
-        <v>98.82461982275701</v>
+        <v>-51.28733281361438</v>
       </c>
       <c r="F163" t="n">
-        <v>97.48915198731433</v>
+        <v>-50.59426074856553</v>
       </c>
       <c r="G163" t="n">
-        <v>99.07899464855562</v>
+        <v>-51.41934654029036</v>
       </c>
       <c r="H163" t="n">
-        <v>91.70212470039611</v>
+        <v>-47.5909484666872</v>
       </c>
       <c r="I163" t="n">
-        <v>76.69400997827859</v>
+        <v>-39.80213859280497</v>
       </c>
       <c r="J163" t="n">
-        <v>64.61120575284497</v>
+        <v>-33.53148657569639</v>
       </c>
       <c r="K163" t="n">
-        <v>54.30902530800158</v>
+        <v>-28.1849306453196</v>
       </c>
       <c r="L163" t="n">
-        <v>58.25183510787992</v>
+        <v>-30.23114340879714</v>
       </c>
       <c r="M163" t="n">
-        <v>54.24543160155194</v>
+        <v>-28.15192721365062</v>
       </c>
       <c r="N163" t="n">
-        <v>91.38415616814787</v>
+        <v>-47.42593130834225</v>
       </c>
       <c r="O163" t="n">
-        <v>44.19762598250714</v>
+        <v>-22.9373850099498</v>
       </c>
       <c r="P163" t="n">
-        <v>35.73966302470362</v>
+        <v>-18.5479285979738</v>
       </c>
       <c r="Q163" t="n">
-        <v>27.85404342494695</v>
+        <v>-14.45550307101872</v>
       </c>
       <c r="R163" t="n">
-        <v>17.42467556720425</v>
+        <v>-9.042940277303947</v>
       </c>
       <c r="S163" t="n">
-        <v>14.94452101566788</v>
+        <v>-7.755806442213239</v>
       </c>
       <c r="T163" t="n">
-        <v>15.96202031886229</v>
+        <v>-8.283861348917121</v>
       </c>
       <c r="U163" t="n">
         <v>0</v>
@@ -12529,10 +12529,10 @@
         <v>0.07057622647345185</v>
       </c>
       <c r="W163" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X163" t="n">
-        <v>3.759463758881109</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="164">
@@ -12543,58 +12543,58 @@
         <v>30002911</v>
       </c>
       <c r="C164" t="n">
-        <v>429.9197297177736</v>
+        <v>-186.3999222423099</v>
       </c>
       <c r="D164" t="n">
-        <v>1616.267643101932</v>
+        <v>-838.7996500903948</v>
       </c>
       <c r="E164" t="n">
-        <v>169.4333457488129</v>
+        <v>-87.93137184568766</v>
       </c>
       <c r="F164" t="n">
-        <v>167.1437059413965</v>
+        <v>-86.74311006398916</v>
       </c>
       <c r="G164" t="n">
-        <v>169.8694676168922</v>
+        <v>-88.15770742315405</v>
       </c>
       <c r="H164" t="n">
-        <v>157.2219334425921</v>
+        <v>-81.59397567662906</v>
       </c>
       <c r="I164" t="n">
-        <v>131.4907432259127</v>
+        <v>-68.2401766061128</v>
       </c>
       <c r="J164" t="n">
-        <v>110.7749544921453</v>
+        <v>-57.48923667645986</v>
       </c>
       <c r="K164" t="n">
-        <v>93.11201883493318</v>
+        <v>-48.32264578907158</v>
       </c>
       <c r="L164" t="n">
-        <v>99.87190779016252</v>
+        <v>-51.83084723980043</v>
       </c>
       <c r="M164" t="n">
-        <v>93.00298836791336</v>
+        <v>-48.26606189470499</v>
       </c>
       <c r="N164" t="n">
-        <v>156.676781107493</v>
+        <v>-81.3110562047961</v>
       </c>
       <c r="O164" t="n">
-        <v>75.77617457878051</v>
+        <v>-39.32580658478308</v>
       </c>
       <c r="P164" t="n">
-        <v>61.27512246514339</v>
+        <v>-31.80014863402603</v>
       </c>
       <c r="Q164" t="n">
-        <v>47.7553445546847</v>
+        <v>-24.78374573256833</v>
       </c>
       <c r="R164" t="n">
-        <v>29.87434796343289</v>
+        <v>-15.50398705644685</v>
       </c>
       <c r="S164" t="n">
-        <v>25.62215974965959</v>
+        <v>-13.29721517614967</v>
       </c>
       <c r="T164" t="n">
-        <v>27.36664722197685</v>
+        <v>-14.20255748601518</v>
       </c>
       <c r="U164" t="n">
         <v>0</v>
@@ -12603,10 +12603,10 @@
         <v>0.1210018940945043</v>
       </c>
       <c r="W164" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X164" t="n">
-        <v>3.759463758881109</v>
+        <v>4.500000000000001</v>
       </c>
     </row>
     <row r="165">
@@ -14023,70 +14023,70 @@
         <v>60003949</v>
       </c>
       <c r="C184" t="n">
-        <v>676.2307754472056</v>
+        <v>566.0194744394843</v>
       </c>
       <c r="D184" t="n">
-        <v>1705.388973338192</v>
+        <v>1209.438118803446</v>
       </c>
       <c r="E184" t="n">
-        <v>135.8590325521292</v>
+        <v>80.47990487455208</v>
       </c>
       <c r="F184" t="n">
-        <v>135.1023468140081</v>
+        <v>79.52472763937875</v>
       </c>
       <c r="G184" t="n">
-        <v>123.4940107744782</v>
+        <v>68.90884908511009</v>
       </c>
       <c r="H184" t="n">
-        <v>130.4097184278803</v>
+        <v>82.41447444064683</v>
       </c>
       <c r="I184" t="n">
-        <v>104.3626967760795</v>
+        <v>64.3468109703464</v>
       </c>
       <c r="J184" t="n">
-        <v>104.3134028057637</v>
+        <v>71.48290919332193</v>
       </c>
       <c r="K184" t="n">
-        <v>94.88905515792433</v>
+        <v>67.33843536707235</v>
       </c>
       <c r="L184" t="n">
-        <v>91.41760245180282</v>
+        <v>64.50215545151804</v>
       </c>
       <c r="M184" t="n">
-        <v>84.32481210599337</v>
+        <v>59.63246987269375</v>
       </c>
       <c r="N184" t="n">
-        <v>139.9717448919352</v>
+        <v>82.2107192497311</v>
       </c>
       <c r="O184" t="n">
-        <v>70.65270232596748</v>
+        <v>50.28747472840688</v>
       </c>
       <c r="P184" t="n">
-        <v>70.54206476828892</v>
+        <v>53.90847731531057</v>
       </c>
       <c r="Q184" t="n">
-        <v>72.94469925150155</v>
+        <v>60.95581282954579</v>
       </c>
       <c r="R184" t="n">
-        <v>84.85759370492227</v>
+        <v>75.64758824169797</v>
       </c>
       <c r="S184" t="n">
-        <v>79.32731230536676</v>
+        <v>72.65799800441124</v>
       </c>
       <c r="T184" t="n">
-        <v>182.9201782241502</v>
+        <v>175.139311539702</v>
       </c>
       <c r="U184" t="n">
-        <v>39.77052388632146</v>
+        <v>38.77862217725196</v>
       </c>
       <c r="V184" t="n">
         <v>0.3773080983360101</v>
       </c>
       <c r="W184" t="n">
-        <v>0.02332050019560825</v>
+        <v>0.0320633371599181</v>
       </c>
       <c r="X184" t="n">
-        <v>2.52190381635675</v>
+        <v>2.136742945110014</v>
       </c>
     </row>
     <row r="185">
@@ -24449,58 +24449,58 @@
         <v>30002212</v>
       </c>
       <c r="C325" t="n">
-        <v>5273.775484255118</v>
+        <v>4545.454545454545</v>
       </c>
       <c r="D325" t="n">
-        <v>29005.76516340315</v>
+        <v>25000</v>
       </c>
       <c r="E325" t="n">
-        <v>4111.516681449137</v>
+        <v>3543.70644791391</v>
       </c>
       <c r="F325" t="n">
-        <v>3635.634850242207</v>
+        <v>3133.545029549265</v>
       </c>
       <c r="G325" t="n">
-        <v>3448.864024015829</v>
+        <v>2972.56769868572</v>
       </c>
       <c r="H325" t="n">
-        <v>2916.695094494098</v>
+        <v>2513.892564170415</v>
       </c>
       <c r="I325" t="n">
-        <v>2410.111209660913</v>
+        <v>2077.269118814501</v>
       </c>
       <c r="J325" t="n">
-        <v>1735.945282117759</v>
+        <v>1496.207109464585</v>
       </c>
       <c r="K325" t="n">
-        <v>1446.834277137204</v>
+        <v>1247.023021963483</v>
       </c>
       <c r="L325" t="n">
-        <v>1394.384935525687</v>
+        <v>1201.817059186734</v>
       </c>
       <c r="M325" t="n">
-        <v>1176.912055673057</v>
+        <v>1014.377701331922</v>
       </c>
       <c r="N325" t="n">
-        <v>3862.062495735826</v>
+        <v>3328.702478609862</v>
       </c>
       <c r="O325" t="n">
-        <v>1006.771508494235</v>
+        <v>867.7339684219812</v>
       </c>
       <c r="P325" t="n">
-        <v>776.5061062973322</v>
+        <v>669.2687659874746</v>
       </c>
       <c r="Q325" t="n">
-        <v>438.7835164085419</v>
+        <v>378.1864690835317</v>
       </c>
       <c r="R325" t="n">
-        <v>305.7412840281093</v>
+        <v>263.5176854547058</v>
       </c>
       <c r="S325" t="n">
-        <v>168.8612949443952</v>
+        <v>145.5411484519714</v>
       </c>
       <c r="T325" t="n">
-        <v>170.1405471788224</v>
+        <v>146.6437329099409</v>
       </c>
       <c r="U325" t="n">
         <v>0</v>
@@ -24523,58 +24523,58 @@
         <v>60004424</v>
       </c>
       <c r="C326" t="n">
-        <v>2966.752425072541</v>
+        <v>4675.860564633965</v>
       </c>
       <c r="D326" t="n">
-        <v>16157.76308910584</v>
+        <v>25586.82708630739</v>
       </c>
       <c r="E326" t="n">
-        <v>2414.846225959826</v>
+        <v>3847.713359605443</v>
       </c>
       <c r="F326" t="n">
-        <v>1990.140609070143</v>
+        <v>3162.112077791406</v>
       </c>
       <c r="G326" t="n">
-        <v>1849.056700762694</v>
+        <v>2937.048433355165</v>
       </c>
       <c r="H326" t="n">
-        <v>1525.381982398307</v>
+        <v>2415.051413472512</v>
       </c>
       <c r="I326" t="n">
-        <v>1289.321177271542</v>
+        <v>2037.484239634977</v>
       </c>
       <c r="J326" t="n">
-        <v>1018.762839690014</v>
+        <v>1608.12598174585</v>
       </c>
       <c r="K326" t="n">
-        <v>905.6726389208567</v>
+        <v>1433.629880770786</v>
       </c>
       <c r="L326" t="n">
-        <v>772.6184550132759</v>
+        <v>1219.234519131034</v>
       </c>
       <c r="M326" t="n">
-        <v>677.8278511008497</v>
+        <v>1068.932471041558</v>
       </c>
       <c r="N326" t="n">
-        <v>2168.26890112723</v>
+        <v>3449.24692450836</v>
       </c>
       <c r="O326" t="n">
-        <v>481.3457327851116</v>
+        <v>754.4856235940192</v>
       </c>
       <c r="P326" t="n">
-        <v>423.9537236156276</v>
+        <v>664.495554367991</v>
       </c>
       <c r="Q326" t="n">
-        <v>261.6572046361205</v>
+        <v>407.7317082996058</v>
       </c>
       <c r="R326" t="n">
-        <v>182.2056760096727</v>
+        <v>283.2994187029375</v>
       </c>
       <c r="S326" t="n">
-        <v>119.096098013375</v>
+        <v>184.5329476737916</v>
       </c>
       <c r="T326" t="n">
-        <v>77.6072727311919</v>
+        <v>113.702532611953</v>
       </c>
       <c r="U326" t="n">
         <v>0</v>
@@ -24586,7 +24586,7 @@
         <v>0</v>
       </c>
       <c r="X326" t="n">
-        <v>5.446279558939185</v>
+        <v>5.472110798135054</v>
       </c>
     </row>
     <row r="327">
@@ -24597,58 +24597,58 @@
         <v>30002211</v>
       </c>
       <c r="C327" t="n">
-        <v>1323.402474358234</v>
+        <v>1082.851005787341</v>
       </c>
       <c r="D327" t="n">
-        <v>5955.311134612053</v>
+        <v>4872.829526043033</v>
       </c>
       <c r="E327" t="n">
-        <v>644.8013144409131</v>
+        <v>527.5974357037046</v>
       </c>
       <c r="F327" t="n">
-        <v>623.6071490397233</v>
+        <v>510.2556793097317</v>
       </c>
       <c r="G327" t="n">
-        <v>588.6991119083511</v>
+        <v>481.6927864255402</v>
       </c>
       <c r="H327" t="n">
-        <v>567.2556033847941</v>
+        <v>464.1470093681084</v>
       </c>
       <c r="I327" t="n">
-        <v>519.1323807679742</v>
+        <v>424.7710213206161</v>
       </c>
       <c r="J327" t="n">
-        <v>428.8701704711411</v>
+        <v>350.9155411486358</v>
       </c>
       <c r="K327" t="n">
-        <v>339.6053326637756</v>
+        <v>277.8761436304895</v>
       </c>
       <c r="L327" t="n">
-        <v>328.8835784019971</v>
+        <v>269.1032551017736</v>
       </c>
       <c r="M327" t="n">
-        <v>295.9702862495607</v>
+        <v>242.1725275252504</v>
       </c>
       <c r="N327" t="n">
-        <v>636.8223345251708</v>
+        <v>521.0687744730324</v>
       </c>
       <c r="O327" t="n">
-        <v>257.8207885274185</v>
+        <v>210.9573660160985</v>
       </c>
       <c r="P327" t="n">
-        <v>227.4009275986515</v>
+        <v>186.0668450741603</v>
       </c>
       <c r="Q327" t="n">
-        <v>165.0651470069159</v>
+        <v>135.0616792095331</v>
       </c>
       <c r="R327" t="n">
-        <v>121.4301005927009</v>
+        <v>99.35806310429395</v>
       </c>
       <c r="S327" t="n">
-        <v>86.02337721659516</v>
+        <v>70.38712889318569</v>
       </c>
       <c r="T327" t="n">
-        <v>123.9235318163704</v>
+        <v>101.3982697388791</v>
       </c>
       <c r="U327" t="n">
         <v>0</v>
@@ -24671,58 +24671,58 @@
         <v>30002211</v>
       </c>
       <c r="C328" t="n">
-        <v>1800.174001900897</v>
+        <v>1472.960997368472</v>
       </c>
       <c r="D328" t="n">
-        <v>8100.783008554037</v>
+        <v>6628.324488158126</v>
       </c>
       <c r="E328" t="n">
-        <v>877.0986794557333</v>
+        <v>717.6707053415219</v>
       </c>
       <c r="F328" t="n">
-        <v>848.2690631549846</v>
+        <v>694.0813743461514</v>
       </c>
       <c r="G328" t="n">
-        <v>800.7849892478681</v>
+        <v>655.2283585890694</v>
       </c>
       <c r="H328" t="n">
-        <v>771.6162009906394</v>
+        <v>631.3615060525765</v>
       </c>
       <c r="I328" t="n">
-        <v>706.1560133901148</v>
+        <v>577.7998486160282</v>
       </c>
       <c r="J328" t="n">
-        <v>583.3757651445715</v>
+        <v>477.33705072986</v>
       </c>
       <c r="K328" t="n">
-        <v>461.9522047249455</v>
+        <v>377.9843390081799</v>
       </c>
       <c r="L328" t="n">
-        <v>447.3678105963311</v>
+        <v>366.0509127399333</v>
       </c>
       <c r="M328" t="n">
-        <v>402.5971123410501</v>
+        <v>329.4180693118278</v>
       </c>
       <c r="N328" t="n">
-        <v>866.2451768483924</v>
+        <v>708.7900160256175</v>
       </c>
       <c r="O328" t="n">
-        <v>350.7038029997017</v>
+        <v>286.95727352016</v>
       </c>
       <c r="P328" t="n">
-        <v>309.3248243092145</v>
+        <v>253.0996455032746</v>
       </c>
       <c r="Q328" t="n">
-        <v>224.5318351893641</v>
+        <v>183.7192602227717</v>
       </c>
       <c r="R328" t="n">
-        <v>165.1767428054687</v>
+        <v>135.1529905264196</v>
       </c>
       <c r="S328" t="n">
-        <v>117.0143249853937</v>
+        <v>95.74493168709404</v>
       </c>
       <c r="T328" t="n">
-        <v>168.5684623702628</v>
+        <v>137.9282059376398</v>
       </c>
       <c r="U328" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="X328" t="n">
-        <v>4.500000000000001</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="329">
@@ -24745,58 +24745,58 @@
         <v>30002211</v>
       </c>
       <c r="C329" t="n">
-        <v>819.4716360378743</v>
+        <v>670.518381589188</v>
       </c>
       <c r="D329" t="n">
-        <v>3687.622362170435</v>
+        <v>3017.332717151346</v>
       </c>
       <c r="E329" t="n">
-        <v>399.2711199368926</v>
+        <v>326.6966340040772</v>
       </c>
       <c r="F329" t="n">
-        <v>386.1473592274435</v>
+        <v>315.9583455700686</v>
       </c>
       <c r="G329" t="n">
-        <v>364.5317533530563</v>
+        <v>298.2717528552306</v>
       </c>
       <c r="H329" t="n">
-        <v>351.25359545879</v>
+        <v>287.4071316161159</v>
       </c>
       <c r="I329" t="n">
-        <v>321.4549387890992</v>
+        <v>263.0249002306608</v>
       </c>
       <c r="J329" t="n">
-        <v>265.563157885327</v>
+        <v>217.2924247822942</v>
       </c>
       <c r="K329" t="n">
-        <v>210.2889657208229</v>
+        <v>172.0652805543516</v>
       </c>
       <c r="L329" t="n">
-        <v>203.6498867736896</v>
+        <v>166.6329699347942</v>
       </c>
       <c r="M329" t="n">
-        <v>183.269458377839</v>
+        <v>149.9570396608042</v>
       </c>
       <c r="N329" t="n">
-        <v>394.3304100227469</v>
+        <v>322.6539842406856</v>
       </c>
       <c r="O329" t="n">
-        <v>159.6466891008303</v>
+        <v>130.6281204795885</v>
       </c>
       <c r="P329" t="n">
-        <v>140.8102325531501</v>
+        <v>115.2155182566583</v>
       </c>
       <c r="Q329" t="n">
-        <v>102.2109363488875</v>
+        <v>83.63231698016209</v>
       </c>
       <c r="R329" t="n">
-        <v>75.19142900590359</v>
+        <v>61.52407608661468</v>
       </c>
       <c r="S329" t="n">
-        <v>53.26702876188245</v>
+        <v>43.58481776156484</v>
       </c>
       <c r="T329" t="n">
-        <v>76.73540085407411</v>
+        <v>62.78740413767454</v>
       </c>
       <c r="U329" t="n">
         <v>0</v>
@@ -24808,7 +24808,7 @@
         <v>0</v>
       </c>
       <c r="X329" t="n">
-        <v>4.500000000000001</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="330">
@@ -24819,58 +24819,58 @@
         <v>30002211</v>
       </c>
       <c r="C330" t="n">
-        <v>1231.377613018787</v>
+        <v>1007.553267125348</v>
       </c>
       <c r="D330" t="n">
-        <v>5541.199258584541</v>
+        <v>4533.989702064066</v>
       </c>
       <c r="E330" t="n">
-        <v>599.9640463364436</v>
+        <v>490.9101226569114</v>
       </c>
       <c r="F330" t="n">
-        <v>580.2436503818432</v>
+        <v>474.7742524226358</v>
       </c>
       <c r="G330" t="n">
-        <v>547.762998221324</v>
+        <v>448.1975249779459</v>
       </c>
       <c r="H330" t="n">
-        <v>527.8105976084337</v>
+        <v>431.8718209762079</v>
       </c>
       <c r="I330" t="n">
-        <v>483.0336985585753</v>
+        <v>395.2339038560285</v>
       </c>
       <c r="J330" t="n">
-        <v>399.0480122578049</v>
+        <v>326.5140800347594</v>
       </c>
       <c r="K330" t="n">
-        <v>315.990344590192</v>
+        <v>258.5535912833386</v>
       </c>
       <c r="L330" t="n">
-        <v>306.0141442837468</v>
+        <v>250.3907392824696</v>
       </c>
       <c r="M330" t="n">
-        <v>275.3895293895432</v>
+        <v>225.3326819774764</v>
       </c>
       <c r="N330" t="n">
-        <v>592.5398972711821</v>
+        <v>484.8354420981252</v>
       </c>
       <c r="O330" t="n">
-        <v>239.8928166712618</v>
+        <v>196.2881155557798</v>
       </c>
       <c r="P330" t="n">
-        <v>211.5882483599523</v>
+        <v>173.1283959254073</v>
       </c>
       <c r="Q330" t="n">
-        <v>153.587083787597</v>
+        <v>125.66995405989</v>
       </c>
       <c r="R330" t="n">
-        <v>112.9862685869482</v>
+        <v>92.44904475402778</v>
       </c>
       <c r="S330" t="n">
-        <v>80.04160710985042</v>
+        <v>65.49264977441396</v>
       </c>
       <c r="T330" t="n">
-        <v>115.3063151698424</v>
+        <v>94.34738242864849</v>
       </c>
       <c r="U330" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="X330" t="n">
-        <v>4.5</v>
+        <v>4.499999999999999</v>
       </c>
     </row>
     <row r="331">
@@ -24893,58 +24893,58 @@
         <v>30002211</v>
       </c>
       <c r="C331" t="n">
-        <v>1041.037109856511</v>
+        <v>851.8104683284142</v>
       </c>
       <c r="D331" t="n">
-        <v>4684.666994354301</v>
+        <v>3833.147107477864</v>
       </c>
       <c r="E331" t="n">
-        <v>507.2244535002604</v>
+        <v>415.027567406538</v>
       </c>
       <c r="F331" t="n">
-        <v>490.5523426930208</v>
+        <v>401.3859033579862</v>
       </c>
       <c r="G331" t="n">
-        <v>463.0923954810963</v>
+        <v>378.9172802191943</v>
       </c>
       <c r="H331" t="n">
-        <v>446.2241421937713</v>
+        <v>365.1151260053651</v>
       </c>
       <c r="I331" t="n">
-        <v>408.3686435373327</v>
+        <v>334.140524106888</v>
       </c>
       <c r="J331" t="n">
-        <v>337.3650657464997</v>
+        <v>276.0430842765837</v>
       </c>
       <c r="K331" t="n">
-        <v>267.1460578760073</v>
+        <v>218.5876051073878</v>
       </c>
       <c r="L331" t="n">
-        <v>258.7119312323447</v>
+        <v>211.6865280004732</v>
       </c>
       <c r="M331" t="n">
-        <v>232.8211238611018</v>
+        <v>190.5018261838982</v>
       </c>
       <c r="N331" t="n">
-        <v>500.9478941375348</v>
+        <v>409.8918821176713</v>
       </c>
       <c r="O331" t="n">
-        <v>202.8113244080701</v>
+        <v>165.9468308965044</v>
       </c>
       <c r="P331" t="n">
-        <v>178.8819418376789</v>
+        <v>146.3670307327002</v>
       </c>
       <c r="Q331" t="n">
-        <v>129.8463218163853</v>
+        <v>106.2444894134293</v>
       </c>
       <c r="R331" t="n">
-        <v>95.52138780147982</v>
+        <v>78.15871048993968</v>
       </c>
       <c r="S331" t="n">
-        <v>67.66915562938512</v>
+        <v>55.36910702059384</v>
       </c>
       <c r="T331" t="n">
-        <v>97.48281260233158</v>
+        <v>79.76361214271053</v>
       </c>
       <c r="U331" t="n">
         <v>0</v>
@@ -24956,7 +24956,7 @@
         <v>0</v>
       </c>
       <c r="X331" t="n">
-        <v>4.500000000000001</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="332">
@@ -24967,58 +24967,58 @@
         <v>30002112</v>
       </c>
       <c r="C332" t="n">
-        <v>843.9602290234354</v>
+        <v>-134.127344654629</v>
       </c>
       <c r="D332" t="n">
-        <v>3478.528543787495</v>
+        <v>-603.5730509458307</v>
       </c>
       <c r="E332" t="n">
-        <v>376.1122702629177</v>
+        <v>-65.26070653241715</v>
       </c>
       <c r="F332" t="n">
-        <v>385.6053000296706</v>
+        <v>-66.90787914201718</v>
       </c>
       <c r="G332" t="n">
-        <v>371.5618923581934</v>
+        <v>-64.47115271955106</v>
       </c>
       <c r="H332" t="n">
-        <v>323.6260147756645</v>
+        <v>-56.15361169090964</v>
       </c>
       <c r="I332" t="n">
-        <v>286.2815340403394</v>
+        <v>-49.67382522669801</v>
       </c>
       <c r="J332" t="n">
-        <v>231.3631800178024</v>
+        <v>-40.14472748521031</v>
       </c>
       <c r="K332" t="n">
-        <v>199.0398059359663</v>
+        <v>-34.53617281450612</v>
       </c>
       <c r="L332" t="n">
-        <v>200.1381730164171</v>
+        <v>-34.72675476933588</v>
       </c>
       <c r="M332" t="n">
-        <v>176.9155547440299</v>
+        <v>-30.69730772436394</v>
       </c>
       <c r="N332" t="n">
-        <v>366.619240496165</v>
+        <v>-63.61353392281716</v>
       </c>
       <c r="O332" t="n">
-        <v>146.6320052401738</v>
+        <v>-25.44269096977215</v>
       </c>
       <c r="P332" t="n">
-        <v>125.1353923799236</v>
+        <v>-21.7127298538184</v>
       </c>
       <c r="Q332" t="n">
-        <v>98.30385370034128</v>
+        <v>-17.05708495726298</v>
       </c>
       <c r="R332" t="n">
-        <v>66.68657274165207</v>
+        <v>-11.57104725752077</v>
       </c>
       <c r="S332" t="n">
-        <v>54.4476252737724</v>
+        <v>-9.447419760846371</v>
       </c>
       <c r="T332" t="n">
-        <v>70.06012877446508</v>
+        <v>-12.15640611878359</v>
       </c>
       <c r="U332" t="n">
         <v>0</v>
@@ -25027,10 +25027,10 @@
         <v>0.08706904250731821</v>
       </c>
       <c r="W332" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X332" t="n">
-        <v>4.121673538826083</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="333">
@@ -25041,58 +25041,58 @@
         <v>30002112</v>
       </c>
       <c r="C333" t="n">
-        <v>1201.599780634728</v>
+        <v>-190.9656194351849</v>
       </c>
       <c r="D333" t="n">
-        <v>4952.602020101386</v>
+        <v>-859.3452874583321</v>
       </c>
       <c r="E333" t="n">
-        <v>535.4949272489972</v>
+        <v>-92.915812803357</v>
       </c>
       <c r="F333" t="n">
-        <v>549.010756660163</v>
+        <v>-95.26099706476842</v>
       </c>
       <c r="G333" t="n">
-        <v>529.016265217199</v>
+        <v>-91.79167489292846</v>
       </c>
       <c r="H333" t="n">
-        <v>460.7669117442874</v>
+        <v>-79.94946345720646</v>
       </c>
       <c r="I333" t="n">
-        <v>407.5972026557345</v>
+        <v>-70.72377991644761</v>
       </c>
       <c r="J333" t="n">
-        <v>329.4064539960979</v>
+        <v>-57.15659823886106</v>
       </c>
       <c r="K333" t="n">
-        <v>283.385613356426</v>
+        <v>-49.17134273719583</v>
       </c>
       <c r="L333" t="n">
-        <v>284.9494283296187</v>
+        <v>-49.44268637074757</v>
       </c>
       <c r="M333" t="n">
-        <v>251.8859117535438</v>
+        <v>-43.70570668993954</v>
       </c>
       <c r="N333" t="n">
-        <v>521.9790978378315</v>
+        <v>-90.57062854194565</v>
       </c>
       <c r="O333" t="n">
-        <v>208.7692989212299</v>
+        <v>-36.2243750791561</v>
       </c>
       <c r="P333" t="n">
-        <v>178.1632058744578</v>
+        <v>-30.9137925367865</v>
       </c>
       <c r="Q333" t="n">
-        <v>139.9614401007497</v>
+        <v>-24.28525520287993</v>
       </c>
       <c r="R333" t="n">
-        <v>94.94590908670163</v>
+        <v>-16.47443489421224</v>
       </c>
       <c r="S333" t="n">
-        <v>77.52054224255404</v>
+        <v>-13.45089154892152</v>
       </c>
       <c r="T333" t="n">
-        <v>99.74905507579363</v>
+        <v>-17.30784748297827</v>
       </c>
       <c r="U333" t="n">
         <v>0</v>
@@ -25101,10 +25101,10 @@
         <v>0.123965725846975</v>
       </c>
       <c r="W333" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X333" t="n">
-        <v>4.121673538826083</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="334">
@@ -25115,58 +25115,58 @@
         <v>30002112</v>
       </c>
       <c r="C334" t="n">
-        <v>913.2111489941191</v>
+        <v>-145.133126314869</v>
       </c>
       <c r="D334" t="n">
-        <v>3763.958228170024</v>
+        <v>-653.0990684169104</v>
       </c>
       <c r="E334" t="n">
-        <v>406.97405714843</v>
+        <v>-70.61565550973583</v>
       </c>
       <c r="F334" t="n">
-        <v>417.2460348111251</v>
+        <v>-72.39798640599744</v>
       </c>
       <c r="G334" t="n">
-        <v>402.0502992605268</v>
+        <v>-69.76131508012288</v>
       </c>
       <c r="H334" t="n">
-        <v>350.1810566827856</v>
+        <v>-60.76128055437222</v>
       </c>
       <c r="I334" t="n">
-        <v>309.7722850510266</v>
+        <v>-53.74979702858284</v>
       </c>
       <c r="J334" t="n">
-        <v>250.3476208866751</v>
+        <v>-43.43879184359847</v>
       </c>
       <c r="K334" t="n">
-        <v>215.3719614070854</v>
+        <v>-37.3700287918648</v>
       </c>
       <c r="L334" t="n">
-        <v>216.5604546903724</v>
+        <v>-37.5762488955645</v>
       </c>
       <c r="M334" t="n">
-        <v>191.4323109865895</v>
+        <v>-33.21616670305681</v>
       </c>
       <c r="N334" t="n">
-        <v>396.7020794857351</v>
+        <v>-68.83332461347428</v>
       </c>
       <c r="O334" t="n">
-        <v>158.6638533188185</v>
+        <v>-27.53038384390829</v>
       </c>
       <c r="P334" t="n">
-        <v>135.4033419173438</v>
+        <v>-23.49436181435726</v>
       </c>
       <c r="Q334" t="n">
-        <v>106.3701488541892</v>
+        <v>-18.45669928112204</v>
       </c>
       <c r="R334" t="n">
-        <v>72.15852077099824</v>
+        <v>-12.52050629605245</v>
       </c>
       <c r="S334" t="n">
-        <v>58.91530990008562</v>
+        <v>-10.22262514054165</v>
       </c>
       <c r="T334" t="n">
-        <v>75.808892998237</v>
+        <v>-13.15389661455864</v>
       </c>
       <c r="U334" t="n">
         <v>0</v>
@@ -25175,10 +25175,10 @@
         <v>0.09421346837863603</v>
       </c>
       <c r="W334" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X334" t="n">
-        <v>4.121673538826083</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="335">
@@ -25189,58 +25189,58 @@
         <v>30002112</v>
       </c>
       <c r="C335" t="n">
-        <v>359.4705303225114</v>
+        <v>-57.12926516636949</v>
       </c>
       <c r="D335" t="n">
-        <v>1481.620172818074</v>
+        <v>-257.0816932486627</v>
       </c>
       <c r="E335" t="n">
-        <v>160.1986356734595</v>
+        <v>-27.79668991461249</v>
       </c>
       <c r="F335" t="n">
-        <v>164.2420305246252</v>
+        <v>-28.4982751210514</v>
       </c>
       <c r="G335" t="n">
-        <v>158.2604794638098</v>
+        <v>-27.46039287350956</v>
       </c>
       <c r="H335" t="n">
-        <v>137.8430062897415</v>
+        <v>-23.91767749223541</v>
       </c>
       <c r="I335" t="n">
-        <v>121.9367587760646</v>
+        <v>-21.15772246525261</v>
       </c>
       <c r="J335" t="n">
-        <v>98.54521831477516</v>
+        <v>-17.09896507263084</v>
       </c>
       <c r="K335" t="n">
-        <v>84.77762592898765</v>
+        <v>-14.7100964358306</v>
       </c>
       <c r="L335" t="n">
-        <v>85.24545673821345</v>
+        <v>-14.79127158368304</v>
       </c>
       <c r="M335" t="n">
-        <v>75.35417677172532</v>
+        <v>-13.07499702908869</v>
       </c>
       <c r="N335" t="n">
-        <v>156.1552408222938</v>
+        <v>-27.0951047081736</v>
       </c>
       <c r="O335" t="n">
-        <v>62.45541303164285</v>
+        <v>-10.83688223830012</v>
       </c>
       <c r="P335" t="n">
-        <v>53.29929576536669</v>
+        <v>-9.248168630331026</v>
       </c>
       <c r="Q335" t="n">
-        <v>41.87085742570814</v>
+        <v>-7.265175732792963</v>
       </c>
       <c r="R335" t="n">
-        <v>28.40401341728005</v>
+        <v>-4.928491119612144</v>
       </c>
       <c r="S335" t="n">
-        <v>23.19104154304983</v>
+        <v>-4.02396804354215</v>
       </c>
       <c r="T335" t="n">
-        <v>29.8409223313307</v>
+        <v>-5.177814788016054</v>
       </c>
       <c r="U335" t="n">
         <v>0</v>
@@ -25249,10 +25249,10 @@
         <v>0.03708558034896434</v>
       </c>
       <c r="W335" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X335" t="n">
-        <v>4.121673538826083</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="336">
@@ -25263,58 +25263,58 @@
         <v>30002211</v>
       </c>
       <c r="C336" t="n">
-        <v>414.8642198256989</v>
+        <v>339.4554161773722</v>
       </c>
       <c r="D336" t="n">
-        <v>1866.888989215645</v>
+        <v>1527.549372798175</v>
       </c>
       <c r="E336" t="n">
-        <v>202.1342708973228</v>
+        <v>165.3928436633763</v>
       </c>
       <c r="F336" t="n">
-        <v>195.490259672933</v>
+        <v>159.9564972939306</v>
       </c>
       <c r="G336" t="n">
-        <v>184.5471823621729</v>
+        <v>151.0025150383726</v>
       </c>
       <c r="H336" t="n">
-        <v>177.825006299849</v>
+        <v>145.5022116528156</v>
       </c>
       <c r="I336" t="n">
-        <v>162.7391925785871</v>
+        <v>133.158507543368</v>
       </c>
       <c r="J336" t="n">
-        <v>134.4435212464792</v>
+        <v>110.0060677111397</v>
       </c>
       <c r="K336" t="n">
-        <v>106.4605092661074</v>
+        <v>87.109455943356</v>
       </c>
       <c r="L336" t="n">
-        <v>103.0994212349454</v>
+        <v>84.35930425057749</v>
       </c>
       <c r="M336" t="n">
-        <v>92.78166262765747</v>
+        <v>75.91697812390862</v>
       </c>
       <c r="N336" t="n">
-        <v>199.6329960834348</v>
+        <v>163.3462191478202</v>
       </c>
       <c r="O336" t="n">
-        <v>80.82244242375555</v>
+        <v>66.1315546589061</v>
       </c>
       <c r="P336" t="n">
-        <v>71.28633219580757</v>
+        <v>58.32879869334849</v>
       </c>
       <c r="Q336" t="n">
-        <v>51.7451227123077</v>
+        <v>42.33954466556657</v>
       </c>
       <c r="R336" t="n">
-        <v>38.06627607385777</v>
+        <v>31.14706684611921</v>
       </c>
       <c r="S336" t="n">
-        <v>26.96686908722985</v>
+        <v>22.06517055833908</v>
       </c>
       <c r="T336" t="n">
-        <v>38.84792445319777</v>
+        <v>31.78663700723049</v>
       </c>
       <c r="U336" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="X336" t="n">
-        <v>4.500000000000001</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="337">
@@ -25337,58 +25337,58 @@
         <v>30002112</v>
       </c>
       <c r="C337" t="n">
-        <v>953.007067906984</v>
+        <v>-151.4577382436205</v>
       </c>
       <c r="D337" t="n">
-        <v>3927.984014106448</v>
+        <v>-681.5598220962924</v>
       </c>
       <c r="E337" t="n">
-        <v>424.70917415369</v>
+        <v>-73.69294481324427</v>
       </c>
       <c r="F337" t="n">
-        <v>435.4287840979113</v>
+        <v>-75.55294613206001</v>
       </c>
       <c r="G337" t="n">
-        <v>419.5708487258817</v>
+        <v>-72.80137393315083</v>
       </c>
       <c r="H337" t="n">
-        <v>365.4412480984504</v>
+        <v>-63.40913586871771</v>
       </c>
       <c r="I337" t="n">
-        <v>323.2715428633323</v>
+        <v>-56.09210588726084</v>
       </c>
       <c r="J337" t="n">
-        <v>261.2572704587468</v>
+        <v>-45.33176767923601</v>
       </c>
       <c r="K337" t="n">
-        <v>224.7574415577621</v>
+        <v>-38.99854004822711</v>
       </c>
       <c r="L337" t="n">
-        <v>225.9977270058539</v>
+        <v>-39.21374681238762</v>
       </c>
       <c r="M337" t="n">
-        <v>199.7745489604863</v>
+        <v>-34.66366094156569</v>
       </c>
       <c r="N337" t="n">
-        <v>413.9895642094689</v>
+        <v>-71.83294349442858</v>
       </c>
       <c r="O337" t="n">
-        <v>165.5781073202434</v>
+        <v>-28.73010301542628</v>
       </c>
       <c r="P337" t="n">
-        <v>141.3039492647342</v>
+        <v>-24.51819920257085</v>
       </c>
       <c r="Q337" t="n">
-        <v>111.0055476042081</v>
+        <v>-19.26100539236444</v>
       </c>
       <c r="R337" t="n">
-        <v>75.30304506271099</v>
+        <v>-13.06612496688728</v>
       </c>
       <c r="S337" t="n">
-        <v>61.4827214982605</v>
+        <v>-10.66810673767032</v>
       </c>
       <c r="T337" t="n">
-        <v>79.11249322470699</v>
+        <v>-13.72711717109453</v>
       </c>
       <c r="U337" t="n">
         <v>0</v>
@@ -25397,10 +25397,10 @@
         <v>0.09831910326080512</v>
       </c>
       <c r="W337" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X337" t="n">
-        <v>4.121673538826083</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="338">
@@ -25411,58 +25411,58 @@
         <v>30002112</v>
       </c>
       <c r="C338" t="n">
-        <v>629.8970142058516</v>
+        <v>-100.1071034106324</v>
       </c>
       <c r="D338" t="n">
-        <v>2596.229855637816</v>
+        <v>-450.4819653478457</v>
       </c>
       <c r="E338" t="n">
-        <v>280.7146449530355</v>
+        <v>-48.70789259501041</v>
       </c>
       <c r="F338" t="n">
-        <v>287.7998498006194</v>
+        <v>-49.93727411440889</v>
       </c>
       <c r="G338" t="n">
-        <v>277.3184310591524</v>
+        <v>-48.11860227992688</v>
       </c>
       <c r="H338" t="n">
-        <v>241.5410743494517</v>
+        <v>-41.91073361585691</v>
       </c>
       <c r="I338" t="n">
-        <v>213.6686982548241</v>
+        <v>-37.07448896103318</v>
       </c>
       <c r="J338" t="n">
-        <v>172.6799098803717</v>
+        <v>-29.96236446864534</v>
       </c>
       <c r="K338" t="n">
-        <v>148.5550801514082</v>
+        <v>-25.77637119598278</v>
       </c>
       <c r="L338" t="n">
-        <v>149.3748559188973</v>
+        <v>-25.91861368583054</v>
       </c>
       <c r="M338" t="n">
-        <v>132.0424539777003</v>
+        <v>-22.91120104333511</v>
       </c>
       <c r="N338" t="n">
-        <v>273.6294401054516</v>
+        <v>-47.47851107561196</v>
       </c>
       <c r="O338" t="n">
-        <v>109.4400649597879</v>
+        <v>-18.98937239467553</v>
       </c>
       <c r="P338" t="n">
-        <v>93.39588208178802</v>
+        <v>-16.20548366479801</v>
       </c>
       <c r="Q338" t="n">
-        <v>73.36993119026984</v>
+        <v>-12.73070284137423</v>
       </c>
       <c r="R338" t="n">
-        <v>49.77210016897792</v>
+        <v>-8.636151169328087</v>
       </c>
       <c r="S338" t="n">
-        <v>40.63745590267138</v>
+        <v>-7.051163425310226</v>
       </c>
       <c r="T338" t="n">
-        <v>52.28998288340859</v>
+        <v>-9.073038816717629</v>
       </c>
       <c r="U338" t="n">
         <v>0</v>
@@ -25471,10 +25471,10 @@
         <v>0.06498473271493363</v>
       </c>
       <c r="W338" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X338" t="n">
-        <v>4.121673538826083</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="339">
@@ -25485,58 +25485,58 @@
         <v>30002112</v>
       </c>
       <c r="C339" t="n">
-        <v>741.9779842141547</v>
+        <v>-117.9196997588323</v>
       </c>
       <c r="D339" t="n">
-        <v>3058.191023926998</v>
+        <v>-530.6386489147453</v>
       </c>
       <c r="E339" t="n">
-        <v>330.6637143918541</v>
+        <v>-57.37475039237872</v>
       </c>
       <c r="F339" t="n">
-        <v>339.009627917389</v>
+        <v>-58.82288239018388</v>
       </c>
       <c r="G339" t="n">
-        <v>326.6631938589532</v>
+        <v>-56.68060447607547</v>
       </c>
       <c r="H339" t="n">
-        <v>284.5197792795992</v>
+        <v>-49.3681362888115</v>
       </c>
       <c r="I339" t="n">
-        <v>251.6879211130321</v>
+        <v>-43.67135256190865</v>
       </c>
       <c r="J339" t="n">
-        <v>203.4057767504335</v>
+        <v>-35.29372943411033</v>
       </c>
       <c r="K339" t="n">
-        <v>174.9882860684468</v>
+        <v>-30.36289982174904</v>
       </c>
       <c r="L339" t="n">
-        <v>175.9539289556988</v>
+        <v>-30.53045228430501</v>
       </c>
       <c r="M339" t="n">
-        <v>155.5374793395142</v>
+        <v>-26.98791450455029</v>
       </c>
       <c r="N339" t="n">
-        <v>322.3178008663193</v>
+        <v>-55.92661839457361</v>
       </c>
       <c r="O339" t="n">
-        <v>128.9133254481384</v>
+        <v>-22.3682537512215</v>
       </c>
       <c r="P339" t="n">
-        <v>110.0143146547784</v>
+        <v>-19.08901269834045</v>
       </c>
       <c r="Q339" t="n">
-        <v>86.4250384090516</v>
+        <v>-14.99594539875899</v>
       </c>
       <c r="R339" t="n">
-        <v>58.62831815458406</v>
+        <v>-10.17282808375509</v>
       </c>
       <c r="S339" t="n">
-        <v>47.86829741091922</v>
+        <v>-8.305814929560041</v>
       </c>
       <c r="T339" t="n">
-        <v>61.59422130828657</v>
+        <v>-10.68745350446271</v>
       </c>
       <c r="U339" t="n">
         <v>0</v>
@@ -25545,10 +25545,10 @@
         <v>0.07654781638441707</v>
       </c>
       <c r="W339" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X339" t="n">
-        <v>4.121673538826083</v>
+        <v>4.500000000000001</v>
       </c>
     </row>
     <row r="340">
@@ -25559,58 +25559,58 @@
         <v>30002112</v>
       </c>
       <c r="C340" t="n">
-        <v>316.6828821320651</v>
+        <v>-50.32918924046749</v>
       </c>
       <c r="D340" t="n">
-        <v>1305.263455482912</v>
+        <v>-226.4813515821037</v>
       </c>
       <c r="E340" t="n">
-        <v>141.1302495733925</v>
+        <v>-24.48805989184457</v>
       </c>
       <c r="F340" t="n">
-        <v>144.692360586822</v>
+        <v>-25.10613566299877</v>
       </c>
       <c r="G340" t="n">
-        <v>139.4227914016661</v>
+        <v>-24.19179216682853</v>
       </c>
       <c r="H340" t="n">
-        <v>121.4356027305474</v>
+        <v>-21.07076492571108</v>
       </c>
       <c r="I340" t="n">
-        <v>107.4226701487922</v>
+        <v>-18.63932635488963</v>
       </c>
       <c r="J340" t="n">
-        <v>86.81541635209319</v>
+        <v>-15.06368139779926</v>
       </c>
       <c r="K340" t="n">
-        <v>74.68657554603608</v>
+        <v>-12.95915893734036</v>
       </c>
       <c r="L340" t="n">
-        <v>75.09872062197007</v>
+        <v>-13.03067183648217</v>
       </c>
       <c r="M340" t="n">
-        <v>66.38479615936593</v>
+        <v>-11.51868482605539</v>
       </c>
       <c r="N340" t="n">
-        <v>137.5681385599632</v>
+        <v>-23.86998412069039</v>
       </c>
       <c r="O340" t="n">
-        <v>55.02136763718622</v>
+        <v>-9.546972035431274</v>
       </c>
       <c r="P340" t="n">
-        <v>46.95509972247834</v>
+        <v>-8.147362437941617</v>
       </c>
       <c r="Q340" t="n">
-        <v>36.88698429609114</v>
+        <v>-6.400404473191753</v>
       </c>
       <c r="R340" t="n">
-        <v>25.02309389599159</v>
+        <v>-4.341854590752584</v>
       </c>
       <c r="S340" t="n">
-        <v>20.43062019272725</v>
+        <v>-3.544996571743875</v>
       </c>
       <c r="T340" t="n">
-        <v>26.28896805778882</v>
+        <v>-4.561501352402423</v>
       </c>
       <c r="U340" t="n">
         <v>0</v>
@@ -25619,10 +25619,10 @@
         <v>0.03267129703209173</v>
       </c>
       <c r="W340" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X340" t="n">
-        <v>4.121673538826083</v>
+        <v>4.500000000000001</v>
       </c>
     </row>
     <row r="341">
@@ -25633,58 +25633,58 @@
         <v>30002112</v>
       </c>
       <c r="C341" t="n">
-        <v>202.0235450642141</v>
+        <v>-32.10682295839012</v>
       </c>
       <c r="D341" t="n">
-        <v>832.6750999110097</v>
+        <v>-144.4807033127555</v>
       </c>
       <c r="E341" t="n">
-        <v>90.0321265950963</v>
+        <v>-15.62182533450651</v>
       </c>
       <c r="F341" t="n">
-        <v>92.30452695346231</v>
+        <v>-16.01611838112214</v>
       </c>
       <c r="G341" t="n">
-        <v>88.94287683654073</v>
+        <v>-15.43282536174862</v>
       </c>
       <c r="H341" t="n">
-        <v>77.4681940352049</v>
+        <v>-13.44180840735073</v>
       </c>
       <c r="I341" t="n">
-        <v>68.52883394774854</v>
+        <v>-11.89070518264795</v>
       </c>
       <c r="J341" t="n">
-        <v>55.3827161720774</v>
+        <v>-9.609671028673285</v>
       </c>
       <c r="K341" t="n">
-        <v>47.64528685268239</v>
+        <v>-8.267119498048194</v>
       </c>
       <c r="L341" t="n">
-        <v>47.90820920819581</v>
+        <v>-8.312740181127689</v>
       </c>
       <c r="M341" t="n">
-        <v>42.34927940591201</v>
+        <v>-7.348188596018399</v>
       </c>
       <c r="N341" t="n">
-        <v>87.75972623673032</v>
+        <v>-15.2275322878909</v>
       </c>
       <c r="O341" t="n">
-        <v>35.10013446104193</v>
+        <v>-6.090361191112367</v>
       </c>
       <c r="P341" t="n">
-        <v>29.95436836027923</v>
+        <v>-5.197499250842283</v>
       </c>
       <c r="Q341" t="n">
-        <v>23.53155081845134</v>
+        <v>-4.083051135614658</v>
       </c>
       <c r="R341" t="n">
-        <v>15.96314301331495</v>
+        <v>-2.76982718696924</v>
       </c>
       <c r="S341" t="n">
-        <v>13.03343676616538</v>
+        <v>-2.261482432654886</v>
       </c>
       <c r="T341" t="n">
-        <v>16.77069024810618</v>
+        <v>-2.909947856427685</v>
       </c>
       <c r="U341" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0.02084221036461509</v>
       </c>
       <c r="W341" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X341" t="n">
-        <v>4.121673538826083</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="342">
@@ -25707,58 +25707,58 @@
         <v>30002112</v>
       </c>
       <c r="C342" t="n">
-        <v>1173.942338937527</v>
+        <v>-186.5701288809934</v>
       </c>
       <c r="D342" t="n">
-        <v>4838.607074506407</v>
+        <v>-839.5655799644704</v>
       </c>
       <c r="E342" t="n">
-        <v>523.1693426673218</v>
+        <v>-90.77715256325656</v>
       </c>
       <c r="F342" t="n">
-        <v>536.3740757634307</v>
+        <v>-93.06835729003049</v>
       </c>
       <c r="G342" t="n">
-        <v>516.8398011832368</v>
+        <v>-89.6788891405055</v>
       </c>
       <c r="H342" t="n">
-        <v>450.1613555491662</v>
+        <v>-78.10925204911003</v>
       </c>
       <c r="I342" t="n">
-        <v>398.2154633694321</v>
+        <v>-69.09591775204909</v>
       </c>
       <c r="J342" t="n">
-        <v>321.8244454580584</v>
+        <v>-55.8410143740183</v>
       </c>
       <c r="K342" t="n">
-        <v>276.8628749159357</v>
+        <v>-48.03955695723446</v>
       </c>
       <c r="L342" t="n">
-        <v>278.3906952741631</v>
+        <v>-48.30465502479509</v>
       </c>
       <c r="M342" t="n">
-        <v>246.0882077002109</v>
+        <v>-42.69972445351349</v>
       </c>
       <c r="N342" t="n">
-        <v>509.964609571213</v>
+        <v>-88.48594783648272</v>
       </c>
       <c r="O342" t="n">
-        <v>203.9640178233676</v>
+        <v>-35.39059201934222</v>
       </c>
       <c r="P342" t="n">
-        <v>174.0623908123443</v>
+        <v>-30.20224412565588</v>
       </c>
       <c r="Q342" t="n">
-        <v>136.7399220613589</v>
+        <v>-23.72627704667512</v>
       </c>
       <c r="R342" t="n">
-        <v>92.76052174952514</v>
+        <v>-16.09523981618025</v>
       </c>
       <c r="S342" t="n">
-        <v>75.73623775784758</v>
+        <v>-13.14128992050481</v>
       </c>
       <c r="T342" t="n">
-        <v>97.45311284979526</v>
+        <v>-16.90946959511643</v>
       </c>
       <c r="U342" t="n">
         <v>0</v>
@@ -25767,10 +25767,10 @@
         <v>0.1211123840851674</v>
       </c>
       <c r="W342" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X342" t="n">
-        <v>4.121673538826083</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="343">
@@ -25781,58 +25781,58 @@
         <v>30002112</v>
       </c>
       <c r="C343" t="n">
-        <v>889.115350875648</v>
+        <v>-141.3036740399623</v>
       </c>
       <c r="D343" t="n">
-        <v>3664.643214668226</v>
+        <v>-635.8665331798305</v>
       </c>
       <c r="E343" t="n">
-        <v>396.2357249113508</v>
+        <v>-68.75240561288524</v>
       </c>
       <c r="F343" t="n">
-        <v>406.2366683227554</v>
+        <v>-70.48770829940158</v>
       </c>
       <c r="G343" t="n">
-        <v>391.4418842678679</v>
+        <v>-67.92060763091879</v>
       </c>
       <c r="H343" t="n">
-        <v>340.9412526615191</v>
+        <v>-59.15804613123733</v>
       </c>
       <c r="I343" t="n">
-        <v>301.598698415002</v>
+        <v>-52.33156614130546</v>
       </c>
       <c r="J343" t="n">
-        <v>243.7420009936533</v>
+        <v>-42.29262497964094</v>
       </c>
       <c r="K343" t="n">
-        <v>209.6892019399452</v>
+        <v>-36.38399103877554</v>
       </c>
       <c r="L343" t="n">
-        <v>210.8463358883722</v>
+        <v>-36.58476986200884</v>
       </c>
       <c r="M343" t="n">
-        <v>186.3812181216304</v>
+        <v>-32.33973188507641</v>
       </c>
       <c r="N343" t="n">
-        <v>386.2347814999464</v>
+        <v>-67.01710292636899</v>
       </c>
       <c r="O343" t="n">
-        <v>154.477382115001</v>
+        <v>-26.80397290164426</v>
       </c>
       <c r="P343" t="n">
-        <v>131.8306176957874</v>
+        <v>-22.87444450407844</v>
       </c>
       <c r="Q343" t="n">
-        <v>103.5634883842142</v>
+        <v>-17.96970467937949</v>
       </c>
       <c r="R343" t="n">
-        <v>70.25456115449484</v>
+        <v>-12.19014283916405</v>
       </c>
       <c r="S343" t="n">
-        <v>57.36078287202284</v>
+        <v>-9.952893094564532</v>
       </c>
       <c r="T343" t="n">
-        <v>73.80861542466342</v>
+        <v>-12.80682065338059</v>
       </c>
       <c r="U343" t="n">
         <v>0</v>
@@ -25841,10 +25841,10 @@
         <v>0.09172757153364779</v>
       </c>
       <c r="W343" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X343" t="n">
-        <v>4.121673538826083</v>
+        <v>4.500000000000001</v>
       </c>
     </row>
     <row r="344">
@@ -25855,58 +25855,58 @@
         <v>30002112</v>
       </c>
       <c r="C344" t="n">
-        <v>1226.341091084506</v>
+        <v>-194.897660495632</v>
       </c>
       <c r="D344" t="n">
-        <v>5054.577624698114</v>
+        <v>-877.0394722303438</v>
       </c>
       <c r="E344" t="n">
-        <v>546.5209331228913</v>
+        <v>-94.8289780746147</v>
       </c>
       <c r="F344" t="n">
-        <v>560.3150576343368</v>
+        <v>-97.22245040399071</v>
       </c>
       <c r="G344" t="n">
-        <v>539.9088734397193</v>
+        <v>-93.68169381755851</v>
       </c>
       <c r="H344" t="n">
-        <v>470.2542447083702</v>
+        <v>-81.5956475923625</v>
       </c>
       <c r="I344" t="n">
-        <v>415.9897548947498</v>
+        <v>-72.18000437928018</v>
       </c>
       <c r="J344" t="n">
-        <v>336.1890345806021</v>
+        <v>-58.33347024239443</v>
       </c>
       <c r="K344" t="n">
-        <v>289.2206106242752</v>
+        <v>-50.18379586468452</v>
       </c>
       <c r="L344" t="n">
-        <v>290.8166250305582</v>
+        <v>-50.46072654742225</v>
       </c>
       <c r="M344" t="n">
-        <v>257.0723204405757</v>
+        <v>-44.60562068382483</v>
       </c>
       <c r="N344" t="n">
-        <v>532.7268086114459</v>
+        <v>-92.43550574523879</v>
       </c>
       <c r="O344" t="n">
-        <v>213.0679232387743</v>
+        <v>-36.97024614548497</v>
       </c>
       <c r="P344" t="n">
-        <v>181.8316412872365</v>
+        <v>-31.55031706904683</v>
       </c>
       <c r="Q344" t="n">
-        <v>142.8432893623244</v>
+        <v>-24.78529610502551</v>
       </c>
       <c r="R344" t="n">
-        <v>96.90087466717929</v>
+        <v>-16.81364859478984</v>
       </c>
       <c r="S344" t="n">
-        <v>79.11671414002639</v>
+        <v>-13.72784955856959</v>
       </c>
       <c r="T344" t="n">
-        <v>101.8029189150484</v>
+        <v>-17.66422140605569</v>
       </c>
       <c r="U344" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0.1265182184137528</v>
       </c>
       <c r="W344" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X344" t="n">
-        <v>4.121673538826083</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="345">
@@ -25929,58 +25929,58 @@
         <v>30002112</v>
       </c>
       <c r="C345" t="n">
-        <v>241.771036604255</v>
+        <v>-38.42373851152809</v>
       </c>
       <c r="D345" t="n">
-        <v>996.5012840263103</v>
+        <v>-172.9068233018764</v>
       </c>
       <c r="E345" t="n">
-        <v>107.7456618616566</v>
+        <v>-18.69536990638268</v>
       </c>
       <c r="F345" t="n">
-        <v>110.465149780985</v>
+        <v>-19.16723885896348</v>
       </c>
       <c r="G345" t="n">
-        <v>106.4421056689207</v>
+        <v>-18.46918478861669</v>
       </c>
       <c r="H345" t="n">
-        <v>92.70981543165071</v>
+        <v>-16.08644156525419</v>
       </c>
       <c r="I345" t="n">
-        <v>82.0116646085075</v>
+        <v>-14.2301637022091</v>
       </c>
       <c r="J345" t="n">
-        <v>66.27908986859103</v>
+        <v>-11.50034331537809</v>
       </c>
       <c r="K345" t="n">
-        <v>57.01934587881161</v>
+        <v>-9.893649030557546</v>
       </c>
       <c r="L345" t="n">
-        <v>57.33399737360994</v>
+        <v>-9.948245438294169</v>
       </c>
       <c r="M345" t="n">
-        <v>50.6813657693024</v>
+        <v>-8.793921389005625</v>
       </c>
       <c r="N345" t="n">
-        <v>105.0261739423282</v>
+        <v>-18.2235009538019</v>
       </c>
       <c r="O345" t="n">
-        <v>42.00597455557702</v>
+        <v>-7.288620432838808</v>
       </c>
       <c r="P345" t="n">
-        <v>35.84779530023828</v>
+        <v>-6.220090738564954</v>
       </c>
       <c r="Q345" t="n">
-        <v>28.16130878445052</v>
+        <v>-4.886378492427516</v>
       </c>
       <c r="R345" t="n">
-        <v>19.10384075561287</v>
+        <v>-3.314781898294802</v>
       </c>
       <c r="S345" t="n">
-        <v>15.59772409928863</v>
+        <v>-2.706421926372462</v>
       </c>
       <c r="T345" t="n">
-        <v>20.07027034677918</v>
+        <v>-3.482470864914423</v>
       </c>
       <c r="U345" t="n">
         <v>0</v>
@@ -25989,10 +25989,10 @@
         <v>0.02494284912867585</v>
       </c>
       <c r="W345" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X345" t="n">
-        <v>4.121673538826083</v>
+        <v>4.500000000000001</v>
       </c>
     </row>
     <row r="346">

--- a/create_forecast_basic/current/Intermediates/taz_with_pop_info.xlsx
+++ b/create_forecast_basic/current/Intermediates/taz_with_pop_info.xlsx
@@ -2561,61 +2561,61 @@
         <v>30002412</v>
       </c>
       <c r="C29" t="n">
-        <v>-111.3268887701272</v>
+        <v>84.26458073098235</v>
       </c>
       <c r="D29" t="n">
-        <v>-500.9709994655723</v>
+        <v>412.2631631368552</v>
       </c>
       <c r="E29" t="n">
-        <v>-52.54221191678091</v>
+        <v>43.23846790757729</v>
       </c>
       <c r="F29" t="n">
-        <v>-45.34139672939077</v>
+        <v>37.3127140226533</v>
       </c>
       <c r="G29" t="n">
-        <v>-53.09612077734941</v>
+        <v>43.69429512949453</v>
       </c>
       <c r="H29" t="n">
-        <v>-44.86661770604636</v>
+        <v>36.92200497529568</v>
       </c>
       <c r="I29" t="n">
-        <v>-42.49272258932433</v>
+        <v>34.96845973850755</v>
       </c>
       <c r="J29" t="n">
-        <v>-32.60149293631587</v>
+        <v>26.828687918557</v>
       </c>
       <c r="K29" t="n">
-        <v>-27.61631319119961</v>
+        <v>22.72624292130192</v>
       </c>
       <c r="L29" t="n">
-        <v>-27.61631319119961</v>
+        <v>22.72624292130192</v>
       </c>
       <c r="M29" t="n">
-        <v>-24.84676888835725</v>
+        <v>20.44710681171577</v>
       </c>
       <c r="N29" t="n">
-        <v>-52.46308207955687</v>
+        <v>43.17334973301771</v>
       </c>
       <c r="O29" t="n">
-        <v>-23.02678263220369</v>
+        <v>18.94938879684487</v>
       </c>
       <c r="P29" t="n">
-        <v>-22.31461409718708</v>
+        <v>18.36332522580843</v>
       </c>
       <c r="Q29" t="n">
-        <v>-16.06335695648573</v>
+        <v>13.21898943559968</v>
       </c>
       <c r="R29" t="n">
-        <v>-10.99904737414541</v>
+        <v>9.051426263785007</v>
       </c>
       <c r="S29" t="n">
-        <v>-8.941671606319646</v>
+        <v>7.358353725235295</v>
       </c>
       <c r="T29" t="n">
-        <v>-16.1424867937098</v>
+        <v>13.28410761015929</v>
       </c>
       <c r="U29" t="n">
-        <v>-1.001941998931145</v>
+        <v>0.8245263262737105</v>
       </c>
       <c r="V29" t="n">
         <v>0.07226807952914438</v>
@@ -2624,7 +2624,7 @@
         <v>0.002</v>
       </c>
       <c r="X29" t="n">
-        <v>4.5</v>
+        <v>4.892484595075835</v>
       </c>
     </row>
     <row r="30">
@@ -2635,61 +2635,61 @@
         <v>30002412</v>
       </c>
       <c r="C30" t="n">
-        <v>-303.2131107156309</v>
+        <v>229.505431516609</v>
       </c>
       <c r="D30" t="n">
-        <v>-1364.458998220339</v>
+        <v>1122.851788181242</v>
       </c>
       <c r="E30" t="n">
-        <v>-143.1054769891494</v>
+        <v>117.7655326729338</v>
       </c>
       <c r="F30" t="n">
-        <v>-123.4931299921425</v>
+        <v>101.6259792493842</v>
       </c>
       <c r="G30" t="n">
-        <v>-144.6141190658423</v>
+        <v>119.0070367824377</v>
       </c>
       <c r="H30" t="n">
-        <v>-122.2000082121201</v>
+        <v>100.5618328698095</v>
       </c>
       <c r="I30" t="n">
-        <v>-115.7343993120079</v>
+        <v>95.24110097193598</v>
       </c>
       <c r="J30" t="n">
-        <v>-88.79436222820718</v>
+        <v>73.07138473079631</v>
       </c>
       <c r="K30" t="n">
-        <v>-75.21658353797162</v>
+        <v>61.89784774526193</v>
       </c>
       <c r="L30" t="n">
-        <v>-75.21658353797162</v>
+        <v>61.89784774526193</v>
       </c>
       <c r="M30" t="n">
-        <v>-67.67337315450742</v>
+        <v>55.69032719774283</v>
       </c>
       <c r="N30" t="n">
-        <v>-142.889956692479</v>
+        <v>117.5881749430048</v>
       </c>
       <c r="O30" t="n">
-        <v>-62.71640633108808</v>
+        <v>51.61109940937313</v>
       </c>
       <c r="P30" t="n">
-        <v>-60.77672366105442</v>
+        <v>50.01487984001106</v>
       </c>
       <c r="Q30" t="n">
-        <v>-43.75062022409237</v>
+        <v>36.0036191756108</v>
       </c>
       <c r="R30" t="n">
-        <v>-29.95732123718641</v>
+        <v>24.6527244601473</v>
       </c>
       <c r="S30" t="n">
-        <v>-24.35379352375586</v>
+        <v>20.04142348199026</v>
       </c>
       <c r="T30" t="n">
-        <v>-43.96614052076278</v>
+        <v>36.18097690553993</v>
       </c>
       <c r="U30" t="n">
-        <v>-2.728917996440678</v>
+        <v>2.245703576362483</v>
       </c>
       <c r="V30" t="n">
         <v>0.1968314163950334</v>
@@ -2698,7 +2698,7 @@
         <v>0.002</v>
       </c>
       <c r="X30" t="n">
-        <v>4.5</v>
+        <v>4.892484595075836</v>
       </c>
     </row>
     <row r="31">
@@ -2709,61 +2709,61 @@
         <v>30002412</v>
       </c>
       <c r="C31" t="n">
-        <v>-365.1473949353207</v>
+        <v>276.3841914487384</v>
       </c>
       <c r="D31" t="n">
-        <v>-1643.163277208944</v>
+        <v>1352.205398985443</v>
       </c>
       <c r="E31" t="n">
-        <v>-172.3361895540575</v>
+        <v>141.8203103658717</v>
       </c>
       <c r="F31" t="n">
-        <v>-148.717826226619</v>
+        <v>122.3840931319947</v>
       </c>
       <c r="G31" t="n">
-        <v>-174.1529867330913</v>
+        <v>143.3154039992469</v>
       </c>
       <c r="H31" t="n">
-        <v>-147.1605715017329</v>
+        <v>121.1025843033875</v>
       </c>
       <c r="I31" t="n">
-        <v>-139.3742978773026</v>
+        <v>114.6950401603511</v>
       </c>
       <c r="J31" t="n">
-        <v>-106.9314911088429</v>
+        <v>87.9969395643662</v>
       </c>
       <c r="K31" t="n">
-        <v>-90.58031649753929</v>
+        <v>74.54109686398982</v>
       </c>
       <c r="L31" t="n">
-        <v>-90.58031649753929</v>
+        <v>74.54109686398982</v>
       </c>
       <c r="M31" t="n">
-        <v>-81.49633060237061</v>
+        <v>67.06562869711406</v>
       </c>
       <c r="N31" t="n">
-        <v>-172.0766470999099</v>
+        <v>141.6067255611039</v>
       </c>
       <c r="O31" t="n">
-        <v>-75.52685415697403</v>
+        <v>62.15317818745283</v>
       </c>
       <c r="P31" t="n">
-        <v>-73.19097206964493</v>
+        <v>60.23091494454192</v>
       </c>
       <c r="Q31" t="n">
-        <v>-52.68711819197843</v>
+        <v>43.35771536787946</v>
       </c>
       <c r="R31" t="n">
-        <v>-36.07640112652712</v>
+        <v>29.6882878627352</v>
       </c>
       <c r="S31" t="n">
-        <v>-29.32829731868751</v>
+        <v>24.13508293877035</v>
       </c>
       <c r="T31" t="n">
-        <v>-52.94666064612613</v>
+        <v>43.57130017264735</v>
       </c>
       <c r="U31" t="n">
-        <v>-3.286326554417887</v>
+        <v>2.704410797970886</v>
       </c>
       <c r="V31" t="n">
         <v>0.2370361847759334</v>
@@ -2772,7 +2772,7 @@
         <v>0.002</v>
       </c>
       <c r="X31" t="n">
-        <v>4.500000000000001</v>
+        <v>4.892484595075835</v>
       </c>
     </row>
     <row r="32">
@@ -2783,61 +2783,61 @@
         <v>30002412</v>
       </c>
       <c r="C32" t="n">
-        <v>-335.6302071248606</v>
+        <v>254.0422982845282</v>
       </c>
       <c r="D32" t="n">
-        <v>-1510.335932061873</v>
+        <v>1242.898030854715</v>
       </c>
       <c r="E32" t="n">
-        <v>-158.4051585672221</v>
+        <v>130.3560721035429</v>
       </c>
       <c r="F32" t="n">
-        <v>-136.6960178599674</v>
+        <v>112.4910080050152</v>
       </c>
       <c r="G32" t="n">
-        <v>-160.0750924677803</v>
+        <v>131.7303078034298</v>
       </c>
       <c r="H32" t="n">
-        <v>-135.2646459452033</v>
+        <v>111.3130916908266</v>
       </c>
       <c r="I32" t="n">
-        <v>-128.107786371383</v>
+        <v>105.4235101198834</v>
       </c>
       <c r="J32" t="n">
-        <v>-98.28753814713183</v>
+        <v>80.88358690762003</v>
       </c>
       <c r="K32" t="n">
-        <v>-83.25813304210924</v>
+        <v>68.5154656086393</v>
       </c>
       <c r="L32" t="n">
-        <v>-83.25813304210924</v>
+        <v>68.5154656086393</v>
       </c>
       <c r="M32" t="n">
-        <v>-74.90846353931893</v>
+        <v>61.64428710920557</v>
       </c>
       <c r="N32" t="n">
-        <v>-158.1665965814282</v>
+        <v>130.1597527178449</v>
       </c>
       <c r="O32" t="n">
-        <v>-69.42153786605671</v>
+        <v>57.1289412381491</v>
       </c>
       <c r="P32" t="n">
-        <v>-67.27447999391062</v>
+        <v>55.36206676686614</v>
       </c>
       <c r="Q32" t="n">
-        <v>-48.42808311618388</v>
+        <v>39.8528352967157</v>
       </c>
       <c r="R32" t="n">
-        <v>-33.16011602536729</v>
+        <v>27.28839461203686</v>
       </c>
       <c r="S32" t="n">
-        <v>-26.95750439472306</v>
+        <v>22.18409058388609</v>
       </c>
       <c r="T32" t="n">
-        <v>-48.6666451019779</v>
+        <v>40.04915468241381</v>
       </c>
       <c r="U32" t="n">
-        <v>-3.020671864123746</v>
+        <v>2.48579606170943</v>
       </c>
       <c r="V32" t="n">
         <v>0.2178750414104016</v>
@@ -2846,7 +2846,7 @@
         <v>0.002</v>
       </c>
       <c r="X32" t="n">
-        <v>4.500000000000001</v>
+        <v>4.892484595075836</v>
       </c>
     </row>
     <row r="33">
@@ -2857,61 +2857,61 @@
         <v>30002412</v>
       </c>
       <c r="C33" t="n">
-        <v>-153.4773760376515</v>
+        <v>116.1687610816831</v>
       </c>
       <c r="D33" t="n">
-        <v>-690.6481921694316</v>
+        <v>568.35387402118</v>
       </c>
       <c r="E33" t="n">
-        <v>-72.43569729908425</v>
+        <v>59.60937803665509</v>
       </c>
       <c r="F33" t="n">
-        <v>-62.50851589213148</v>
+        <v>51.44002050452316</v>
       </c>
       <c r="G33" t="n">
-        <v>-73.19932663808066</v>
+        <v>60.23779015451142</v>
       </c>
       <c r="H33" t="n">
-        <v>-61.85397645870601</v>
+        <v>50.90138154636062</v>
       </c>
       <c r="I33" t="n">
-        <v>-58.5812792915787</v>
+        <v>48.20818675554789</v>
       </c>
       <c r="J33" t="n">
-        <v>-44.94504109521495</v>
+        <v>36.98654179382817</v>
       </c>
       <c r="K33" t="n">
-        <v>-38.07237704424761</v>
+        <v>31.33083273312144</v>
       </c>
       <c r="L33" t="n">
-        <v>-38.07237704424761</v>
+        <v>31.33083273312144</v>
       </c>
       <c r="M33" t="n">
-        <v>-34.25423034926576</v>
+        <v>28.18877214383992</v>
       </c>
       <c r="N33" t="n">
-        <v>-72.32660739351338</v>
+        <v>59.51960487696137</v>
       </c>
       <c r="O33" t="n">
-        <v>-31.74516252113483</v>
+        <v>26.12398947088349</v>
       </c>
       <c r="P33" t="n">
-        <v>-30.76335337099664</v>
+        <v>25.31603103363967</v>
       </c>
       <c r="Q33" t="n">
-        <v>-22.14525083089474</v>
+        <v>18.22395141783281</v>
       </c>
       <c r="R33" t="n">
-        <v>-15.1634968743565</v>
+        <v>12.47846919743232</v>
       </c>
       <c r="S33" t="n">
-        <v>-12.32715932951284</v>
+        <v>10.14436704539462</v>
       </c>
       <c r="T33" t="n">
-        <v>-22.25434073646565</v>
+        <v>18.31372457752657</v>
       </c>
       <c r="U33" t="n">
-        <v>-1.381296384338863</v>
+        <v>1.13670774804236</v>
       </c>
       <c r="V33" t="n">
         <v>0.09963015530161504</v>
@@ -2920,7 +2920,7 @@
         <v>0.002</v>
       </c>
       <c r="X33" t="n">
-        <v>4.5</v>
+        <v>4.892484595075835</v>
       </c>
     </row>
     <row r="34">
@@ -2931,61 +2931,61 @@
         <v>30002412</v>
       </c>
       <c r="C34" t="n">
-        <v>-104.7540728842377</v>
+        <v>79.28954207711278</v>
       </c>
       <c r="D34" t="n">
-        <v>-471.3933279790695</v>
+        <v>387.9228631628915</v>
       </c>
       <c r="E34" t="n">
-        <v>-49.44008368000348</v>
+        <v>40.68563909969356</v>
       </c>
       <c r="F34" t="n">
-        <v>-42.66440956120784</v>
+        <v>35.109745789344</v>
       </c>
       <c r="G34" t="n">
-        <v>-49.96128938144933</v>
+        <v>41.11455396972047</v>
       </c>
       <c r="H34" t="n">
-        <v>-42.21766181711142</v>
+        <v>34.74210447217809</v>
       </c>
       <c r="I34" t="n">
-        <v>-39.98392309662933</v>
+        <v>32.90389788634857</v>
       </c>
       <c r="J34" t="n">
-        <v>-30.67667842795398</v>
+        <v>25.24470377872553</v>
       </c>
       <c r="K34" t="n">
-        <v>-25.9858271149416</v>
+        <v>21.38446994848352</v>
       </c>
       <c r="L34" t="n">
-        <v>-25.9858271149416</v>
+        <v>21.38446994848352</v>
       </c>
       <c r="M34" t="n">
-        <v>-23.3797986077125</v>
+        <v>19.23989559834907</v>
       </c>
       <c r="N34" t="n">
-        <v>-49.36562572265411</v>
+        <v>40.6243655468326</v>
       </c>
       <c r="O34" t="n">
-        <v>-21.66726558867623</v>
+        <v>17.83060388254643</v>
       </c>
       <c r="P34" t="n">
-        <v>-20.9971439725316</v>
+        <v>17.27914190679757</v>
       </c>
       <c r="Q34" t="n">
-        <v>-15.11496534192878</v>
+        <v>12.43853123077981</v>
       </c>
       <c r="R34" t="n">
-        <v>-10.349656071567</v>
+        <v>8.517023847676818</v>
       </c>
       <c r="S34" t="n">
-        <v>-8.413749180482524</v>
+        <v>6.923911473291227</v>
       </c>
       <c r="T34" t="n">
-        <v>-15.18942329927818</v>
+        <v>12.4998047836408</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.942786655958139</v>
+        <v>0.7758457263257832</v>
       </c>
       <c r="V34" t="n">
         <v>0.06800132253611731</v>
@@ -2994,7 +2994,7 @@
         <v>0.002</v>
       </c>
       <c r="X34" t="n">
-        <v>4.500000000000001</v>
+        <v>4.892484595075835</v>
       </c>
     </row>
     <row r="35">
@@ -3005,61 +3005,61 @@
         <v>30002412</v>
       </c>
       <c r="C35" t="n">
-        <v>-80.19139241542436</v>
+        <v>60.69777153363354</v>
       </c>
       <c r="D35" t="n">
-        <v>-360.8612658694097</v>
+        <v>296.9629121837347</v>
       </c>
       <c r="E35" t="n">
-        <v>-37.84739860010866</v>
+        <v>31.14569162691514</v>
       </c>
       <c r="F35" t="n">
-        <v>-32.66048102087692</v>
+        <v>26.87723087684093</v>
       </c>
       <c r="G35" t="n">
-        <v>-38.24639226004959</v>
+        <v>31.47403476153625</v>
       </c>
       <c r="H35" t="n">
-        <v>-32.31848645521328</v>
+        <v>26.59579390430857</v>
       </c>
       <c r="I35" t="n">
-        <v>-30.60851362689512</v>
+        <v>25.18860904164674</v>
       </c>
       <c r="J35" t="n">
-        <v>-23.48362684223611</v>
+        <v>19.32533878055578</v>
       </c>
       <c r="K35" t="n">
-        <v>-19.89268390276796</v>
+        <v>16.37025056896594</v>
       </c>
       <c r="L35" t="n">
-        <v>-19.89268390276796</v>
+        <v>16.37025056896594</v>
       </c>
       <c r="M35" t="n">
-        <v>-17.89771560306344</v>
+        <v>14.72853489586048</v>
       </c>
       <c r="N35" t="n">
-        <v>-37.79039950583141</v>
+        <v>31.09878546482643</v>
       </c>
       <c r="O35" t="n">
-        <v>-16.58673643468618</v>
+        <v>13.64969316781974</v>
       </c>
       <c r="P35" t="n">
-        <v>-16.07374458619073</v>
+        <v>13.22753770902119</v>
       </c>
       <c r="Q35" t="n">
-        <v>-11.57081613828623</v>
+        <v>9.521950904011709</v>
       </c>
       <c r="R35" t="n">
-        <v>-7.922874104540823</v>
+        <v>6.519956530333141</v>
       </c>
       <c r="S35" t="n">
-        <v>-6.440897653331749</v>
+        <v>5.300396316026224</v>
       </c>
       <c r="T35" t="n">
-        <v>-11.62781523256351</v>
+        <v>9.568857066100437</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.7217225317388194</v>
+        <v>0.5939258243674693</v>
       </c>
       <c r="V35" t="n">
         <v>0.05205640783330492</v>
@@ -3068,7 +3068,7 @@
         <v>0.002</v>
       </c>
       <c r="X35" t="n">
-        <v>4.500000000000001</v>
+        <v>4.892484595075836</v>
       </c>
     </row>
     <row r="36">
@@ -3079,61 +3079,61 @@
         <v>30002412</v>
       </c>
       <c r="C36" t="n">
-        <v>-86.73066822785808</v>
+        <v>65.64742332671266</v>
       </c>
       <c r="D36" t="n">
-        <v>-390.2880070253614</v>
+        <v>321.1790073323638</v>
       </c>
       <c r="E36" t="n">
-        <v>-40.93369715129361</v>
+        <v>33.68549374011838</v>
       </c>
       <c r="F36" t="n">
-        <v>-35.32380793326995</v>
+        <v>29.06895770043349</v>
       </c>
       <c r="G36" t="n">
-        <v>-41.36522709114161</v>
+        <v>34.04061189701724</v>
       </c>
       <c r="H36" t="n">
-        <v>-34.95392512768598</v>
+        <v>28.76457070880592</v>
       </c>
       <c r="I36" t="n">
-        <v>-33.10451109976608</v>
+        <v>27.24263575066804</v>
       </c>
       <c r="J36" t="n">
-        <v>-25.39861931676653</v>
+        <v>20.9012400917602</v>
       </c>
       <c r="K36" t="n">
-        <v>-21.51484985813475</v>
+        <v>17.70517667967066</v>
       </c>
       <c r="L36" t="n">
-        <v>-21.51484985813475</v>
+        <v>17.70517667967066</v>
       </c>
       <c r="M36" t="n">
-        <v>-19.35720015889488</v>
+        <v>15.92958589517647</v>
       </c>
       <c r="N36" t="n">
-        <v>-40.87205001702964</v>
+        <v>33.63476257484714</v>
       </c>
       <c r="O36" t="n">
-        <v>-17.93931607082296</v>
+        <v>14.76276909393743</v>
       </c>
       <c r="P36" t="n">
-        <v>-17.38449186244699</v>
+        <v>14.30618860649606</v>
       </c>
       <c r="Q36" t="n">
-        <v>-12.51436825559127</v>
+        <v>10.29842655006631</v>
       </c>
       <c r="R36" t="n">
-        <v>-8.568951662695504</v>
+        <v>7.051631972705507</v>
       </c>
       <c r="S36" t="n">
-        <v>-6.966126171831598</v>
+        <v>5.73262167565268</v>
       </c>
       <c r="T36" t="n">
-        <v>-12.57601538985527</v>
+        <v>10.34915771533758</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.7805760140507227</v>
+        <v>0.6423580146647275</v>
       </c>
       <c r="V36" t="n">
         <v>0.05630139221844997</v>
@@ -3142,7 +3142,7 @@
         <v>0.002</v>
       </c>
       <c r="X36" t="n">
-        <v>4.5</v>
+        <v>4.892484595075836</v>
       </c>
     </row>
     <row r="37">
@@ -3153,58 +3153,58 @@
         <v>30002511</v>
       </c>
       <c r="C37" t="n">
-        <v>-1540.471111111111</v>
+        <v>4375.967911874831</v>
       </c>
       <c r="D37" t="n">
-        <v>-6932.12</v>
+        <v>19691.85560343674</v>
       </c>
       <c r="E37" t="n">
-        <v>-652.8005381165918</v>
+        <v>1854.389989561307</v>
       </c>
       <c r="F37" t="n">
-        <v>-661.0477752356547</v>
+        <v>1877.817657067913</v>
       </c>
       <c r="G37" t="n">
-        <v>-657.2413581037796</v>
+        <v>1867.004887449479</v>
       </c>
       <c r="H37" t="n">
-        <v>-673.7358323419054</v>
+        <v>1913.86022246269</v>
       </c>
       <c r="I37" t="n">
-        <v>-579.2098069003385</v>
+        <v>1645.343110271597</v>
       </c>
       <c r="J37" t="n">
-        <v>-448.840020133614</v>
+        <v>1275.005750840257</v>
       </c>
       <c r="K37" t="n">
-        <v>-393.3297702937677</v>
+        <v>1117.319527238105</v>
       </c>
       <c r="L37" t="n">
-        <v>-390.7921588725176</v>
+        <v>1110.11101415915</v>
       </c>
       <c r="M37" t="n">
-        <v>-384.1309288917361</v>
+        <v>1091.188667326892</v>
       </c>
       <c r="N37" t="n">
-        <v>-669.9294152100302</v>
+        <v>1903.047452844257</v>
       </c>
       <c r="O37" t="n">
-        <v>-341.6259375857966</v>
+        <v>970.4460732543868</v>
       </c>
       <c r="P37" t="n">
-        <v>-308.6369891095451</v>
+        <v>876.7354032279649</v>
       </c>
       <c r="Q37" t="n">
-        <v>-240.1214807357921</v>
+        <v>682.105550096166</v>
       </c>
       <c r="R37" t="n">
-        <v>-189.6864537384461</v>
+        <v>538.8363526519252</v>
       </c>
       <c r="S37" t="n">
-        <v>-155.4286995515695</v>
+        <v>441.5214260860255</v>
       </c>
       <c r="T37" t="n">
-        <v>-185.5628351789146</v>
+        <v>527.1225188986223</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="W37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>4.5</v>
@@ -3301,61 +3301,61 @@
         <v>30002513</v>
       </c>
       <c r="C39" t="n">
-        <v>-1540.471111111111</v>
+        <v>433.5119671094083</v>
       </c>
       <c r="D39" t="n">
-        <v>-6932.12</v>
+        <v>1950.803851992338</v>
       </c>
       <c r="E39" t="n">
-        <v>-669.1977274826789</v>
+        <v>188.322404187713</v>
       </c>
       <c r="F39" t="n">
-        <v>-630.7748914549653</v>
+        <v>177.5096345692797</v>
       </c>
       <c r="G39" t="n">
-        <v>-515.5063833718245</v>
+        <v>145.0713257139799</v>
       </c>
       <c r="H39" t="n">
-        <v>-521.9101893764433</v>
+        <v>146.8734539837187</v>
       </c>
       <c r="I39" t="n">
-        <v>-505.9006743648961</v>
+        <v>142.3681333093715</v>
       </c>
       <c r="J39" t="n">
-        <v>-525.1120923787529</v>
+        <v>147.7745181185882</v>
       </c>
       <c r="K39" t="n">
-        <v>-323.3922032332564</v>
+        <v>91.00747762181348</v>
       </c>
       <c r="L39" t="n">
-        <v>-384.2283602771363</v>
+        <v>108.1276961843328</v>
       </c>
       <c r="M39" t="n">
-        <v>-349.0074272517321</v>
+        <v>98.21599070076897</v>
       </c>
       <c r="N39" t="n">
-        <v>-678.8034364896073</v>
+        <v>191.0255965923213</v>
       </c>
       <c r="O39" t="n">
-        <v>-313.7864942263279</v>
+        <v>88.30428521720512</v>
       </c>
       <c r="P39" t="n">
-        <v>-313.7864942263279</v>
+        <v>88.30428521720512</v>
       </c>
       <c r="Q39" t="n">
-        <v>-291.3731732101616</v>
+        <v>81.99683627311904</v>
       </c>
       <c r="R39" t="n">
-        <v>-313.7864942263279</v>
+        <v>88.30428521720512</v>
       </c>
       <c r="S39" t="n">
-        <v>-249.7484341801386</v>
+        <v>70.28300251981634</v>
       </c>
       <c r="T39" t="n">
-        <v>-345.8055242494226</v>
+        <v>97.31492656589954</v>
       </c>
       <c r="U39" t="n">
-        <v>-2349.98868</v>
+        <v>661.3225058254025</v>
       </c>
       <c r="V39" t="n">
         <v>1</v>
@@ -3364,7 +3364,7 @@
         <v>0.339</v>
       </c>
       <c r="X39" t="n">
-        <v>4.5</v>
+        <v>4.500000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3375,61 +3375,61 @@
         <v>30002514</v>
       </c>
       <c r="C40" t="n">
-        <v>-1540.471111111111</v>
+        <v>775.5158654109646</v>
       </c>
       <c r="D40" t="n">
-        <v>-6932.12</v>
+        <v>3489.821394349341</v>
       </c>
       <c r="E40" t="n">
-        <v>-406.2977640072296</v>
+        <v>204.5415586153629</v>
       </c>
       <c r="F40" t="n">
-        <v>-567.3849832171444</v>
+        <v>285.6373307536125</v>
       </c>
       <c r="G40" t="n">
-        <v>-551.2762612961528</v>
+        <v>277.5277535397875</v>
       </c>
       <c r="H40" t="n">
-        <v>-572.7545571908081</v>
+        <v>288.3405231582208</v>
       </c>
       <c r="I40" t="n">
-        <v>-459.9935037438678</v>
+        <v>231.5734826614461</v>
       </c>
       <c r="J40" t="n">
-        <v>-458.2036457526465</v>
+        <v>230.6724185265766</v>
       </c>
       <c r="K40" t="n">
-        <v>-447.4644978053188</v>
+        <v>225.26603371736</v>
       </c>
       <c r="L40" t="n">
-        <v>-486.8413736121869</v>
+        <v>245.0894446844877</v>
       </c>
       <c r="M40" t="n">
-        <v>-438.5152078492125</v>
+        <v>220.7607130430128</v>
       </c>
       <c r="N40" t="n">
-        <v>-517.2689594629486</v>
+        <v>260.4075349772681</v>
       </c>
       <c r="O40" t="n">
-        <v>-384.8194681125743</v>
+        <v>193.7287889969296</v>
       </c>
       <c r="P40" t="n">
-        <v>-352.6020242705912</v>
+        <v>177.5096345692797</v>
       </c>
       <c r="Q40" t="n">
-        <v>-293.5367105602891</v>
+        <v>147.7745181185881</v>
       </c>
       <c r="R40" t="n">
-        <v>-254.1598347534211</v>
+        <v>127.9511071514604</v>
       </c>
       <c r="S40" t="n">
-        <v>-264.8989827007487</v>
+        <v>133.3574919606771</v>
       </c>
       <c r="T40" t="n">
-        <v>-476.1022256648593</v>
+        <v>239.6830598752711</v>
       </c>
       <c r="U40" t="n">
-        <v>-13.86424</v>
+        <v>6.979642788698682</v>
       </c>
       <c r="V40" t="n">
         <v>1</v>
@@ -3438,7 +3438,7 @@
         <v>0.002</v>
       </c>
       <c r="X40" t="n">
-        <v>4.5</v>
+        <v>4.500000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -6475,58 +6475,58 @@
         <v>30002311</v>
       </c>
       <c r="C82" t="n">
-        <v>-648.2190373626498</v>
+        <v>1697.29419564303</v>
       </c>
       <c r="D82" t="n">
-        <v>-2592.876149450599</v>
+        <v>6789.176782572118</v>
       </c>
       <c r="E82" t="n">
-        <v>-325.0105379945772</v>
+        <v>851.0063232721704</v>
       </c>
       <c r="F82" t="n">
-        <v>-312.2675505642948</v>
+        <v>817.6401347557565</v>
       </c>
       <c r="G82" t="n">
-        <v>-305.4455471925273</v>
+        <v>799.7774277722216</v>
       </c>
       <c r="H82" t="n">
-        <v>-254.4735974713976</v>
+        <v>666.3126737065666</v>
       </c>
       <c r="I82" t="n">
-        <v>-213.7990113302941</v>
+        <v>559.8104962198316</v>
       </c>
       <c r="J82" t="n">
-        <v>-165.1439684146703</v>
+        <v>432.4123218844335</v>
       </c>
       <c r="K82" t="n">
-        <v>-146.8661480601238</v>
+        <v>384.55374845685</v>
       </c>
       <c r="L82" t="n">
-        <v>-134.5093117640924</v>
+        <v>352.1986565621458</v>
       </c>
       <c r="M82" t="n">
-        <v>-120.7365879758073</v>
+        <v>316.1362103878399</v>
       </c>
       <c r="N82" t="n">
-        <v>-310.5942289825406</v>
+        <v>813.2587160616821</v>
       </c>
       <c r="O82" t="n">
-        <v>-94.86446198099144</v>
+        <v>248.3927367333028</v>
       </c>
       <c r="P82" t="n">
-        <v>-75.81433935794297</v>
+        <v>198.5119700623004</v>
       </c>
       <c r="Q82" t="n">
-        <v>-52.13040312388269</v>
+        <v>136.4980439307838</v>
       </c>
       <c r="R82" t="n">
-        <v>-35.65462139584074</v>
+        <v>93.35792140451136</v>
       </c>
       <c r="S82" t="n">
-        <v>-22.78291692080799</v>
+        <v>59.65470068086105</v>
       </c>
       <c r="T82" t="n">
-        <v>-22.78291692080799</v>
+        <v>59.65470068086105</v>
       </c>
       <c r="U82" t="n">
         <v>0</v>
@@ -6535,10 +6535,10 @@
         <v>0.3740379782015602</v>
       </c>
       <c r="W82" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X82" t="n">
-        <v>4</v>
+        <v>3.999999999999999</v>
       </c>
     </row>
     <row r="83">
@@ -6549,58 +6549,58 @@
         <v>30002311</v>
       </c>
       <c r="C83" t="n">
-        <v>-251.0780711438911</v>
+        <v>657.4218408327309</v>
       </c>
       <c r="D83" t="n">
-        <v>-1004.312284575564</v>
+        <v>2629.687363330923</v>
       </c>
       <c r="E83" t="n">
-        <v>-125.8880320965697</v>
+        <v>329.624731553345</v>
       </c>
       <c r="F83" t="n">
-        <v>-120.9522241054567</v>
+        <v>316.7008311874911</v>
       </c>
       <c r="G83" t="n">
-        <v>-118.309821847588</v>
+        <v>309.7819754360742</v>
       </c>
       <c r="H83" t="n">
-        <v>-98.56658988313593</v>
+        <v>258.0863739726586</v>
       </c>
       <c r="I83" t="n">
-        <v>-82.81188962867415</v>
+        <v>216.834328360438</v>
       </c>
       <c r="J83" t="n">
-        <v>-63.96607729896986</v>
+        <v>167.4885269635412</v>
       </c>
       <c r="K83" t="n">
-        <v>-56.88643351373703</v>
+        <v>148.95121532767</v>
       </c>
       <c r="L83" t="n">
-        <v>-52.10019546174865</v>
+        <v>136.4189483062358</v>
       </c>
       <c r="M83" t="n">
-        <v>-46.76553429963658</v>
+        <v>122.4506923552624</v>
       </c>
       <c r="N83" t="n">
-        <v>-120.3040877025832</v>
+        <v>315.0037533616719</v>
       </c>
       <c r="O83" t="n">
-        <v>-36.74434837828588</v>
+        <v>96.21125827913475</v>
       </c>
       <c r="P83" t="n">
-        <v>-29.36556471480379</v>
+        <v>76.89067995442386</v>
       </c>
       <c r="Q83" t="n">
-        <v>-20.19194178182603</v>
+        <v>52.87050149667514</v>
       </c>
       <c r="R83" t="n">
-        <v>-13.81029104584151</v>
+        <v>36.16081213476299</v>
       </c>
       <c r="S83" t="n">
-        <v>-8.824626408353598</v>
+        <v>23.10636732076913</v>
       </c>
       <c r="T83" t="n">
-        <v>-8.824626408353598</v>
+        <v>23.10636732076913</v>
       </c>
       <c r="U83" t="n">
         <v>0</v>
@@ -6609,10 +6609,10 @@
         <v>0.1448780870174729</v>
       </c>
       <c r="W83" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X83" t="n">
-        <v>4</v>
+        <v>3.999999999999999</v>
       </c>
     </row>
     <row r="84">
@@ -6623,58 +6623,58 @@
         <v>30002311</v>
       </c>
       <c r="C84" t="n">
-        <v>-342.8060558034851</v>
+        <v>897.6020375980113</v>
       </c>
       <c r="D84" t="n">
-        <v>-1371.22422321394</v>
+        <v>3590.408150392045</v>
       </c>
       <c r="E84" t="n">
-        <v>-171.8795255964655</v>
+        <v>450.0486785017829</v>
       </c>
       <c r="F84" t="n">
-        <v>-165.1404867710991</v>
+        <v>432.403205562505</v>
       </c>
       <c r="G84" t="n">
-        <v>-161.5327185110544</v>
+        <v>422.9566392414773</v>
       </c>
       <c r="H84" t="n">
-        <v>-134.576563209589</v>
+        <v>352.3747474843661</v>
       </c>
       <c r="I84" t="n">
-        <v>-113.0660958478135</v>
+        <v>296.0518237589945</v>
       </c>
       <c r="J84" t="n">
-        <v>-87.33522033277828</v>
+        <v>228.6781998090247</v>
       </c>
       <c r="K84" t="n">
-        <v>-77.66912423982853</v>
+        <v>203.3685315526868</v>
       </c>
       <c r="L84" t="n">
-        <v>-71.13429871220055</v>
+        <v>186.2577699145992</v>
       </c>
       <c r="M84" t="n">
-        <v>-63.85069109286518</v>
+        <v>167.1864001721474</v>
       </c>
       <c r="N84" t="n">
-        <v>-164.2555624808995</v>
+        <v>430.0861232573474</v>
       </c>
       <c r="O84" t="n">
-        <v>-50.16840014439406</v>
+        <v>131.3607429924016</v>
       </c>
       <c r="P84" t="n">
-        <v>-40.09387745596759</v>
+        <v>104.9816521336832</v>
       </c>
       <c r="Q84" t="n">
-        <v>-27.5687951946806</v>
+        <v>72.18602566068201</v>
       </c>
       <c r="R84" t="n">
-        <v>-18.8556944911766</v>
+        <v>49.37167680989855</v>
       </c>
       <c r="S84" t="n">
-        <v>-12.04858456656411</v>
+        <v>31.54796677022398</v>
       </c>
       <c r="T84" t="n">
-        <v>-12.04858456656411</v>
+        <v>31.54796677022398</v>
       </c>
       <c r="U84" t="n">
         <v>0</v>
@@ -6683,7 +6683,7 @@
         <v>0.1978073407866483</v>
       </c>
       <c r="W84" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X84" t="n">
         <v>4</v>
@@ -6697,58 +6697,58 @@
         <v>30002311</v>
       </c>
       <c r="C85" t="n">
-        <v>-465.9065923239498</v>
+        <v>1219.928001622169</v>
       </c>
       <c r="D85" t="n">
-        <v>-1863.626369295799</v>
+        <v>4879.712006488675</v>
       </c>
       <c r="E85" t="n">
-        <v>-233.6009026246969</v>
+        <v>611.6596910436808</v>
       </c>
       <c r="F85" t="n">
-        <v>-224.4418969376295</v>
+        <v>587.6777863255326</v>
       </c>
       <c r="G85" t="n">
-        <v>-219.5385908627348</v>
+        <v>574.83898885016</v>
       </c>
       <c r="H85" t="n">
-        <v>-182.9025681144656</v>
+        <v>478.911369977567</v>
       </c>
       <c r="I85" t="n">
-        <v>-153.6677620830184</v>
+        <v>402.3630680489322</v>
       </c>
       <c r="J85" t="n">
-        <v>-118.6970130960341</v>
+        <v>310.7957954887297</v>
       </c>
       <c r="K85" t="n">
-        <v>-105.5598534236749</v>
+        <v>276.3975079132039</v>
       </c>
       <c r="L85" t="n">
-        <v>-96.67839336348841</v>
+        <v>253.142327580454</v>
       </c>
       <c r="M85" t="n">
-        <v>-86.77926600473887</v>
+        <v>227.2224911679099</v>
       </c>
       <c r="N85" t="n">
-        <v>-223.239199221146</v>
+        <v>584.5286473221394</v>
       </c>
       <c r="O85" t="n">
-        <v>-68.18370900372339</v>
+        <v>178.5319573462149</v>
       </c>
       <c r="P85" t="n">
-        <v>-54.49145807760257</v>
+        <v>142.6802209998923</v>
       </c>
       <c r="Q85" t="n">
-        <v>-37.46865962891178</v>
+        <v>98.10779202878841</v>
       </c>
       <c r="R85" t="n">
-        <v>-25.62671288199645</v>
+        <v>67.10088491845528</v>
       </c>
       <c r="S85" t="n">
-        <v>-16.37519198596885</v>
+        <v>42.87673873850753</v>
       </c>
       <c r="T85" t="n">
-        <v>-16.37519198596885</v>
+        <v>42.87673873850753</v>
       </c>
       <c r="U85" t="n">
         <v>0</v>
@@ -6757,10 +6757,10 @@
         <v>0.2688393116818231</v>
       </c>
       <c r="W85" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X85" t="n">
-        <v>4</v>
+        <v>3.999999999999999</v>
       </c>
     </row>
     <row r="86">
@@ -6771,58 +6771,58 @@
         <v>90005166</v>
       </c>
       <c r="C86" t="n">
-        <v>-704.1965804688737</v>
+        <v>3024.317110598469</v>
       </c>
       <c r="D86" t="n">
-        <v>-3156.37449042692</v>
+        <v>12217.06805287177</v>
       </c>
       <c r="E86" t="n">
-        <v>-354.2997158449337</v>
+        <v>1369.657746556014</v>
       </c>
       <c r="F86" t="n">
-        <v>-335.5267666905541</v>
+        <v>1296.861441316086</v>
       </c>
       <c r="G86" t="n">
-        <v>-345.5211705725575</v>
+        <v>1336.296139061481</v>
       </c>
       <c r="H86" t="n">
-        <v>-307.905607888488</v>
+        <v>1191.70318407824</v>
       </c>
       <c r="I86" t="n">
-        <v>-254.8438962768623</v>
+        <v>986.1769763748659</v>
       </c>
       <c r="J86" t="n">
-        <v>-210.8178195673538</v>
+        <v>816.3929650398387</v>
       </c>
       <c r="K86" t="n">
-        <v>-177.1048011101271</v>
+        <v>685.4332694006242</v>
       </c>
       <c r="L86" t="n">
-        <v>-185.7683913724327</v>
+        <v>719.9386245539077</v>
       </c>
       <c r="M86" t="n">
-        <v>-160.760437817307</v>
+        <v>622.8048381529361</v>
       </c>
       <c r="N86" t="n">
-        <v>-349.6808044291411</v>
+        <v>1352.309987279321</v>
       </c>
       <c r="O86" t="n">
-        <v>-130.4105089571908</v>
+        <v>505.3793008787213</v>
       </c>
       <c r="P86" t="n">
-        <v>-110.3784981302199</v>
+        <v>427.9728685563871</v>
       </c>
       <c r="Q86" t="n">
-        <v>-83.05831665813042</v>
+        <v>322.2892842673225</v>
       </c>
       <c r="R86" t="n">
-        <v>-55.40698904496798</v>
+        <v>214.9505852659591</v>
       </c>
       <c r="S86" t="n">
-        <v>-41.60559048272156</v>
+        <v>161.6074527695664</v>
       </c>
       <c r="T86" t="n">
-        <v>-53.28517558393195</v>
+        <v>207.2933893204997</v>
       </c>
       <c r="U86" t="n">
         <v>0</v>
@@ -6831,10 +6831,10 @@
         <v>0.4687927642680424</v>
       </c>
       <c r="W86" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X86" t="n">
-        <v>4.482234901403977</v>
+        <v>4.039612119396496</v>
       </c>
     </row>
     <row r="87">
@@ -6845,58 +6845,58 @@
         <v>30002312</v>
       </c>
       <c r="C87" t="n">
-        <v>-151.0712193441982</v>
+        <v>658.13564805357</v>
       </c>
       <c r="D87" t="n">
-        <v>-679.8204870488919</v>
+        <v>2659.189977058482</v>
       </c>
       <c r="E87" t="n">
-        <v>-76.01754357888947</v>
+        <v>297.3506886253212</v>
       </c>
       <c r="F87" t="n">
-        <v>-71.9512262403456</v>
+        <v>281.4448568415002</v>
       </c>
       <c r="G87" t="n">
-        <v>-74.23288208030635</v>
+        <v>290.3697957868665</v>
       </c>
       <c r="H87" t="n">
-        <v>-66.3035632701458</v>
+        <v>259.3534238084154</v>
       </c>
       <c r="I87" t="n">
-        <v>-54.85010276658058</v>
+        <v>214.5519976173195</v>
       </c>
       <c r="J87" t="n">
-        <v>-45.47498223604889</v>
+        <v>177.8802187823987</v>
       </c>
       <c r="K87" t="n">
-        <v>-38.13302037478913</v>
+        <v>149.1613558393885</v>
       </c>
       <c r="L87" t="n">
-        <v>-40.16617904406106</v>
+        <v>157.114271731299</v>
       </c>
       <c r="M87" t="n">
-        <v>-34.72183194078846</v>
+        <v>135.8181302874053</v>
       </c>
       <c r="N87" t="n">
-        <v>-75.11391750365755</v>
+        <v>293.8160593400278</v>
       </c>
       <c r="O87" t="n">
-        <v>-28.19313354723746</v>
+        <v>110.2804337011593</v>
       </c>
       <c r="P87" t="n">
-        <v>-23.90090968988561</v>
+        <v>93.49094459601484</v>
       </c>
       <c r="Q87" t="n">
-        <v>-18.0273402008778</v>
+        <v>70.51585424160663</v>
       </c>
       <c r="R87" t="n">
-        <v>-12.0182268005852</v>
+        <v>47.01056949440443</v>
       </c>
       <c r="S87" t="n">
-        <v>-9.058851404200503</v>
+        <v>35.43465858506801</v>
       </c>
       <c r="T87" t="n">
-        <v>-11.65677637049241</v>
+        <v>45.59671778028701</v>
       </c>
       <c r="U87" t="n">
         <v>0</v>
@@ -6905,10 +6905,10 @@
         <v>0.09806819371979883</v>
       </c>
       <c r="W87" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>4.500000000000001</v>
+        <v>4.040489198424385</v>
       </c>
     </row>
     <row r="88">
@@ -6919,58 +6919,58 @@
         <v>30002312</v>
       </c>
       <c r="C88" t="n">
-        <v>-116.4821408168843</v>
+        <v>507.4497284524065</v>
       </c>
       <c r="D88" t="n">
-        <v>-524.1696336759792</v>
+        <v>2050.345146555336</v>
       </c>
       <c r="E88" t="n">
-        <v>-58.61266132720798</v>
+        <v>229.2696447066994</v>
       </c>
       <c r="F88" t="n">
-        <v>-55.47736295012108</v>
+        <v>217.0055923895505</v>
       </c>
       <c r="G88" t="n">
-        <v>-57.23661370615319</v>
+        <v>223.8870884119508</v>
       </c>
       <c r="H88" t="n">
-        <v>-51.12278187083371</v>
+        <v>199.9721863935105</v>
       </c>
       <c r="I88" t="n">
-        <v>-42.29169144203893</v>
+        <v>165.4284390335412</v>
       </c>
       <c r="J88" t="n">
-        <v>-35.06308685042189</v>
+        <v>137.1529850801147</v>
       </c>
       <c r="K88" t="n">
-        <v>-29.40213144734831</v>
+        <v>115.0095572852626</v>
       </c>
       <c r="L88" t="n">
-        <v>-30.96978063589176</v>
+        <v>121.141583443837</v>
       </c>
       <c r="M88" t="n">
-        <v>-26.77196447545874</v>
+        <v>104.7213800636544</v>
       </c>
       <c r="N88" t="n">
-        <v>-57.91592835452203</v>
+        <v>226.5442997473331</v>
       </c>
       <c r="O88" t="n">
-        <v>-21.73806874780254</v>
+        <v>85.03076273223205</v>
       </c>
       <c r="P88" t="n">
-        <v>-18.42858712754414</v>
+        <v>72.08537417524161</v>
       </c>
       <c r="Q88" t="n">
-        <v>-13.89982280508528</v>
+        <v>54.37063193935992</v>
       </c>
       <c r="R88" t="n">
-        <v>-9.266548536723521</v>
+        <v>36.24708795957328</v>
       </c>
       <c r="S88" t="n">
-        <v>-6.984748051176942</v>
+        <v>27.32158321764829</v>
       </c>
       <c r="T88" t="n">
-        <v>-8.987855347649131</v>
+        <v>35.15694997582672</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
@@ -6979,10 +6979,10 @@
         <v>0.07561462203135248</v>
       </c>
       <c r="W88" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X88" t="n">
-        <v>4.5</v>
+        <v>4.040489198424385</v>
       </c>
     </row>
     <row r="89">
@@ -6993,58 +6993,58 @@
         <v>30002312</v>
       </c>
       <c r="C89" t="n">
-        <v>-276.8852791110102</v>
+        <v>1206.239503429391</v>
       </c>
       <c r="D89" t="n">
-        <v>-1245.983755999546</v>
+        <v>4873.79768431925</v>
       </c>
       <c r="E89" t="n">
-        <v>-139.3259342351534</v>
+        <v>544.9881769093899</v>
       </c>
       <c r="F89" t="n">
-        <v>-131.8731353756207</v>
+        <v>515.8357632857079</v>
       </c>
       <c r="G89" t="n">
-        <v>-136.0549836245808</v>
+        <v>532.1935064856631</v>
       </c>
       <c r="H89" t="n">
-        <v>-121.5220258484919</v>
+        <v>475.3462999194828</v>
       </c>
       <c r="I89" t="n">
-        <v>-100.5299757274747</v>
+        <v>393.2336682127783</v>
       </c>
       <c r="J89" t="n">
-        <v>-83.34713391244095</v>
+        <v>326.0211590248446</v>
       </c>
       <c r="K89" t="n">
-        <v>-69.89069152717353</v>
+        <v>273.384856648752</v>
       </c>
       <c r="L89" t="n">
-        <v>-73.61709095693988</v>
+        <v>287.961063460593</v>
       </c>
       <c r="M89" t="n">
-        <v>-63.63862137278775</v>
+        <v>248.929220775552</v>
       </c>
       <c r="N89" t="n">
-        <v>-137.6697567108129</v>
+        <v>538.5098627707943</v>
       </c>
       <c r="O89" t="n">
-        <v>-51.67273875942688</v>
+        <v>202.1234011241958</v>
       </c>
       <c r="P89" t="n">
-        <v>-43.805895518809</v>
+        <v>171.3514089658647</v>
       </c>
       <c r="Q89" t="n">
-        <v>-33.04074161059507</v>
+        <v>129.2423670649906</v>
       </c>
       <c r="R89" t="n">
-        <v>-22.02716107373005</v>
+        <v>86.16157804332704</v>
       </c>
       <c r="S89" t="n">
-        <v>-16.60317968151457</v>
+        <v>64.9450992394251</v>
       </c>
       <c r="T89" t="n">
-        <v>-21.36469006399381</v>
+        <v>83.57025238788864</v>
       </c>
       <c r="U89" t="n">
         <v>0</v>
@@ -7053,10 +7053,10 @@
         <v>0.1797406501906409</v>
       </c>
       <c r="W89" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X89" t="n">
-        <v>4.5</v>
+        <v>4.040489198424385</v>
       </c>
     </row>
     <row r="90">
@@ -7067,58 +7067,58 @@
         <v>30002312</v>
       </c>
       <c r="C90" t="n">
-        <v>-316.8561347361689</v>
+        <v>1380.37091697272</v>
       </c>
       <c r="D90" t="n">
-        <v>-1425.85260631276</v>
+        <v>5577.37377984744</v>
       </c>
       <c r="E90" t="n">
-        <v>-159.4388735002305</v>
+        <v>623.6620732125954</v>
       </c>
       <c r="F90" t="n">
-        <v>-150.9101967602479</v>
+        <v>590.3012490882961</v>
       </c>
       <c r="G90" t="n">
-        <v>-155.6957320421271</v>
+        <v>609.0203781802643</v>
       </c>
       <c r="H90" t="n">
-        <v>-139.064812399161</v>
+        <v>543.9667711378804</v>
       </c>
       <c r="I90" t="n">
-        <v>-115.0423729148766</v>
+        <v>450.0004498544374</v>
       </c>
       <c r="J90" t="n">
-        <v>-95.37903487547224</v>
+        <v>373.0852164567473</v>
       </c>
       <c r="K90" t="n">
-        <v>-79.98003520605918</v>
+        <v>312.8503951212069</v>
       </c>
       <c r="L90" t="n">
-        <v>-84.24437357605048</v>
+        <v>329.5308071833565</v>
       </c>
       <c r="M90" t="n">
-        <v>-72.82542305196267</v>
+        <v>284.8643704391558</v>
       </c>
       <c r="N90" t="n">
-        <v>-157.5436120024567</v>
+        <v>616.2485567405292</v>
       </c>
       <c r="O90" t="n">
-        <v>-59.13215873054612</v>
+        <v>231.3017139284752</v>
       </c>
       <c r="P90" t="n">
-        <v>-50.12966661612003</v>
+        <v>196.0875106861593</v>
       </c>
       <c r="Q90" t="n">
-        <v>-37.81046688058959</v>
+        <v>147.8996536177269</v>
       </c>
       <c r="R90" t="n">
-        <v>-25.20697792039306</v>
+        <v>98.59976907848464</v>
       </c>
       <c r="S90" t="n">
-        <v>-18.9999965151835</v>
+        <v>74.32050263246683</v>
       </c>
       <c r="T90" t="n">
-        <v>-24.4488733212835</v>
+        <v>95.63436248965805</v>
       </c>
       <c r="U90" t="n">
         <v>0</v>
@@ -7127,10 +7127,10 @@
         <v>0.205687813585564</v>
       </c>
       <c r="W90" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X90" t="n">
-        <v>4.500000000000001</v>
+        <v>4.040489198424385</v>
       </c>
     </row>
     <row r="91">
@@ -7141,58 +7141,58 @@
         <v>30002411</v>
       </c>
       <c r="C91" t="n">
-        <v>-419.174172970412</v>
+        <v>751.7419949791321</v>
       </c>
       <c r="D91" t="n">
-        <v>-1886.283778366854</v>
+        <v>3382.838977406093</v>
       </c>
       <c r="E91" t="n">
-        <v>-198.7864473251725</v>
+        <v>356.50125919754</v>
       </c>
       <c r="F91" t="n">
-        <v>-180.0562249843551</v>
+        <v>322.9107003873179</v>
       </c>
       <c r="G91" t="n">
-        <v>-172.2633587549638</v>
+        <v>308.9350664297802</v>
       </c>
       <c r="H91" t="n">
-        <v>-163.6501908172156</v>
+        <v>293.4883131082912</v>
       </c>
       <c r="I91" t="n">
-        <v>-172.4000757063567</v>
+        <v>309.1802529904388</v>
       </c>
       <c r="J91" t="n">
-        <v>-133.1623106566149</v>
+        <v>238.8117100814333</v>
       </c>
       <c r="K91" t="n">
-        <v>-106.9126559891918</v>
+        <v>191.7358904349906</v>
       </c>
       <c r="L91" t="n">
-        <v>-97.61590329447949</v>
+        <v>175.0632043102088</v>
       </c>
       <c r="M91" t="n">
-        <v>-90.91677267623091</v>
+        <v>163.0490628379395</v>
       </c>
       <c r="N91" t="n">
-        <v>-183.7475826719614</v>
+        <v>329.5307375250989</v>
       </c>
       <c r="O91" t="n">
-        <v>-79.97941656480462</v>
+        <v>143.4341379852551</v>
       </c>
       <c r="P91" t="n">
-        <v>-86.40511328026757</v>
+        <v>154.9579063362072</v>
       </c>
       <c r="Q91" t="n">
-        <v>-66.71787227970027</v>
+        <v>119.6510416013752</v>
       </c>
       <c r="R91" t="n">
-        <v>-52.63602628623894</v>
+        <v>94.39682585354394</v>
       </c>
       <c r="S91" t="n">
-        <v>-39.10104809834893</v>
+        <v>70.12335634834693</v>
       </c>
       <c r="T91" t="n">
-        <v>-61.93277898095128</v>
+        <v>111.0695119783257</v>
       </c>
       <c r="U91" t="n">
         <v>0</v>
@@ -7201,10 +7201,10 @@
         <v>0.2721077792027337</v>
       </c>
       <c r="W91" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X91" t="n">
-        <v>4.5</v>
+        <v>4.499999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -7215,58 +7215,58 @@
         <v>30002411</v>
       </c>
       <c r="C92" t="n">
-        <v>-315.1116006109158</v>
+        <v>565.1174107547845</v>
       </c>
       <c r="D92" t="n">
-        <v>-1418.002202749121</v>
+        <v>2543.02834839653</v>
       </c>
       <c r="E92" t="n">
-        <v>-149.4364863953919</v>
+        <v>267.9976240174352</v>
       </c>
       <c r="F92" t="n">
-        <v>-135.3561572095813</v>
+        <v>242.7461284944719</v>
       </c>
       <c r="G92" t="n">
-        <v>-129.4979180592805</v>
+        <v>232.2400318170346</v>
       </c>
       <c r="H92" t="n">
-        <v>-123.0230221563165</v>
+        <v>220.6280302261829</v>
       </c>
       <c r="I92" t="n">
-        <v>-129.6006941847244</v>
+        <v>232.4243493026037</v>
       </c>
       <c r="J92" t="n">
-        <v>-100.1039461823327</v>
+        <v>179.5252309442791</v>
       </c>
       <c r="K92" t="n">
-        <v>-80.370930097109</v>
+        <v>144.1362737150167</v>
       </c>
       <c r="L92" t="n">
-        <v>-73.3821535669256</v>
+        <v>131.6026846963196</v>
       </c>
       <c r="M92" t="n">
-        <v>-68.3461234201758</v>
+        <v>122.5711279034349</v>
       </c>
       <c r="N92" t="n">
-        <v>-138.1311125965659</v>
+        <v>247.7227006048369</v>
       </c>
       <c r="O92" t="n">
-        <v>-60.12403338466593</v>
+        <v>107.8257290579089</v>
       </c>
       <c r="P92" t="n">
-        <v>-64.95451128052798</v>
+        <v>116.4886508796555</v>
       </c>
       <c r="Q92" t="n">
-        <v>-50.15474921661022</v>
+        <v>89.94693295770865</v>
       </c>
       <c r="R92" t="n">
-        <v>-39.56880829589125</v>
+        <v>70.96223194409392</v>
       </c>
       <c r="S92" t="n">
-        <v>-29.39397187694779</v>
+        <v>52.71480087275548</v>
       </c>
       <c r="T92" t="n">
-        <v>-46.55758482607465</v>
+        <v>83.49582096279102</v>
       </c>
       <c r="U92" t="n">
         <v>0</v>
@@ -7275,10 +7275,10 @@
         <v>0.2045553456589213</v>
       </c>
       <c r="W92" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X92" t="n">
-        <v>4.5</v>
+        <v>4.499999999999999</v>
       </c>
     </row>
     <row r="93">
@@ -7289,58 +7289,58 @@
         <v>30002411</v>
       </c>
       <c r="C93" t="n">
-        <v>-224.3292570904153</v>
+        <v>402.3094315718705</v>
       </c>
       <c r="D93" t="n">
-        <v>-1009.481656906869</v>
+        <v>1810.392442073417</v>
       </c>
       <c r="E93" t="n">
-        <v>-106.3844552542282</v>
+        <v>190.7886214955967</v>
       </c>
       <c r="F93" t="n">
-        <v>-96.36061043316272</v>
+        <v>172.8119769667819</v>
       </c>
       <c r="G93" t="n">
-        <v>-92.19010565359532</v>
+        <v>165.3326431117275</v>
       </c>
       <c r="H93" t="n">
-        <v>-87.58060037091555</v>
+        <v>157.0660109561412</v>
       </c>
       <c r="I93" t="n">
-        <v>-92.26327240411405</v>
+        <v>165.4638594951496</v>
       </c>
       <c r="J93" t="n">
-        <v>-71.26441500523954</v>
+        <v>127.8047574530338</v>
       </c>
       <c r="K93" t="n">
-        <v>-57.21639890564408</v>
+        <v>102.6112118360087</v>
       </c>
       <c r="L93" t="n">
-        <v>-52.24105987037068</v>
+        <v>93.68849776331228</v>
       </c>
       <c r="M93" t="n">
-        <v>-48.65588909495307</v>
+        <v>87.25889497563399</v>
       </c>
       <c r="N93" t="n">
-        <v>-98.33611269716833</v>
+        <v>176.3548193191761</v>
       </c>
       <c r="O93" t="n">
-        <v>-42.80254905345496</v>
+        <v>76.7615843018735</v>
       </c>
       <c r="P93" t="n">
-        <v>-46.24138632783511</v>
+        <v>82.92875432270779</v>
       </c>
       <c r="Q93" t="n">
-        <v>-35.7053742531385</v>
+        <v>64.03359510993893</v>
       </c>
       <c r="R93" t="n">
-        <v>-28.16919894970967</v>
+        <v>50.5183076174723</v>
       </c>
       <c r="S93" t="n">
-        <v>-20.92569064835576</v>
+        <v>37.52788565869371</v>
       </c>
       <c r="T93" t="n">
-        <v>-33.14453798498307</v>
+        <v>59.44102169016872</v>
       </c>
       <c r="U93" t="n">
         <v>0</v>
@@ -7349,10 +7349,10 @@
         <v>0.1456238000650405</v>
       </c>
       <c r="W93" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X93" t="n">
-        <v>4.5</v>
+        <v>4.499999999999999</v>
       </c>
     </row>
     <row r="94">
@@ -7363,58 +7363,58 @@
         <v>30002411</v>
       </c>
       <c r="C94" t="n">
-        <v>-308.3951343313528</v>
+        <v>553.0721797129254</v>
       </c>
       <c r="D94" t="n">
-        <v>-1387.778104491088</v>
+        <v>2488.824808708163</v>
       </c>
       <c r="E94" t="n">
-        <v>-146.2513128890368</v>
+        <v>262.2853715924962</v>
       </c>
       <c r="F94" t="n">
-        <v>-132.4710997763834</v>
+        <v>237.5721006790354</v>
       </c>
       <c r="G94" t="n">
-        <v>-126.7377264375422</v>
+        <v>227.2899368683254</v>
       </c>
       <c r="H94" t="n">
-        <v>-120.4008401156651</v>
+        <v>215.9254400249092</v>
       </c>
       <c r="I94" t="n">
-        <v>-126.8383119347149</v>
+        <v>227.4703257071098</v>
       </c>
       <c r="J94" t="n">
-        <v>-97.9702742461636</v>
+        <v>175.6987289759912</v>
       </c>
       <c r="K94" t="n">
-        <v>-78.65785878901431</v>
+        <v>141.0640719293893</v>
       </c>
       <c r="L94" t="n">
-        <v>-71.81804498127393</v>
+        <v>128.7976308920511</v>
       </c>
       <c r="M94" t="n">
-        <v>-66.88935561981395</v>
+        <v>119.9585777916162</v>
       </c>
       <c r="N94" t="n">
-        <v>-135.1869082000451</v>
+        <v>242.4425993262138</v>
       </c>
       <c r="O94" t="n">
-        <v>-58.84251584600175</v>
+        <v>105.5274706888654</v>
       </c>
       <c r="P94" t="n">
-        <v>-63.57003421311642</v>
+        <v>114.0057461117315</v>
       </c>
       <c r="Q94" t="n">
-        <v>-49.08572262025445</v>
+        <v>88.02975332678001</v>
       </c>
       <c r="R94" t="n">
-        <v>-38.72541641147123</v>
+        <v>69.44970293198831</v>
       </c>
       <c r="S94" t="n">
-        <v>-28.76745219137863</v>
+        <v>51.59120789233418</v>
       </c>
       <c r="T94" t="n">
-        <v>-45.56523021921161</v>
+        <v>81.71614396932652</v>
       </c>
       <c r="U94" t="n">
         <v>0</v>
@@ -7423,10 +7423,10 @@
         <v>0.2001953377164688</v>
       </c>
       <c r="W94" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X94" t="n">
-        <v>4.5</v>
+        <v>4.499999999999998</v>
       </c>
     </row>
     <row r="95">
@@ -7437,58 +7437,58 @@
         <v>30002411</v>
       </c>
       <c r="C95" t="n">
-        <v>-273.4609461080151</v>
+        <v>490.4216204909906</v>
       </c>
       <c r="D95" t="n">
-        <v>-1230.574257486068</v>
+        <v>2206.897292209457</v>
       </c>
       <c r="E95" t="n">
-        <v>-129.6843495241533</v>
+        <v>232.5743757970972</v>
       </c>
       <c r="F95" t="n">
-        <v>-117.4651226432668</v>
+        <v>210.660559095445</v>
       </c>
       <c r="G95" t="n">
-        <v>-112.3812107293213</v>
+        <v>201.5431317086262</v>
       </c>
       <c r="H95" t="n">
-        <v>-106.7621501928552</v>
+        <v>191.4659751231949</v>
       </c>
       <c r="I95" t="n">
-        <v>-112.470402166408</v>
+        <v>201.7030865750616</v>
       </c>
       <c r="J95" t="n">
-        <v>-86.87245972250709</v>
+        <v>155.7960399080968</v>
       </c>
       <c r="K95" t="n">
-        <v>-69.74770380184862</v>
+        <v>125.0847055524966</v>
       </c>
       <c r="L95" t="n">
-        <v>-63.68268607994872</v>
+        <v>114.2077746348882</v>
       </c>
       <c r="M95" t="n">
-        <v>-59.31230566269734</v>
+        <v>106.3699861795527</v>
       </c>
       <c r="N95" t="n">
-        <v>-119.8732914446094</v>
+        <v>214.9793404892013</v>
       </c>
       <c r="O95" t="n">
-        <v>-52.1769906957563</v>
+        <v>93.57359686471929</v>
       </c>
       <c r="P95" t="n">
-        <v>-56.36898823883417</v>
+        <v>101.0914755871839</v>
       </c>
       <c r="Q95" t="n">
-        <v>-43.52542129834031</v>
+        <v>78.05797482048379</v>
       </c>
       <c r="R95" t="n">
-        <v>-34.33870327840372</v>
+        <v>61.58262357763578</v>
       </c>
       <c r="S95" t="n">
-        <v>-25.5087510068142</v>
+        <v>45.74709180052944</v>
       </c>
       <c r="T95" t="n">
-        <v>-40.40372100030361</v>
+        <v>72.45955449524418</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
@@ -7497,10 +7497,10 @@
         <v>0.1775177373568357</v>
       </c>
       <c r="W95" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X95" t="n">
-        <v>4.500000000000001</v>
+        <v>4.499999999999998</v>
       </c>
     </row>
     <row r="96">
@@ -7807,58 +7807,58 @@
         <v>30002711</v>
       </c>
       <c r="C100" t="n">
-        <v>-10.51329622169944</v>
+        <v>35.72596396570864</v>
       </c>
       <c r="D100" t="n">
-        <v>-57.82312921934695</v>
+        <v>196.4928018113975</v>
       </c>
       <c r="E100" t="n">
-        <v>-7.88286090111129</v>
+        <v>26.78729853711588</v>
       </c>
       <c r="F100" t="n">
-        <v>-6.878702974875452</v>
+        <v>23.37499956521616</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.719453259701489</v>
+        <v>22.83384201901181</v>
       </c>
       <c r="H100" t="n">
-        <v>-5.927628287030938</v>
+        <v>20.14308644205123</v>
       </c>
       <c r="I100" t="n">
-        <v>-4.684595788034152</v>
+        <v>15.91905115084496</v>
       </c>
       <c r="J100" t="n">
-        <v>-3.516764543425072</v>
+        <v>11.95056247867965</v>
       </c>
       <c r="K100" t="n">
-        <v>-3.045650802702091</v>
+        <v>10.34963807115841</v>
       </c>
       <c r="L100" t="n">
-        <v>-2.826682444337888</v>
+        <v>9.605546445127414</v>
       </c>
       <c r="M100" t="n">
-        <v>-2.570113458779832</v>
+        <v>8.733681509575945</v>
       </c>
       <c r="N100" t="n">
-        <v>-7.493583819574935</v>
+        <v>25.46446897972746</v>
       </c>
       <c r="O100" t="n">
-        <v>-2.01716305887023</v>
+        <v>6.854662251921912</v>
       </c>
       <c r="P100" t="n">
-        <v>-1.499601484554842</v>
+        <v>5.095900226757736</v>
       </c>
       <c r="Q100" t="n">
-        <v>-1.026275942232222</v>
+        <v>3.487459742205885</v>
       </c>
       <c r="R100" t="n">
-        <v>-0.6126690430998396</v>
+        <v>2.081953337480669</v>
       </c>
       <c r="S100" t="n">
-        <v>-0.5418913919114103</v>
+        <v>1.841438872500952</v>
       </c>
       <c r="T100" t="n">
-        <v>-0.5794920191052636</v>
+        <v>1.969212182021427</v>
       </c>
       <c r="U100" t="n">
         <v>0</v>
@@ -7867,10 +7867,10 @@
         <v>0.008341334140111099</v>
       </c>
       <c r="W100" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X100" t="n">
-        <v>5.500000000000003</v>
+        <v>5.500000000000001</v>
       </c>
     </row>
     <row r="101">
@@ -7881,58 +7881,58 @@
         <v>30002711</v>
       </c>
       <c r="C101" t="n">
-        <v>-282.474505205445</v>
+        <v>959.8962857502189</v>
       </c>
       <c r="D101" t="n">
-        <v>-1553.609778629948</v>
+        <v>5279.429571626205</v>
       </c>
       <c r="E101" t="n">
-        <v>-211.7991527765419</v>
+        <v>719.7294493086406</v>
       </c>
       <c r="F101" t="n">
-        <v>-184.8191260199341</v>
+        <v>628.0467416806599</v>
       </c>
       <c r="G101" t="n">
-        <v>-180.5403552567717</v>
+        <v>613.5067528057382</v>
       </c>
       <c r="H101" t="n">
-        <v>-159.2653561843806</v>
+        <v>541.2106970109869</v>
       </c>
       <c r="I101" t="n">
-        <v>-125.8671732830291</v>
+        <v>427.7180060706232</v>
       </c>
       <c r="J101" t="n">
-        <v>-94.48952101983771</v>
+        <v>321.0914209878616</v>
       </c>
       <c r="K101" t="n">
-        <v>-81.83149084548211</v>
+        <v>278.0772872328839</v>
       </c>
       <c r="L101" t="n">
-        <v>-75.94818104613371</v>
+        <v>258.0848025298661</v>
       </c>
       <c r="M101" t="n">
-        <v>-69.05460592770528</v>
+        <v>234.6592648980473</v>
       </c>
       <c r="N101" t="n">
-        <v>-201.3399353554782</v>
+        <v>684.1872542810538</v>
       </c>
       <c r="O101" t="n">
-        <v>-54.19776300005785</v>
+        <v>184.1731924156791</v>
       </c>
       <c r="P101" t="n">
-        <v>-40.29175801977986</v>
+        <v>136.9182285721825</v>
       </c>
       <c r="Q101" t="n">
-        <v>-27.57430047371365</v>
+        <v>93.70215052727534</v>
       </c>
       <c r="R101" t="n">
-        <v>-16.46138196383336</v>
+        <v>55.93856831046394</v>
       </c>
       <c r="S101" t="n">
-        <v>-14.55970606909449</v>
+        <v>49.47635103272081</v>
       </c>
       <c r="T101" t="n">
-        <v>-15.56997138817452</v>
+        <v>52.90940396152187</v>
       </c>
       <c r="U101" t="n">
         <v>0</v>
@@ -7941,10 +7941,10 @@
         <v>0.2241175540281974</v>
       </c>
       <c r="W101" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X101" t="n">
-        <v>5.500000000000003</v>
+        <v>5.500000000000001</v>
       </c>
     </row>
     <row r="102">
@@ -7955,61 +7955,61 @@
         <v>30002612</v>
       </c>
       <c r="C102" t="n">
-        <v>-868.3071696422294</v>
+        <v>1410.034564396215</v>
       </c>
       <c r="D102" t="n">
-        <v>-3907.382263390033</v>
+        <v>6345.155539782967</v>
       </c>
       <c r="E102" t="n">
-        <v>-436.3081931825097</v>
+        <v>708.5161272710508</v>
       </c>
       <c r="F102" t="n">
-        <v>-437.8720218319095</v>
+        <v>711.0556115981872</v>
       </c>
       <c r="G102" t="n">
-        <v>-430.0528785849112</v>
+        <v>698.3581899625055</v>
       </c>
       <c r="H102" t="n">
-        <v>-378.1337674248419</v>
+        <v>614.0473103015775</v>
       </c>
       <c r="I102" t="n">
-        <v>-315.2678557189749</v>
+        <v>511.9600403506949</v>
       </c>
       <c r="J102" t="n">
-        <v>-258.6572586107065</v>
+        <v>420.0307077083578</v>
       </c>
       <c r="K102" t="n">
-        <v>-217.0594165366751</v>
+        <v>352.48042460653</v>
       </c>
       <c r="L102" t="n">
-        <v>-212.0551648585962</v>
+        <v>344.3540747596936</v>
       </c>
       <c r="M102" t="n">
-        <v>-194.5402839853198</v>
+        <v>315.9118502957661</v>
       </c>
       <c r="N102" t="n">
-        <v>-455.0741369753061</v>
+        <v>738.9899391966878</v>
       </c>
       <c r="O102" t="n">
-        <v>-160.4488194284068</v>
+        <v>260.5510919641929</v>
       </c>
       <c r="P102" t="n">
-        <v>-131.0488408196929</v>
+        <v>212.8087866140289</v>
       </c>
       <c r="Q102" t="n">
-        <v>-94.45525042374048</v>
+        <v>153.3848533590375</v>
       </c>
       <c r="R102" t="n">
-        <v>-72.56164933214501</v>
+        <v>117.8320727791282</v>
       </c>
       <c r="S102" t="n">
-        <v>-52.54464261982914</v>
+        <v>85.32667339178246</v>
       </c>
       <c r="T102" t="n">
-        <v>-61.30208305646732</v>
+        <v>99.54778562374621</v>
       </c>
       <c r="U102" t="n">
-        <v>-7.814764526780066</v>
+        <v>12.69031107956594</v>
       </c>
       <c r="V102" t="n">
         <v>0.5636633906207672</v>
@@ -8018,7 +8018,7 @@
         <v>0.002</v>
       </c>
       <c r="X102" t="n">
-        <v>4.500000000000001</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="103">
@@ -8029,70 +8029,70 @@
         <v>60003949</v>
       </c>
       <c r="C103" t="n">
-        <v>-607.1528536507793</v>
+        <v>1046.319497286146</v>
       </c>
       <c r="D103" t="n">
-        <v>-2782.805562220964</v>
+        <v>4657.820016995201</v>
       </c>
       <c r="E103" t="n">
-        <v>-312.8000473630593</v>
+        <v>518.0390371648</v>
       </c>
       <c r="F103" t="n">
-        <v>-313.9682546485712</v>
+        <v>519.8487477449795</v>
       </c>
       <c r="G103" t="n">
-        <v>-308.7096548310453</v>
+        <v>510.2177582340495</v>
       </c>
       <c r="H103" t="n">
-        <v>-270.6141122564908</v>
+        <v>449.4464276676542</v>
       </c>
       <c r="I103" t="n">
-        <v>-225.788889685436</v>
+        <v>374.5593520379206</v>
       </c>
       <c r="J103" t="n">
-        <v>-184.5381872203659</v>
+        <v>308.0094277649674</v>
       </c>
       <c r="K103" t="n">
-        <v>-154.5821517170143</v>
+        <v>258.7528480409317</v>
       </c>
       <c r="L103" t="n">
-        <v>-151.066878419789</v>
+        <v>252.7387841679449</v>
       </c>
       <c r="M103" t="n">
-        <v>-138.5720498504898</v>
+        <v>231.8809326415021</v>
       </c>
       <c r="N103" t="n">
-        <v>-326.3193034091734</v>
+        <v>540.2547955069817</v>
       </c>
       <c r="O103" t="n">
-        <v>-114.2467067819965</v>
+        <v>191.2876662379261</v>
       </c>
       <c r="P103" t="n">
-        <v>-92.82690791400442</v>
+        <v>156.7226092309225</v>
       </c>
       <c r="Q103" t="n">
-        <v>-66.06996583385995</v>
+        <v>113.7962732538917</v>
       </c>
       <c r="R103" t="n">
-        <v>-49.66514069869103</v>
+        <v>88.51024826938311</v>
       </c>
       <c r="S103" t="n">
-        <v>-35.28786763577209</v>
+        <v>64.770172651454</v>
       </c>
       <c r="T103" t="n">
-        <v>-37.74944395520539</v>
+        <v>78.98493637989172</v>
       </c>
       <c r="U103" t="n">
-        <v>-4.189729441083318</v>
+        <v>10.69152171734901</v>
       </c>
       <c r="V103" t="n">
         <v>0.4223161116520809</v>
       </c>
       <c r="W103" t="n">
-        <v>0.001505577499902467</v>
+        <v>0.002295391766607204</v>
       </c>
       <c r="X103" t="n">
-        <v>4.583368991001353</v>
+        <v>4.45162307409568</v>
       </c>
     </row>
     <row r="104">
@@ -8103,67 +8103,67 @@
         <v>30002611</v>
       </c>
       <c r="C104" t="n">
-        <v>-638.3066954258609</v>
+        <v>1624.295991207681</v>
       </c>
       <c r="D104" t="n">
-        <v>-2553.226781703444</v>
+        <v>6497.183964830721</v>
       </c>
       <c r="E104" t="n">
-        <v>-312.7464791604872</v>
+        <v>795.8444678788411</v>
       </c>
       <c r="F104" t="n">
-        <v>-288.879671117798</v>
+        <v>735.1107157429664</v>
       </c>
       <c r="G104" t="n">
-        <v>-279.4894515600184</v>
+        <v>711.2154690009826</v>
       </c>
       <c r="H104" t="n">
-        <v>-255.1009646530079</v>
+        <v>649.1542031572199</v>
       </c>
       <c r="I104" t="n">
-        <v>-208.4107062962713</v>
+        <v>530.341726301246</v>
       </c>
       <c r="J104" t="n">
-        <v>-170.1977294847522</v>
+        <v>433.1013471984518</v>
       </c>
       <c r="K104" t="n">
-        <v>-139.6795159219691</v>
+        <v>355.4417952870053</v>
       </c>
       <c r="L104" t="n">
-        <v>-136.6798624521228</v>
+        <v>347.8085914666494</v>
       </c>
       <c r="M104" t="n">
-        <v>-120.5078176581694</v>
+        <v>306.6556665221223</v>
       </c>
       <c r="N104" t="n">
-        <v>-294.4877189092493</v>
+        <v>749.3814881027616</v>
       </c>
       <c r="O104" t="n">
-        <v>-99.90150251748672</v>
+        <v>254.2188750605471</v>
       </c>
       <c r="P104" t="n">
-        <v>-84.51197602001487</v>
+        <v>215.0572206778519</v>
       </c>
       <c r="Q104" t="n">
-        <v>-59.99306939692415</v>
+        <v>152.6640764071171</v>
       </c>
       <c r="R104" t="n">
-        <v>-42.51682744216798</v>
+        <v>108.1923671928699</v>
       </c>
       <c r="S104" t="n">
-        <v>-25.30142491957236</v>
+        <v>64.38441483256679</v>
       </c>
       <c r="T104" t="n">
-        <v>-34.82206419343206</v>
+        <v>88.6115400015223</v>
       </c>
       <c r="U104" t="n">
-        <v>-2.553226781703444</v>
+        <v>6.497183964830721</v>
       </c>
       <c r="V104" t="n">
         <v>0.368318318451418</v>
       </c>
       <c r="W104" t="n">
-        <v>0.001</v>
+        <v>0.0009999999999999998</v>
       </c>
       <c r="X104" t="n">
         <v>4</v>
@@ -8177,61 +8177,61 @@
         <v>30002611</v>
       </c>
       <c r="C105" t="n">
-        <v>-590.3066502220582</v>
+        <v>1502.15050603412</v>
       </c>
       <c r="D105" t="n">
-        <v>-2361.226600888233</v>
+        <v>6008.602024136478</v>
       </c>
       <c r="E105" t="n">
-        <v>-289.2282468677521</v>
+        <v>735.9977347846593</v>
       </c>
       <c r="F105" t="n">
-        <v>-267.1561996714225</v>
+        <v>679.831101979992</v>
       </c>
       <c r="G105" t="n">
-        <v>-258.4721155286041</v>
+        <v>657.7327546470078</v>
       </c>
       <c r="H105" t="n">
-        <v>-235.917619213229</v>
+        <v>600.3384358793968</v>
       </c>
       <c r="I105" t="n">
-        <v>-192.7384230586605</v>
+        <v>490.460542195949</v>
       </c>
       <c r="J105" t="n">
-        <v>-157.3990250885807</v>
+        <v>400.5325454103338</v>
       </c>
       <c r="K105" t="n">
-        <v>-129.1757516244214</v>
+        <v>328.7129165781359</v>
       </c>
       <c r="L105" t="n">
-        <v>-126.40166918991</v>
+        <v>321.6537222912105</v>
       </c>
       <c r="M105" t="n">
-        <v>-111.4457464995008</v>
+        <v>283.5954574399605</v>
       </c>
       <c r="N105" t="n">
-        <v>-272.342527701161</v>
+        <v>693.0287260816348</v>
       </c>
       <c r="O105" t="n">
-        <v>-92.3890062972052</v>
+        <v>235.1018619036901</v>
       </c>
       <c r="P105" t="n">
-        <v>-78.15675728536418</v>
+        <v>198.8851259968553</v>
       </c>
       <c r="Q105" t="n">
-        <v>-55.48164869022767</v>
+        <v>141.1838857385085</v>
       </c>
       <c r="R105" t="n">
-        <v>-39.31960320220482</v>
+        <v>100.0564059798994</v>
       </c>
       <c r="S105" t="n">
-        <v>-23.39878227370471</v>
+        <v>59.54276920276226</v>
       </c>
       <c r="T105" t="n">
-        <v>-32.20347869628431</v>
+        <v>81.94803802648205</v>
       </c>
       <c r="U105" t="n">
-        <v>-2.361226600888233</v>
+        <v>6.008602024136477</v>
       </c>
       <c r="V105" t="n">
         <v>0.3406211376733572</v>
@@ -8240,7 +8240,7 @@
         <v>0.001</v>
       </c>
       <c r="X105" t="n">
-        <v>4</v>
+        <v>3.999999999999999</v>
       </c>
     </row>
     <row r="106">
@@ -8251,70 +8251,70 @@
         <v>30002611</v>
       </c>
       <c r="C106" t="n">
-        <v>-504.4166543520808</v>
+        <v>1283.586644842956</v>
       </c>
       <c r="D106" t="n">
-        <v>-2017.666617408323</v>
+        <v>5134.346579371821</v>
       </c>
       <c r="E106" t="n">
-        <v>-247.1453516138918</v>
+        <v>628.9095927534162</v>
       </c>
       <c r="F106" t="n">
-        <v>-228.2848014281778</v>
+        <v>580.9152410128512</v>
       </c>
       <c r="G106" t="n">
-        <v>-220.8642570928149</v>
+        <v>562.0322173772188</v>
       </c>
       <c r="H106" t="n">
-        <v>-201.5914544440252</v>
+        <v>512.9888087680075</v>
       </c>
       <c r="I106" t="n">
-        <v>-164.6948589987486</v>
+        <v>419.0982190241697</v>
       </c>
       <c r="J106" t="n">
-        <v>-134.4973660784524</v>
+        <v>342.2548033958332</v>
       </c>
       <c r="K106" t="n">
-        <v>-110.380596988523</v>
+        <v>280.8849765800286</v>
       </c>
       <c r="L106" t="n">
-        <v>-108.0101453258376</v>
+        <v>274.8528995853127</v>
       </c>
       <c r="M106" t="n">
-        <v>-95.23031897049042</v>
+        <v>242.3321366572796</v>
       </c>
       <c r="N106" t="n">
-        <v>-232.7165154062417</v>
+        <v>592.1926023507979</v>
       </c>
       <c r="O106" t="n">
-        <v>-78.9463466789996</v>
+        <v>200.8943903457534</v>
       </c>
       <c r="P106" t="n">
-        <v>-66.78489901826597</v>
+        <v>169.9472127206895</v>
       </c>
       <c r="Q106" t="n">
-        <v>-47.40903325370734</v>
+        <v>120.6415398943167</v>
       </c>
       <c r="R106" t="n">
-        <v>-33.59857574067085</v>
+        <v>85.49813479466789</v>
       </c>
       <c r="S106" t="n">
-        <v>-19.99424445917223</v>
+        <v>50.87925812934225</v>
       </c>
       <c r="T106" t="n">
-        <v>-27.51785191030404</v>
+        <v>70.02454598213598</v>
       </c>
       <c r="U106" t="n">
-        <v>-2.017666617408323</v>
+        <v>5.134346579371821</v>
       </c>
       <c r="V106" t="n">
         <v>0.2910605438752248</v>
       </c>
       <c r="W106" t="n">
-        <v>0.001</v>
+        <v>0.0009999999999999998</v>
       </c>
       <c r="X106" t="n">
-        <v>4</v>
+        <v>3.999999999999999</v>
       </c>
     </row>
     <row r="107">
@@ -8325,58 +8325,58 @@
         <v>30002613</v>
       </c>
       <c r="C107" t="n">
-        <v>-540.1828349648964</v>
+        <v>1455.943649054564</v>
       </c>
       <c r="D107" t="n">
-        <v>-2160.731339859586</v>
+        <v>5976.707836632252</v>
       </c>
       <c r="E107" t="n">
-        <v>-262.780672347585</v>
+        <v>726.8665357708775</v>
       </c>
       <c r="F107" t="n">
-        <v>-247.3468770628735</v>
+        <v>684.1757655092182</v>
       </c>
       <c r="G107" t="n">
-        <v>-236.2792212337056</v>
+        <v>653.5619894663182</v>
       </c>
       <c r="H107" t="n">
-        <v>-218.3069727771668</v>
+        <v>603.8497109379392</v>
       </c>
       <c r="I107" t="n">
-        <v>-182.7686283715815</v>
+        <v>505.5485952038559</v>
       </c>
       <c r="J107" t="n">
-        <v>-140.4272294654984</v>
+        <v>388.4298373149626</v>
       </c>
       <c r="K107" t="n">
-        <v>-112.808858956015</v>
+        <v>312.0358273730466</v>
       </c>
       <c r="L107" t="n">
-        <v>-116.7688459040659</v>
+        <v>322.9893802691302</v>
       </c>
       <c r="M107" t="n">
-        <v>-104.6858088061669</v>
+        <v>289.5670009195419</v>
       </c>
       <c r="N107" t="n">
-        <v>-255.876079720214</v>
+        <v>707.7680332853979</v>
       </c>
       <c r="O107" t="n">
-        <v>-82.55049714783095</v>
+        <v>228.3394488337416</v>
       </c>
       <c r="P107" t="n">
-        <v>-69.85823128869339</v>
+        <v>193.2319075001406</v>
       </c>
       <c r="Q107" t="n">
-        <v>-48.33214839159599</v>
+        <v>133.689517398353</v>
       </c>
       <c r="R107" t="n">
-        <v>-31.98450996502676</v>
+        <v>88.47100416067478</v>
       </c>
       <c r="S107" t="n">
-        <v>-22.13531165833598</v>
+        <v>61.22755208580033</v>
       </c>
       <c r="T107" t="n">
-        <v>-27.82144676322962</v>
+        <v>76.95573060325361</v>
       </c>
       <c r="U107" t="n">
         <v>0</v>
@@ -8385,10 +8385,10 @@
         <v>0.3116984904848135</v>
       </c>
       <c r="W107" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X107" t="n">
-        <v>4</v>
+        <v>4.105040631561053</v>
       </c>
     </row>
     <row r="108">
@@ -8399,58 +8399,58 @@
         <v>30002613</v>
       </c>
       <c r="C108" t="n">
-        <v>-295.8641954738993</v>
+        <v>797.4366612572104</v>
       </c>
       <c r="D108" t="n">
-        <v>-1183.456781895597</v>
+        <v>3273.509895557237</v>
       </c>
       <c r="E108" t="n">
-        <v>-143.927920655348</v>
+        <v>398.1129515837468</v>
       </c>
       <c r="F108" t="n">
-        <v>-135.4746579275223</v>
+        <v>374.7307380440521</v>
       </c>
       <c r="G108" t="n">
-        <v>-129.412778734542</v>
+        <v>357.9632296504554</v>
       </c>
       <c r="H108" t="n">
-        <v>-119.5691767422713</v>
+        <v>330.7352573048901</v>
       </c>
       <c r="I108" t="n">
-        <v>-100.1044270400411</v>
+        <v>276.8946340226986</v>
       </c>
       <c r="J108" t="n">
-        <v>-76.91356810909825</v>
+        <v>212.7473771407734</v>
       </c>
       <c r="K108" t="n">
-        <v>-61.78667691193647</v>
+        <v>170.905521332899</v>
       </c>
       <c r="L108" t="n">
-        <v>-63.9556061644707</v>
+        <v>176.9049050700575</v>
       </c>
       <c r="M108" t="n">
-        <v>-57.33759126571243</v>
+        <v>158.5990931541124</v>
       </c>
       <c r="N108" t="n">
-        <v>-140.1461978560575</v>
+        <v>387.6524876317779</v>
       </c>
       <c r="O108" t="n">
-        <v>-45.21383287975189</v>
+        <v>125.0640763669189</v>
       </c>
       <c r="P108" t="n">
-        <v>-38.26213655752683</v>
+        <v>105.8352823375648</v>
       </c>
       <c r="Q108" t="n">
-        <v>-26.47205959503309</v>
+        <v>73.2232476637803</v>
       </c>
       <c r="R108" t="n">
-        <v>-17.51827473200719</v>
+        <v>48.45656095397226</v>
       </c>
       <c r="S108" t="n">
-        <v>-12.12375838596053</v>
+        <v>33.5350167871935</v>
       </c>
       <c r="T108" t="n">
-        <v>-15.23811833831737</v>
+        <v>42.14951651234412</v>
       </c>
       <c r="U108" t="n">
         <v>0</v>
@@ -8459,10 +8459,10 @@
         <v>0.1707207581368466</v>
       </c>
       <c r="W108" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X108" t="n">
-        <v>4</v>
+        <v>4.105040631561054</v>
       </c>
     </row>
     <row r="109">
@@ -8473,58 +8473,58 @@
         <v>30002613</v>
       </c>
       <c r="C109" t="n">
-        <v>-896.9829695612044</v>
+        <v>2417.619689688226</v>
       </c>
       <c r="D109" t="n">
-        <v>-3587.931878244818</v>
+        <v>9924.427057832192</v>
       </c>
       <c r="E109" t="n">
-        <v>-436.3518656436838</v>
+        <v>1206.974493687487</v>
       </c>
       <c r="F109" t="n">
-        <v>-410.7237807990778</v>
+        <v>1136.085728988685</v>
       </c>
       <c r="G109" t="n">
-        <v>-392.3457462723539</v>
+        <v>1085.251022724413</v>
       </c>
       <c r="H109" t="n">
-        <v>-362.5025158940959</v>
+        <v>1002.702921726467</v>
       </c>
       <c r="I109" t="n">
-        <v>-303.4904784229639</v>
+        <v>839.4722135384372</v>
       </c>
       <c r="J109" t="n">
-        <v>-233.1818509216439</v>
+        <v>644.9944840686994</v>
       </c>
       <c r="K109" t="n">
-        <v>-187.3210675155071</v>
+        <v>518.1409051340021</v>
       </c>
       <c r="L109" t="n">
-        <v>-193.8966945480047</v>
+        <v>536.3294697606683</v>
       </c>
       <c r="M109" t="n">
-        <v>-173.8326018078199</v>
+        <v>480.8310289767383</v>
       </c>
       <c r="N109" t="n">
-        <v>-424.8866697921493</v>
+        <v>1175.261098953812</v>
       </c>
       <c r="O109" t="n">
-        <v>-137.076532754372</v>
+        <v>379.1616164481942</v>
       </c>
       <c r="P109" t="n">
-        <v>-116.0008050861107</v>
+        <v>320.8649349524695</v>
       </c>
       <c r="Q109" t="n">
-        <v>-80.25637096073935</v>
+        <v>221.9937631357201</v>
       </c>
       <c r="R109" t="n">
-        <v>-53.11083372401868</v>
+        <v>146.9076373692265</v>
       </c>
       <c r="S109" t="n">
-        <v>-36.75606905344785</v>
+        <v>101.6694125285441</v>
       </c>
       <c r="T109" t="n">
-        <v>-46.19799504882895</v>
+        <v>127.7863258386288</v>
       </c>
       <c r="U109" t="n">
         <v>0</v>
@@ -8533,10 +8533,10 @@
         <v>0.5175807513783399</v>
       </c>
       <c r="W109" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X109" t="n">
-        <v>4</v>
+        <v>4.105040631561054</v>
       </c>
     </row>
     <row r="110">
@@ -8547,58 +8547,58 @@
         <v>30002711</v>
       </c>
       <c r="C110" t="n">
-        <v>-347.8693522579454</v>
+        <v>1182.119069173609</v>
       </c>
       <c r="D110" t="n">
-        <v>-1913.281437418701</v>
+        <v>6501.65488045485</v>
       </c>
       <c r="E110" t="n">
-        <v>-260.8321555659354</v>
+        <v>886.3519104135363</v>
       </c>
       <c r="F110" t="n">
-        <v>-227.6060616751007</v>
+        <v>773.4440071229232</v>
       </c>
       <c r="G110" t="n">
-        <v>-222.3367251990213</v>
+        <v>755.53790792265</v>
       </c>
       <c r="H110" t="n">
-        <v>-196.1364132762926</v>
+        <v>666.5048035657346</v>
       </c>
       <c r="I110" t="n">
-        <v>-155.0063146713387</v>
+        <v>526.7377514747111</v>
       </c>
       <c r="J110" t="n">
-        <v>-116.3645138467557</v>
+        <v>395.4263573393724</v>
       </c>
       <c r="K110" t="n">
-        <v>-100.7760601050205</v>
+        <v>342.4541472052301</v>
       </c>
       <c r="L110" t="n">
-        <v>-93.53072245041119</v>
+        <v>317.833260804854</v>
       </c>
       <c r="M110" t="n">
-        <v>-85.04123590561642</v>
+        <v>288.9845454266356</v>
       </c>
       <c r="N110" t="n">
-        <v>-247.9515552910745</v>
+        <v>842.5814457017574</v>
       </c>
       <c r="O110" t="n">
-        <v>-66.74492869700704</v>
+        <v>226.8105898701306</v>
       </c>
       <c r="P110" t="n">
-        <v>-49.61958514974865</v>
+        <v>168.6157674692418</v>
       </c>
       <c r="Q110" t="n">
-        <v>-33.95794617917903</v>
+        <v>115.3948615128734</v>
       </c>
       <c r="R110" t="n">
-        <v>-20.2723083871392</v>
+        <v>68.88874275660764</v>
       </c>
       <c r="S110" t="n">
-        <v>-17.9303810644372</v>
+        <v>60.93047644537499</v>
       </c>
       <c r="T110" t="n">
-        <v>-19.17452995462265</v>
+        <v>65.15830542321736</v>
       </c>
       <c r="U110" t="n">
         <v>0</v>
@@ -8607,10 +8607,10 @@
         <v>0.2760023538857811</v>
       </c>
       <c r="W110" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X110" t="n">
-        <v>5.500000000000003</v>
+        <v>5.500000000000001</v>
       </c>
     </row>
     <row r="111">
@@ -8621,58 +8621,58 @@
         <v>30002711</v>
       </c>
       <c r="C111" t="n">
-        <v>-261.3794937353805</v>
+        <v>888.2118583600518</v>
       </c>
       <c r="D111" t="n">
-        <v>-1437.587215544594</v>
+        <v>4885.165220980286</v>
       </c>
       <c r="E111" t="n">
-        <v>-195.9821304441315</v>
+        <v>665.9805243305564</v>
       </c>
       <c r="F111" t="n">
-        <v>-171.0169544560182</v>
+        <v>581.1446213995595</v>
       </c>
       <c r="G111" t="n">
-        <v>-167.057719497551</v>
+        <v>567.6904693928818</v>
       </c>
       <c r="H111" t="n">
-        <v>-147.3715234540608</v>
+        <v>500.7934358041222</v>
       </c>
       <c r="I111" t="n">
-        <v>-116.4674950282465</v>
+        <v>395.7763048631085</v>
       </c>
       <c r="J111" t="n">
-        <v>-87.43310533281964</v>
+        <v>297.1125234808038</v>
       </c>
       <c r="K111" t="n">
-        <v>-75.72036858068721</v>
+        <v>257.310657127715</v>
       </c>
       <c r="L111" t="n">
-        <v>-70.27642051279466</v>
+        <v>238.8111981185328</v>
       </c>
       <c r="M111" t="n">
-        <v>-63.89765307970843</v>
+        <v>217.1350643299962</v>
       </c>
       <c r="N111" t="n">
-        <v>-186.304000545656</v>
+        <v>633.0925972031218</v>
       </c>
       <c r="O111" t="n">
-        <v>-50.15030947391919</v>
+        <v>170.4192587512535</v>
       </c>
       <c r="P111" t="n">
-        <v>-37.28279585890045</v>
+        <v>126.6932647295503</v>
       </c>
       <c r="Q111" t="n">
-        <v>-25.51506973234485</v>
+        <v>86.70453515414653</v>
       </c>
       <c r="R111" t="n">
-        <v>-15.23205671521449</v>
+        <v>51.76111258124696</v>
       </c>
       <c r="S111" t="n">
-        <v>-13.47239673367347</v>
+        <v>45.78148946716788</v>
       </c>
       <c r="T111" t="n">
-        <v>-14.40721609886714</v>
+        <v>48.95816424652241</v>
       </c>
       <c r="U111" t="n">
         <v>0</v>
@@ -8681,10 +8681,10 @@
         <v>0.2073806015395858</v>
       </c>
       <c r="W111" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X111" t="n">
-        <v>5.500000000000003</v>
+        <v>5.500000000000001</v>
       </c>
     </row>
     <row r="112">
@@ -8695,58 +8695,58 @@
         <v>30002711</v>
       </c>
       <c r="C112" t="n">
-        <v>-358.1488071249835</v>
+        <v>1217.050400548914</v>
       </c>
       <c r="D112" t="n">
-        <v>-1969.81843918741</v>
+        <v>6693.777203019031</v>
       </c>
       <c r="E112" t="n">
-        <v>-268.5396824107382</v>
+        <v>912.5433940848342</v>
       </c>
       <c r="F112" t="n">
-        <v>-234.3317655155431</v>
+        <v>796.2990896755988</v>
       </c>
       <c r="G112" t="n">
-        <v>-228.9067214264374</v>
+        <v>777.8638695930772</v>
       </c>
       <c r="H112" t="n">
-        <v>-201.9321966500501</v>
+        <v>686.1998586272044</v>
       </c>
       <c r="I112" t="n">
-        <v>-159.5867136211963</v>
+        <v>542.302724094186</v>
       </c>
       <c r="J112" t="n">
-        <v>-119.8030569677536</v>
+        <v>407.1111101556921</v>
       </c>
       <c r="K112" t="n">
-        <v>-103.7539682041489</v>
+        <v>352.5735840782315</v>
       </c>
       <c r="L112" t="n">
-        <v>-96.29453258162837</v>
+        <v>327.2251564647638</v>
       </c>
       <c r="M112" t="n">
-        <v>-87.55418377140231</v>
+        <v>297.5239685540341</v>
       </c>
       <c r="N112" t="n">
-        <v>-255.2784635262575</v>
+        <v>867.4795227720035</v>
       </c>
       <c r="O112" t="n">
-        <v>-68.71722512867376</v>
+        <v>233.5127877119442</v>
       </c>
       <c r="P112" t="n">
-        <v>-51.08583183907984</v>
+        <v>173.5983224437479</v>
       </c>
       <c r="Q112" t="n">
-        <v>-34.9613952409042</v>
+        <v>118.804751642919</v>
       </c>
       <c r="R112" t="n">
-        <v>-20.87135017614324</v>
+        <v>70.92438837303568</v>
       </c>
       <c r="S112" t="n">
-        <v>-18.46021946987398</v>
+        <v>62.73095722524815</v>
       </c>
       <c r="T112" t="n">
-        <v>-19.74113265757953</v>
+        <v>67.0837175225103</v>
       </c>
       <c r="U112" t="n">
         <v>0</v>
@@ -8755,10 +8755,10 @@
         <v>0.2841581564063245</v>
       </c>
       <c r="W112" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X112" t="n">
-        <v>5.500000000000003</v>
+        <v>5.500000000000001</v>
       </c>
     </row>
     <row r="113">
@@ -8769,58 +8769,58 @@
         <v>30002811</v>
       </c>
       <c r="C113" t="n">
-        <v>-252.030090484061</v>
+        <v>806.6495700550283</v>
       </c>
       <c r="D113" t="n">
-        <v>-1386.165497662336</v>
+        <v>3559.260426978339</v>
       </c>
       <c r="E113" t="n">
-        <v>-188.5505058326767</v>
+        <v>484.1415797960309</v>
       </c>
       <c r="F113" t="n">
-        <v>-166.5166916043698</v>
+        <v>427.5653028864835</v>
       </c>
       <c r="G113" t="n">
-        <v>-159.0083536348514</v>
+        <v>408.2861257230392</v>
       </c>
       <c r="H113" t="n">
-        <v>-136.2728255776175</v>
+        <v>349.908056555226</v>
       </c>
       <c r="I113" t="n">
-        <v>-109.0463290152511</v>
+        <v>279.9985169345114</v>
       </c>
       <c r="J113" t="n">
-        <v>-89.67902733686672</v>
+        <v>230.2690506063742</v>
       </c>
       <c r="K113" t="n">
-        <v>-77.11834979907397</v>
+        <v>198.0169691834157</v>
       </c>
       <c r="L113" t="n">
-        <v>-73.82029480311721</v>
+        <v>189.5485455695663</v>
       </c>
       <c r="M113" t="n">
-        <v>-59.36498992722164</v>
+        <v>152.43162504929</v>
       </c>
       <c r="N113" t="n">
-        <v>-177.5335987185233</v>
+        <v>455.8534413412572</v>
       </c>
       <c r="O113" t="n">
-        <v>-46.31311270918</v>
+        <v>118.9182890455454</v>
       </c>
       <c r="P113" t="n">
-        <v>-35.99791942395355</v>
+        <v>92.43194284903755</v>
       </c>
       <c r="Q113" t="n">
-        <v>-26.94581103079564</v>
+        <v>69.18882271740821</v>
       </c>
       <c r="R113" t="n">
-        <v>-17.47267434028154</v>
+        <v>44.86462723081939</v>
       </c>
       <c r="S113" t="n">
-        <v>-10.03450775365567</v>
+        <v>25.7656292932015</v>
       </c>
       <c r="T113" t="n">
-        <v>-12.49050615490006</v>
+        <v>32.07190219713194</v>
       </c>
       <c r="U113" t="n">
         <v>0</v>
@@ -8829,10 +8829,10 @@
         <v>0.1999627094831503</v>
       </c>
       <c r="W113" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X113" t="n">
-        <v>5.500000000000002</v>
+        <v>4.412399831485105</v>
       </c>
     </row>
     <row r="114">
@@ -8843,58 +8843,58 @@
         <v>30002811</v>
       </c>
       <c r="C114" t="n">
-        <v>-642.0605122968875</v>
+        <v>2054.984129866628</v>
       </c>
       <c r="D114" t="n">
-        <v>-3531.332817632883</v>
+        <v>9067.411628328073</v>
       </c>
       <c r="E114" t="n">
-        <v>-480.3427802460035</v>
+        <v>1233.3772929694</v>
       </c>
       <c r="F114" t="n">
-        <v>-424.2104270650414</v>
+        <v>1089.246116939481</v>
       </c>
       <c r="G114" t="n">
-        <v>-405.0825232740769</v>
+        <v>1040.131353133108</v>
       </c>
       <c r="H114" t="n">
-        <v>-347.1625155332114</v>
+        <v>891.410012261472</v>
       </c>
       <c r="I114" t="n">
-        <v>-277.8015186089653</v>
+        <v>713.3116164028463</v>
       </c>
       <c r="J114" t="n">
-        <v>-228.4622527556355</v>
+        <v>586.6230667714527</v>
       </c>
       <c r="K114" t="n">
-        <v>-196.4632361333673</v>
+        <v>504.4591161047156</v>
       </c>
       <c r="L114" t="n">
-        <v>-188.0612597018221</v>
+        <v>482.8853413486449</v>
       </c>
       <c r="M114" t="n">
-        <v>-151.2355757678151</v>
+        <v>388.3279456092715</v>
       </c>
       <c r="N114" t="n">
-        <v>-452.2766036555226</v>
+        <v>1161.311704954441</v>
       </c>
       <c r="O114" t="n">
-        <v>-117.9852009536146</v>
+        <v>302.9508795533324</v>
       </c>
       <c r="P114" t="n">
-        <v>-91.7066789230368</v>
+        <v>235.4754563800902</v>
       </c>
       <c r="Q114" t="n">
-        <v>-68.64593510028486</v>
+        <v>176.2623299219388</v>
       </c>
       <c r="R114" t="n">
-        <v>-44.51259854159095</v>
+        <v>114.2951045587572</v>
       </c>
       <c r="S114" t="n">
-        <v>-25.5634602066165</v>
+        <v>65.63935723655536</v>
       </c>
       <c r="T114" t="n">
-        <v>-31.82025116627788</v>
+        <v>81.70493418256541</v>
       </c>
       <c r="U114" t="n">
         <v>0</v>
@@ -8903,10 +8903,10 @@
         <v>0.5094159964964373</v>
       </c>
       <c r="W114" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X114" t="n">
-        <v>5.500000000000003</v>
+        <v>4.412399831485104</v>
       </c>
     </row>
     <row r="115">
@@ -8917,58 +8917,58 @@
         <v>30002812</v>
       </c>
       <c r="C115" t="n">
-        <v>-1733.03</v>
+        <v>1095.018189900087</v>
       </c>
       <c r="D115" t="n">
-        <v>-6932.12</v>
+        <v>4380.072759600347</v>
       </c>
       <c r="E115" t="n">
-        <v>-919.814318041555</v>
+        <v>581.1863669907885</v>
       </c>
       <c r="F115" t="n">
-        <v>-734.4253857231025</v>
+        <v>464.0480294577617</v>
       </c>
       <c r="G115" t="n">
-        <v>-774.3553096070768</v>
+        <v>489.2778252341059</v>
       </c>
       <c r="H115" t="n">
-        <v>-738.7035918535281</v>
+        <v>466.7512218623699</v>
       </c>
       <c r="I115" t="n">
-        <v>-596.0967208393334</v>
+        <v>376.6448083754258</v>
       </c>
       <c r="J115" t="n">
-        <v>-429.2466817527258</v>
+        <v>271.2203045957014</v>
       </c>
       <c r="K115" t="n">
-        <v>-346.5346965644929</v>
+        <v>218.9585847732739</v>
       </c>
       <c r="L115" t="n">
-        <v>-387.8906891586093</v>
+        <v>245.0894446844876</v>
       </c>
       <c r="M115" t="n">
-        <v>-335.1261468833573</v>
+        <v>211.7500716943184</v>
       </c>
       <c r="N115" t="n">
-        <v>-802.8766838099158</v>
+        <v>507.2991079314947</v>
       </c>
       <c r="O115" t="n">
-        <v>-270.9530549269698</v>
+        <v>171.2021856251936</v>
       </c>
       <c r="P115" t="n">
-        <v>-215.3363752314339</v>
+        <v>136.0606843652854</v>
       </c>
       <c r="Q115" t="n">
-        <v>-148.3111458547624</v>
+        <v>93.71067002642174</v>
       </c>
       <c r="R115" t="n">
-        <v>-95.54660357951037</v>
+        <v>60.37129703625246</v>
       </c>
       <c r="S115" t="n">
-        <v>-74.15557292738123</v>
+        <v>46.85533501321089</v>
       </c>
       <c r="T115" t="n">
-        <v>-62.74702324624563</v>
+        <v>39.64682193425535</v>
       </c>
       <c r="U115" t="n">
         <v>0</v>
@@ -8977,10 +8977,10 @@
         <v>1</v>
       </c>
       <c r="W115" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X115" t="n">
-        <v>4</v>
+        <v>3.999999999999999</v>
       </c>
     </row>
     <row r="116">
@@ -8991,58 +8991,58 @@
         <v>30002811</v>
       </c>
       <c r="C116" t="n">
-        <v>-366.2948517645056</v>
+        <v>1172.366300078344</v>
       </c>
       <c r="D116" t="n">
-        <v>-2014.621684704781</v>
+        <v>5172.948864904499</v>
       </c>
       <c r="E116" t="n">
-        <v>-274.0350545105672</v>
+        <v>703.6404576287529</v>
       </c>
       <c r="F116" t="n">
-        <v>-242.0116056395892</v>
+        <v>621.4137722192149</v>
       </c>
       <c r="G116" t="n">
-        <v>-231.0991565020267</v>
+        <v>593.3938507580033</v>
       </c>
       <c r="H116" t="n">
-        <v>-198.0558525714633</v>
+        <v>508.5484810997538</v>
       </c>
       <c r="I116" t="n">
-        <v>-158.485476259554</v>
+        <v>406.9435322497515</v>
       </c>
       <c r="J116" t="n">
-        <v>-130.337476615</v>
+        <v>334.6678469853169</v>
       </c>
       <c r="K116" t="n">
-        <v>-112.0820710484233</v>
+        <v>287.7933989333828</v>
       </c>
       <c r="L116" t="n">
-        <v>-107.2887522683725</v>
+        <v>275.4855829644392</v>
       </c>
       <c r="M116" t="n">
-        <v>-86.27973804091552</v>
+        <v>221.5406874409844</v>
       </c>
       <c r="N116" t="n">
-        <v>-258.0233300750783</v>
+        <v>662.527114923984</v>
       </c>
       <c r="O116" t="n">
-        <v>-67.31043393262912</v>
+        <v>172.8331604149524</v>
       </c>
       <c r="P116" t="n">
-        <v>-52.31856455672536</v>
+        <v>134.3385019588948</v>
       </c>
       <c r="Q116" t="n">
-        <v>-39.16243428807513</v>
+        <v>100.5574751505177</v>
       </c>
       <c r="R116" t="n">
-        <v>-25.39439098367371</v>
+        <v>65.20523779291383</v>
       </c>
       <c r="S116" t="n">
-        <v>-14.58392735206964</v>
+        <v>37.44718475657302</v>
       </c>
       <c r="T116" t="n">
-        <v>-18.15342006061816</v>
+        <v>46.61257962706291</v>
       </c>
       <c r="U116" t="n">
         <v>0</v>
@@ -9051,10 +9051,10 @@
         <v>0.2906212940204124</v>
       </c>
       <c r="W116" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X116" t="n">
-        <v>5.500000000000002</v>
+        <v>4.412399831485104</v>
       </c>
     </row>
     <row r="117">
@@ -12025,58 +12025,58 @@
         <v>30002911</v>
       </c>
       <c r="C157" t="n">
-        <v>-61.49766347142328</v>
+        <v>141.8405036861525</v>
       </c>
       <c r="D157" t="n">
-        <v>-276.7394856214048</v>
+        <v>533.2442331495325</v>
       </c>
       <c r="E157" t="n">
-        <v>-29.01060177115914</v>
+        <v>55.89999583880018</v>
       </c>
       <c r="F157" t="n">
-        <v>-28.61856661208942</v>
+        <v>55.14459048962718</v>
       </c>
       <c r="G157" t="n">
-        <v>-29.08527513479147</v>
+        <v>56.04388257197598</v>
       </c>
       <c r="H157" t="n">
-        <v>-26.91974758945397</v>
+        <v>51.87116730987762</v>
       </c>
       <c r="I157" t="n">
-        <v>-22.51401913514666</v>
+        <v>43.38185005250514</v>
       </c>
       <c r="J157" t="n">
-        <v>-18.96703436261112</v>
+        <v>36.54723022665441</v>
       </c>
       <c r="K157" t="n">
-        <v>-15.94276313550187</v>
+        <v>30.71981753303432</v>
       </c>
       <c r="L157" t="n">
-        <v>-17.10020027180294</v>
+        <v>32.9500618972593</v>
       </c>
       <c r="M157" t="n">
-        <v>-15.92409479459379</v>
+        <v>30.68384584974037</v>
       </c>
       <c r="N157" t="n">
-        <v>-26.82640588491357</v>
+        <v>51.69130889340786</v>
       </c>
       <c r="O157" t="n">
-        <v>-12.97449693111686</v>
+        <v>25.00031988929608</v>
       </c>
       <c r="P157" t="n">
-        <v>-10.49160759034198</v>
+        <v>20.21608601120057</v>
       </c>
       <c r="Q157" t="n">
-        <v>-8.176733317739835</v>
+        <v>15.75559728275062</v>
       </c>
       <c r="R157" t="n">
-        <v>-5.115125408814415</v>
+        <v>9.856241222542627</v>
       </c>
       <c r="S157" t="n">
-        <v>-4.387060113399225</v>
+        <v>8.453345574078529</v>
       </c>
       <c r="T157" t="n">
-        <v>-4.685753567928534</v>
+        <v>9.028892506781752</v>
       </c>
       <c r="U157" t="n">
         <v>0</v>
@@ -12085,10 +12085,10 @@
         <v>0.03992133512134885</v>
       </c>
       <c r="W157" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X157" t="n">
-        <v>4.500000000000001</v>
+        <v>3.759463758881109</v>
       </c>
     </row>
     <row r="158">
@@ -12099,58 +12099,58 @@
         <v>30002911</v>
       </c>
       <c r="C158" t="n">
-        <v>-343.9787210992175</v>
+        <v>793.3653459973051</v>
       </c>
       <c r="D158" t="n">
-        <v>-1547.904244946479</v>
+        <v>2982.62826582904</v>
       </c>
       <c r="E158" t="n">
-        <v>-162.2668103512432</v>
+        <v>312.6689372030714</v>
       </c>
       <c r="F158" t="n">
-        <v>-160.0740156167669</v>
+        <v>308.4436812949216</v>
       </c>
       <c r="G158" t="n">
-        <v>-162.6844855387625</v>
+        <v>313.4737478522428</v>
       </c>
       <c r="H158" t="n">
-        <v>-150.571905100703</v>
+        <v>290.1342390262733</v>
       </c>
       <c r="I158" t="n">
-        <v>-125.9290690370651</v>
+        <v>242.6504107251634</v>
       </c>
       <c r="J158" t="n">
-        <v>-106.089497629899</v>
+        <v>204.4219048895241</v>
       </c>
       <c r="K158" t="n">
-        <v>-89.17365253536782</v>
+        <v>171.8270735980842</v>
       </c>
       <c r="L158" t="n">
-        <v>-95.64761794191678</v>
+        <v>184.3016386602402</v>
       </c>
       <c r="M158" t="n">
-        <v>-89.06923373848801</v>
+        <v>171.6258709357914</v>
       </c>
       <c r="N158" t="n">
-        <v>-150.049811116304</v>
+        <v>289.1282257148092</v>
       </c>
       <c r="O158" t="n">
-        <v>-72.57106383147617</v>
+        <v>139.8358502935229</v>
       </c>
       <c r="P158" t="n">
-        <v>-58.68336384645987</v>
+        <v>113.0758962085753</v>
       </c>
       <c r="Q158" t="n">
-        <v>-45.73543303336196</v>
+        <v>88.12676608426334</v>
       </c>
       <c r="R158" t="n">
-        <v>-28.61075034507117</v>
+        <v>55.12952946823778</v>
       </c>
       <c r="S158" t="n">
-        <v>-24.53841726675812</v>
+        <v>47.28262563881707</v>
       </c>
       <c r="T158" t="n">
-        <v>-26.20911801683528</v>
+        <v>50.50186823550251</v>
       </c>
       <c r="U158" t="n">
         <v>0</v>
@@ -12159,10 +12159,10 @@
         <v>0.2232944964810878</v>
       </c>
       <c r="W158" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X158" t="n">
-        <v>4.5</v>
+        <v>3.759463758881109</v>
       </c>
     </row>
     <row r="159">
@@ -12173,58 +12173,58 @@
         <v>30002911</v>
       </c>
       <c r="C159" t="n">
-        <v>-179.3072842998455</v>
+        <v>413.5610051511052</v>
       </c>
       <c r="D159" t="n">
-        <v>-806.8827793493047</v>
+        <v>1554.767610952024</v>
       </c>
       <c r="E159" t="n">
-        <v>-84.58552611365486</v>
+        <v>162.9862970466437</v>
       </c>
       <c r="F159" t="n">
-        <v>-83.44247846347034</v>
+        <v>160.7837795189863</v>
       </c>
       <c r="G159" t="n">
-        <v>-84.80324947559478</v>
+        <v>163.4058241947689</v>
       </c>
       <c r="H159" t="n">
-        <v>-78.48927197933737</v>
+        <v>151.2395368991377</v>
       </c>
       <c r="I159" t="n">
-        <v>-65.64359362488271</v>
+        <v>126.4874351597504</v>
       </c>
       <c r="J159" t="n">
-        <v>-55.30173393273701</v>
+        <v>106.559895623803</v>
       </c>
       <c r="K159" t="n">
-        <v>-46.48393777417068</v>
+        <v>89.56904612473207</v>
       </c>
       <c r="L159" t="n">
-        <v>-49.85864988423928</v>
+        <v>96.07171692067281</v>
       </c>
       <c r="M159" t="n">
-        <v>-46.4295069336857</v>
+        <v>89.46416433770078</v>
       </c>
       <c r="N159" t="n">
-        <v>-78.2171177769125</v>
+        <v>150.7151279639812</v>
       </c>
       <c r="O159" t="n">
-        <v>-37.82943413705928</v>
+        <v>72.89284198675502</v>
       </c>
       <c r="P159" t="n">
-        <v>-30.59013235255729</v>
+        <v>58.94356431159184</v>
       </c>
       <c r="Q159" t="n">
-        <v>-23.84070813242009</v>
+        <v>45.93822271971036</v>
       </c>
       <c r="R159" t="n">
-        <v>-14.9140502928838</v>
+        <v>28.7376096465768</v>
       </c>
       <c r="S159" t="n">
-        <v>-12.79124751396968</v>
+        <v>24.64721995235601</v>
       </c>
       <c r="T159" t="n">
-        <v>-13.66214096172932</v>
+        <v>26.32532854485685</v>
       </c>
       <c r="U159" t="n">
         <v>0</v>
@@ -12233,10 +12233,10 @@
         <v>0.1163976935409809</v>
       </c>
       <c r="W159" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X159" t="n">
-        <v>4.5</v>
+        <v>3.759463758881109</v>
       </c>
     </row>
     <row r="160">
@@ -12247,58 +12247,58 @@
         <v>30002911</v>
       </c>
       <c r="C160" t="n">
-        <v>-256.7111799950383</v>
+        <v>592.0882358283859</v>
       </c>
       <c r="D160" t="n">
-        <v>-1155.200309977673</v>
+        <v>2225.934264656668</v>
       </c>
       <c r="E160" t="n">
-        <v>-121.0996547291759</v>
+        <v>233.3447009765558</v>
       </c>
       <c r="F160" t="n">
-        <v>-119.4631729085113</v>
+        <v>230.1913942066023</v>
       </c>
       <c r="G160" t="n">
-        <v>-121.4113655521596</v>
+        <v>233.9453308374993</v>
       </c>
       <c r="H160" t="n">
-        <v>-112.3717516856317</v>
+        <v>216.5270648701373</v>
       </c>
       <c r="I160" t="n">
-        <v>-93.98081312959208</v>
+        <v>181.0899030744699</v>
       </c>
       <c r="J160" t="n">
-        <v>-79.17454903786529</v>
+        <v>152.5599846796529</v>
       </c>
       <c r="K160" t="n">
-        <v>-66.55026070702456</v>
+        <v>128.2344753114405</v>
       </c>
       <c r="L160" t="n">
-        <v>-71.38177846327225</v>
+        <v>137.544238156065</v>
       </c>
       <c r="M160" t="n">
-        <v>-66.47233300127864</v>
+        <v>128.0843178462047</v>
       </c>
       <c r="N160" t="n">
-        <v>-111.982113156902</v>
+        <v>215.7762775439579</v>
       </c>
       <c r="O160" t="n">
-        <v>-54.15975549342164</v>
+        <v>104.3594383389358</v>
       </c>
       <c r="P160" t="n">
-        <v>-43.7953706292129</v>
+        <v>84.38849546256392</v>
       </c>
       <c r="Q160" t="n">
-        <v>-34.13233511671753</v>
+        <v>65.76896977331494</v>
       </c>
       <c r="R160" t="n">
-        <v>-21.35219137438493</v>
+        <v>41.1431454746308</v>
       </c>
       <c r="S160" t="n">
-        <v>-18.31301085029364</v>
+        <v>35.28700433043152</v>
       </c>
       <c r="T160" t="n">
-        <v>-19.55985414222853</v>
+        <v>37.6895237742056</v>
       </c>
       <c r="U160" t="n">
         <v>0</v>
@@ -12307,10 +12307,10 @@
         <v>0.166644592127325</v>
       </c>
       <c r="W160" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X160" t="n">
-        <v>4.5</v>
+        <v>3.759463758881108</v>
       </c>
     </row>
     <row r="161">
@@ -12321,58 +12321,58 @@
         <v>30002911</v>
       </c>
       <c r="C161" t="n">
-        <v>-163.1861374528445</v>
+        <v>376.3785910608595</v>
       </c>
       <c r="D161" t="n">
-        <v>-734.3376185378005</v>
+        <v>1414.981672712035</v>
       </c>
       <c r="E161" t="n">
-        <v>-76.98061651428375</v>
+        <v>148.3325363865692</v>
       </c>
       <c r="F161" t="n">
-        <v>-75.94033791273937</v>
+        <v>146.3280426516156</v>
       </c>
       <c r="G161" t="n">
-        <v>-77.17876481933983</v>
+        <v>148.7143447170366</v>
       </c>
       <c r="H161" t="n">
-        <v>-71.43246397271373</v>
+        <v>137.6419031334831</v>
       </c>
       <c r="I161" t="n">
-        <v>-59.74171397440552</v>
+        <v>115.1152116359089</v>
       </c>
       <c r="J161" t="n">
-        <v>-50.32966948424212</v>
+        <v>96.97931593870932</v>
       </c>
       <c r="K161" t="n">
-        <v>-42.30466312947124</v>
+        <v>81.51607855478126</v>
       </c>
       <c r="L161" t="n">
-        <v>-45.37596185784034</v>
+        <v>87.43410767702535</v>
       </c>
       <c r="M161" t="n">
-        <v>-42.25512605320722</v>
+        <v>81.42062647216443</v>
       </c>
       <c r="N161" t="n">
-        <v>-71.18477859139365</v>
+        <v>137.1646427203989</v>
       </c>
       <c r="O161" t="n">
-        <v>-34.42826800349241</v>
+        <v>66.33919741870372</v>
       </c>
       <c r="P161" t="n">
-        <v>-27.83983686037803</v>
+        <v>53.64407043066402</v>
       </c>
       <c r="Q161" t="n">
-        <v>-21.69723940363982</v>
+        <v>41.80801218617587</v>
       </c>
       <c r="R161" t="n">
-        <v>-13.57315889634089</v>
+        <v>26.15387063701413</v>
       </c>
       <c r="S161" t="n">
-        <v>-11.64121292204419</v>
+        <v>22.43123941495737</v>
       </c>
       <c r="T161" t="n">
-        <v>-12.43380614226848</v>
+        <v>23.95847273682682</v>
       </c>
       <c r="U161" t="n">
         <v>0</v>
@@ -12381,10 +12381,10 @@
         <v>0.105932617804914</v>
       </c>
       <c r="W161" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X161" t="n">
-        <v>4.5</v>
+        <v>3.759463758881109</v>
       </c>
     </row>
     <row r="162">
@@ -12395,58 +12395,58 @@
         <v>30002911</v>
       </c>
       <c r="C162" t="n">
-        <v>-240.6695645368442</v>
+        <v>555.0892558982438</v>
       </c>
       <c r="D162" t="n">
-        <v>-1083.013040415799</v>
+        <v>2086.837940493729</v>
       </c>
       <c r="E162" t="n">
-        <v>-113.532262871435</v>
+        <v>218.7632325639002</v>
       </c>
       <c r="F162" t="n">
-        <v>-111.998043102902</v>
+        <v>215.806972664388</v>
       </c>
       <c r="G162" t="n">
-        <v>-113.8244952082984</v>
+        <v>219.3263296876168</v>
       </c>
       <c r="H162" t="n">
-        <v>-105.3497574392594</v>
+        <v>202.9965130998352</v>
       </c>
       <c r="I162" t="n">
-        <v>-88.10804956431824</v>
+        <v>169.7737828005557</v>
       </c>
       <c r="J162" t="n">
-        <v>-74.22701356330623</v>
+        <v>143.0266694240171</v>
       </c>
       <c r="K162" t="n">
-        <v>-62.39160392033811</v>
+        <v>120.2212359134947</v>
       </c>
       <c r="L162" t="n">
-        <v>-66.92120514172098</v>
+        <v>128.949241331102</v>
       </c>
       <c r="M162" t="n">
-        <v>-62.31854583612227</v>
+        <v>120.0804616325655</v>
       </c>
       <c r="N162" t="n">
-        <v>-104.9844670181802</v>
+        <v>202.2926416951895</v>
       </c>
       <c r="O162" t="n">
-        <v>-50.77536853001756</v>
+        <v>97.8381252457597</v>
       </c>
       <c r="P162" t="n">
-        <v>-41.05864332930916</v>
+        <v>79.11514588218267</v>
       </c>
       <c r="Q162" t="n">
-        <v>-31.99944088654344</v>
+        <v>61.65913504696799</v>
       </c>
       <c r="R162" t="n">
-        <v>-20.01791507514361</v>
+        <v>38.57215297458728</v>
       </c>
       <c r="S162" t="n">
-        <v>-17.16864979072536</v>
+        <v>33.0819560183504</v>
       </c>
       <c r="T162" t="n">
-        <v>-18.337579138179</v>
+        <v>35.33434451321682</v>
       </c>
       <c r="U162" t="n">
         <v>0</v>
@@ -12455,10 +12455,10 @@
         <v>0.1562311443563872</v>
       </c>
       <c r="W162" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X162" t="n">
-        <v>4.500000000000001</v>
+        <v>3.759463758881108</v>
       </c>
     </row>
     <row r="163">
@@ -12469,58 +12469,58 @@
         <v>30002911</v>
       </c>
       <c r="C163" t="n">
-        <v>-108.7206380135878</v>
+        <v>250.7573326601744</v>
       </c>
       <c r="D163" t="n">
-        <v>-489.242871061145</v>
+        <v>942.7131044096201</v>
       </c>
       <c r="E163" t="n">
-        <v>-51.28733281361438</v>
+        <v>98.82461982275701</v>
       </c>
       <c r="F163" t="n">
-        <v>-50.59426074856553</v>
+        <v>97.48915198731433</v>
       </c>
       <c r="G163" t="n">
-        <v>-51.41934654029036</v>
+        <v>99.07899464855562</v>
       </c>
       <c r="H163" t="n">
-        <v>-47.5909484666872</v>
+        <v>91.70212470039611</v>
       </c>
       <c r="I163" t="n">
-        <v>-39.80213859280497</v>
+        <v>76.69400997827859</v>
       </c>
       <c r="J163" t="n">
-        <v>-33.53148657569639</v>
+        <v>64.61120575284497</v>
       </c>
       <c r="K163" t="n">
-        <v>-28.1849306453196</v>
+        <v>54.30902530800158</v>
       </c>
       <c r="L163" t="n">
-        <v>-30.23114340879714</v>
+        <v>58.25183510787992</v>
       </c>
       <c r="M163" t="n">
-        <v>-28.15192721365062</v>
+        <v>54.24543160155194</v>
       </c>
       <c r="N163" t="n">
-        <v>-47.42593130834225</v>
+        <v>91.38415616814787</v>
       </c>
       <c r="O163" t="n">
-        <v>-22.9373850099498</v>
+        <v>44.19762598250714</v>
       </c>
       <c r="P163" t="n">
-        <v>-18.5479285979738</v>
+        <v>35.73966302470362</v>
       </c>
       <c r="Q163" t="n">
-        <v>-14.45550307101872</v>
+        <v>27.85404342494695</v>
       </c>
       <c r="R163" t="n">
-        <v>-9.042940277303947</v>
+        <v>17.42467556720425</v>
       </c>
       <c r="S163" t="n">
-        <v>-7.755806442213239</v>
+        <v>14.94452101566788</v>
       </c>
       <c r="T163" t="n">
-        <v>-8.283861348917121</v>
+        <v>15.96202031886229</v>
       </c>
       <c r="U163" t="n">
         <v>0</v>
@@ -12529,10 +12529,10 @@
         <v>0.07057622647345185</v>
       </c>
       <c r="W163" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X163" t="n">
-        <v>4.5</v>
+        <v>3.759463758881109</v>
       </c>
     </row>
     <row r="164">
@@ -12543,58 +12543,58 @@
         <v>30002911</v>
       </c>
       <c r="C164" t="n">
-        <v>-186.3999222423099</v>
+        <v>429.9197297177736</v>
       </c>
       <c r="D164" t="n">
-        <v>-838.7996500903948</v>
+        <v>1616.267643101932</v>
       </c>
       <c r="E164" t="n">
-        <v>-87.93137184568766</v>
+        <v>169.4333457488129</v>
       </c>
       <c r="F164" t="n">
-        <v>-86.74311006398916</v>
+        <v>167.1437059413965</v>
       </c>
       <c r="G164" t="n">
-        <v>-88.15770742315405</v>
+        <v>169.8694676168922</v>
       </c>
       <c r="H164" t="n">
-        <v>-81.59397567662906</v>
+        <v>157.2219334425921</v>
       </c>
       <c r="I164" t="n">
-        <v>-68.2401766061128</v>
+        <v>131.4907432259127</v>
       </c>
       <c r="J164" t="n">
-        <v>-57.48923667645986</v>
+        <v>110.7749544921453</v>
       </c>
       <c r="K164" t="n">
-        <v>-48.32264578907158</v>
+        <v>93.11201883493318</v>
       </c>
       <c r="L164" t="n">
-        <v>-51.83084723980043</v>
+        <v>99.87190779016252</v>
       </c>
       <c r="M164" t="n">
-        <v>-48.26606189470499</v>
+        <v>93.00298836791336</v>
       </c>
       <c r="N164" t="n">
-        <v>-81.3110562047961</v>
+        <v>156.676781107493</v>
       </c>
       <c r="O164" t="n">
-        <v>-39.32580658478308</v>
+        <v>75.77617457878051</v>
       </c>
       <c r="P164" t="n">
-        <v>-31.80014863402603</v>
+        <v>61.27512246514339</v>
       </c>
       <c r="Q164" t="n">
-        <v>-24.78374573256833</v>
+        <v>47.7553445546847</v>
       </c>
       <c r="R164" t="n">
-        <v>-15.50398705644685</v>
+        <v>29.87434796343289</v>
       </c>
       <c r="S164" t="n">
-        <v>-13.29721517614967</v>
+        <v>25.62215974965959</v>
       </c>
       <c r="T164" t="n">
-        <v>-14.20255748601518</v>
+        <v>27.36664722197685</v>
       </c>
       <c r="U164" t="n">
         <v>0</v>
@@ -12603,10 +12603,10 @@
         <v>0.1210018940945043</v>
       </c>
       <c r="W164" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X164" t="n">
-        <v>4.500000000000001</v>
+        <v>3.759463758881109</v>
       </c>
     </row>
     <row r="165">
@@ -14023,70 +14023,70 @@
         <v>60003949</v>
       </c>
       <c r="C184" t="n">
-        <v>566.0194744394843</v>
+        <v>676.2307754472056</v>
       </c>
       <c r="D184" t="n">
-        <v>1209.438118803446</v>
+        <v>1705.388973338192</v>
       </c>
       <c r="E184" t="n">
-        <v>80.47990487455208</v>
+        <v>135.8590325521292</v>
       </c>
       <c r="F184" t="n">
-        <v>79.52472763937875</v>
+        <v>135.1023468140081</v>
       </c>
       <c r="G184" t="n">
-        <v>68.90884908511009</v>
+        <v>123.4940107744782</v>
       </c>
       <c r="H184" t="n">
-        <v>82.41447444064683</v>
+        <v>130.4097184278803</v>
       </c>
       <c r="I184" t="n">
-        <v>64.3468109703464</v>
+        <v>104.3626967760795</v>
       </c>
       <c r="J184" t="n">
-        <v>71.48290919332193</v>
+        <v>104.3134028057637</v>
       </c>
       <c r="K184" t="n">
-        <v>67.33843536707235</v>
+        <v>94.88905515792433</v>
       </c>
       <c r="L184" t="n">
-        <v>64.50215545151804</v>
+        <v>91.41760245180282</v>
       </c>
       <c r="M184" t="n">
-        <v>59.63246987269375</v>
+        <v>84.32481210599337</v>
       </c>
       <c r="N184" t="n">
-        <v>82.2107192497311</v>
+        <v>139.9717448919352</v>
       </c>
       <c r="O184" t="n">
-        <v>50.28747472840688</v>
+        <v>70.65270232596748</v>
       </c>
       <c r="P184" t="n">
-        <v>53.90847731531057</v>
+        <v>70.54206476828892</v>
       </c>
       <c r="Q184" t="n">
-        <v>60.95581282954579</v>
+        <v>72.94469925150155</v>
       </c>
       <c r="R184" t="n">
-        <v>75.64758824169797</v>
+        <v>84.85759370492227</v>
       </c>
       <c r="S184" t="n">
-        <v>72.65799800441124</v>
+        <v>79.32731230536676</v>
       </c>
       <c r="T184" t="n">
-        <v>175.139311539702</v>
+        <v>182.9201782241502</v>
       </c>
       <c r="U184" t="n">
-        <v>38.77862217725196</v>
+        <v>39.77052388632146</v>
       </c>
       <c r="V184" t="n">
         <v>0.3773080983360101</v>
       </c>
       <c r="W184" t="n">
-        <v>0.0320633371599181</v>
+        <v>0.02332050019560825</v>
       </c>
       <c r="X184" t="n">
-        <v>2.136742945110014</v>
+        <v>2.52190381635675</v>
       </c>
     </row>
     <row r="185">
@@ -24449,58 +24449,58 @@
         <v>30002212</v>
       </c>
       <c r="C325" t="n">
-        <v>4545.454545454545</v>
+        <v>5273.775484255118</v>
       </c>
       <c r="D325" t="n">
-        <v>25000</v>
+        <v>29005.76516340315</v>
       </c>
       <c r="E325" t="n">
-        <v>3543.70644791391</v>
+        <v>4111.516681449137</v>
       </c>
       <c r="F325" t="n">
-        <v>3133.545029549265</v>
+        <v>3635.634850242207</v>
       </c>
       <c r="G325" t="n">
-        <v>2972.56769868572</v>
+        <v>3448.864024015829</v>
       </c>
       <c r="H325" t="n">
-        <v>2513.892564170415</v>
+        <v>2916.695094494098</v>
       </c>
       <c r="I325" t="n">
-        <v>2077.269118814501</v>
+        <v>2410.111209660913</v>
       </c>
       <c r="J325" t="n">
-        <v>1496.207109464585</v>
+        <v>1735.945282117759</v>
       </c>
       <c r="K325" t="n">
-        <v>1247.023021963483</v>
+        <v>1446.834277137204</v>
       </c>
       <c r="L325" t="n">
-        <v>1201.817059186734</v>
+        <v>1394.384935525687</v>
       </c>
       <c r="M325" t="n">
-        <v>1014.377701331922</v>
+        <v>1176.912055673057</v>
       </c>
       <c r="N325" t="n">
-        <v>3328.702478609862</v>
+        <v>3862.062495735826</v>
       </c>
       <c r="O325" t="n">
-        <v>867.7339684219812</v>
+        <v>1006.771508494235</v>
       </c>
       <c r="P325" t="n">
-        <v>669.2687659874746</v>
+        <v>776.5061062973322</v>
       </c>
       <c r="Q325" t="n">
-        <v>378.1864690835317</v>
+        <v>438.7835164085419</v>
       </c>
       <c r="R325" t="n">
-        <v>263.5176854547058</v>
+        <v>305.7412840281093</v>
       </c>
       <c r="S325" t="n">
-        <v>145.5411484519714</v>
+        <v>168.8612949443952</v>
       </c>
       <c r="T325" t="n">
-        <v>146.6437329099409</v>
+        <v>170.1405471788224</v>
       </c>
       <c r="U325" t="n">
         <v>0</v>
@@ -24523,58 +24523,58 @@
         <v>60004424</v>
       </c>
       <c r="C326" t="n">
-        <v>4675.860564633965</v>
+        <v>2966.752425072541</v>
       </c>
       <c r="D326" t="n">
-        <v>25586.82708630739</v>
+        <v>16157.76308910584</v>
       </c>
       <c r="E326" t="n">
-        <v>3847.713359605443</v>
+        <v>2414.846225959826</v>
       </c>
       <c r="F326" t="n">
-        <v>3162.112077791406</v>
+        <v>1990.140609070143</v>
       </c>
       <c r="G326" t="n">
-        <v>2937.048433355165</v>
+        <v>1849.056700762694</v>
       </c>
       <c r="H326" t="n">
-        <v>2415.051413472512</v>
+        <v>1525.381982398307</v>
       </c>
       <c r="I326" t="n">
-        <v>2037.484239634977</v>
+        <v>1289.321177271542</v>
       </c>
       <c r="J326" t="n">
-        <v>1608.12598174585</v>
+        <v>1018.762839690014</v>
       </c>
       <c r="K326" t="n">
-        <v>1433.629880770786</v>
+        <v>905.6726389208567</v>
       </c>
       <c r="L326" t="n">
-        <v>1219.234519131034</v>
+        <v>772.6184550132759</v>
       </c>
       <c r="M326" t="n">
-        <v>1068.932471041558</v>
+        <v>677.8278511008497</v>
       </c>
       <c r="N326" t="n">
-        <v>3449.24692450836</v>
+        <v>2168.26890112723</v>
       </c>
       <c r="O326" t="n">
-        <v>754.4856235940192</v>
+        <v>481.3457327851116</v>
       </c>
       <c r="P326" t="n">
-        <v>664.495554367991</v>
+        <v>423.9537236156276</v>
       </c>
       <c r="Q326" t="n">
-        <v>407.7317082996058</v>
+        <v>261.6572046361205</v>
       </c>
       <c r="R326" t="n">
-        <v>283.2994187029375</v>
+        <v>182.2056760096727</v>
       </c>
       <c r="S326" t="n">
-        <v>184.5329476737916</v>
+        <v>119.096098013375</v>
       </c>
       <c r="T326" t="n">
-        <v>113.702532611953</v>
+        <v>77.6072727311919</v>
       </c>
       <c r="U326" t="n">
         <v>0</v>
@@ -24586,7 +24586,7 @@
         <v>0</v>
       </c>
       <c r="X326" t="n">
-        <v>5.472110798135054</v>
+        <v>5.446279558939185</v>
       </c>
     </row>
     <row r="327">
@@ -24597,58 +24597,58 @@
         <v>30002211</v>
       </c>
       <c r="C327" t="n">
-        <v>1082.851005787341</v>
+        <v>1323.402474358234</v>
       </c>
       <c r="D327" t="n">
-        <v>4872.829526043033</v>
+        <v>5955.311134612053</v>
       </c>
       <c r="E327" t="n">
-        <v>527.5974357037046</v>
+        <v>644.8013144409131</v>
       </c>
       <c r="F327" t="n">
-        <v>510.2556793097317</v>
+        <v>623.6071490397233</v>
       </c>
       <c r="G327" t="n">
-        <v>481.6927864255402</v>
+        <v>588.6991119083511</v>
       </c>
       <c r="H327" t="n">
-        <v>464.1470093681084</v>
+        <v>567.2556033847941</v>
       </c>
       <c r="I327" t="n">
-        <v>424.7710213206161</v>
+        <v>519.1323807679742</v>
       </c>
       <c r="J327" t="n">
-        <v>350.9155411486358</v>
+        <v>428.8701704711411</v>
       </c>
       <c r="K327" t="n">
-        <v>277.8761436304895</v>
+        <v>339.6053326637756</v>
       </c>
       <c r="L327" t="n">
-        <v>269.1032551017736</v>
+        <v>328.8835784019971</v>
       </c>
       <c r="M327" t="n">
-        <v>242.1725275252504</v>
+        <v>295.9702862495607</v>
       </c>
       <c r="N327" t="n">
-        <v>521.0687744730324</v>
+        <v>636.8223345251708</v>
       </c>
       <c r="O327" t="n">
-        <v>210.9573660160985</v>
+        <v>257.8207885274185</v>
       </c>
       <c r="P327" t="n">
-        <v>186.0668450741603</v>
+        <v>227.4009275986515</v>
       </c>
       <c r="Q327" t="n">
-        <v>135.0616792095331</v>
+        <v>165.0651470069159</v>
       </c>
       <c r="R327" t="n">
-        <v>99.35806310429395</v>
+        <v>121.4301005927009</v>
       </c>
       <c r="S327" t="n">
-        <v>70.38712889318569</v>
+        <v>86.02337721659516</v>
       </c>
       <c r="T327" t="n">
-        <v>101.3982697388791</v>
+        <v>123.9235318163704</v>
       </c>
       <c r="U327" t="n">
         <v>0</v>
@@ -24671,58 +24671,58 @@
         <v>30002211</v>
       </c>
       <c r="C328" t="n">
-        <v>1472.960997368472</v>
+        <v>1800.174001900897</v>
       </c>
       <c r="D328" t="n">
-        <v>6628.324488158126</v>
+        <v>8100.783008554037</v>
       </c>
       <c r="E328" t="n">
-        <v>717.6707053415219</v>
+        <v>877.0986794557333</v>
       </c>
       <c r="F328" t="n">
-        <v>694.0813743461514</v>
+        <v>848.2690631549846</v>
       </c>
       <c r="G328" t="n">
-        <v>655.2283585890694</v>
+        <v>800.7849892478681</v>
       </c>
       <c r="H328" t="n">
-        <v>631.3615060525765</v>
+        <v>771.6162009906394</v>
       </c>
       <c r="I328" t="n">
-        <v>577.7998486160282</v>
+        <v>706.1560133901148</v>
       </c>
       <c r="J328" t="n">
-        <v>477.33705072986</v>
+        <v>583.3757651445715</v>
       </c>
       <c r="K328" t="n">
-        <v>377.9843390081799</v>
+        <v>461.9522047249455</v>
       </c>
       <c r="L328" t="n">
-        <v>366.0509127399333</v>
+        <v>447.3678105963311</v>
       </c>
       <c r="M328" t="n">
-        <v>329.4180693118278</v>
+        <v>402.5971123410501</v>
       </c>
       <c r="N328" t="n">
-        <v>708.7900160256175</v>
+        <v>866.2451768483924</v>
       </c>
       <c r="O328" t="n">
-        <v>286.95727352016</v>
+        <v>350.7038029997017</v>
       </c>
       <c r="P328" t="n">
-        <v>253.0996455032746</v>
+        <v>309.3248243092145</v>
       </c>
       <c r="Q328" t="n">
-        <v>183.7192602227717</v>
+        <v>224.5318351893641</v>
       </c>
       <c r="R328" t="n">
-        <v>135.1529905264196</v>
+        <v>165.1767428054687</v>
       </c>
       <c r="S328" t="n">
-        <v>95.74493168709404</v>
+        <v>117.0143249853937</v>
       </c>
       <c r="T328" t="n">
-        <v>137.9282059376398</v>
+        <v>168.5684623702628</v>
       </c>
       <c r="U328" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="X328" t="n">
-        <v>4.5</v>
+        <v>4.500000000000001</v>
       </c>
     </row>
     <row r="329">
@@ -24745,58 +24745,58 @@
         <v>30002211</v>
       </c>
       <c r="C329" t="n">
-        <v>670.518381589188</v>
+        <v>819.4716360378743</v>
       </c>
       <c r="D329" t="n">
-        <v>3017.332717151346</v>
+        <v>3687.622362170435</v>
       </c>
       <c r="E329" t="n">
-        <v>326.6966340040772</v>
+        <v>399.2711199368926</v>
       </c>
       <c r="F329" t="n">
-        <v>315.9583455700686</v>
+        <v>386.1473592274435</v>
       </c>
       <c r="G329" t="n">
-        <v>298.2717528552306</v>
+        <v>364.5317533530563</v>
       </c>
       <c r="H329" t="n">
-        <v>287.4071316161159</v>
+        <v>351.25359545879</v>
       </c>
       <c r="I329" t="n">
-        <v>263.0249002306608</v>
+        <v>321.4549387890992</v>
       </c>
       <c r="J329" t="n">
-        <v>217.2924247822942</v>
+        <v>265.563157885327</v>
       </c>
       <c r="K329" t="n">
-        <v>172.0652805543516</v>
+        <v>210.2889657208229</v>
       </c>
       <c r="L329" t="n">
-        <v>166.6329699347942</v>
+        <v>203.6498867736896</v>
       </c>
       <c r="M329" t="n">
-        <v>149.9570396608042</v>
+        <v>183.269458377839</v>
       </c>
       <c r="N329" t="n">
-        <v>322.6539842406856</v>
+        <v>394.3304100227469</v>
       </c>
       <c r="O329" t="n">
-        <v>130.6281204795885</v>
+        <v>159.6466891008303</v>
       </c>
       <c r="P329" t="n">
-        <v>115.2155182566583</v>
+        <v>140.8102325531501</v>
       </c>
       <c r="Q329" t="n">
-        <v>83.63231698016209</v>
+        <v>102.2109363488875</v>
       </c>
       <c r="R329" t="n">
-        <v>61.52407608661468</v>
+        <v>75.19142900590359</v>
       </c>
       <c r="S329" t="n">
-        <v>43.58481776156484</v>
+        <v>53.26702876188245</v>
       </c>
       <c r="T329" t="n">
-        <v>62.78740413767454</v>
+        <v>76.73540085407411</v>
       </c>
       <c r="U329" t="n">
         <v>0</v>
@@ -24808,7 +24808,7 @@
         <v>0</v>
       </c>
       <c r="X329" t="n">
-        <v>4.5</v>
+        <v>4.500000000000001</v>
       </c>
     </row>
     <row r="330">
@@ -24819,58 +24819,58 @@
         <v>30002211</v>
       </c>
       <c r="C330" t="n">
-        <v>1007.553267125348</v>
+        <v>1231.377613018787</v>
       </c>
       <c r="D330" t="n">
-        <v>4533.989702064066</v>
+        <v>5541.199258584541</v>
       </c>
       <c r="E330" t="n">
-        <v>490.9101226569114</v>
+        <v>599.9640463364436</v>
       </c>
       <c r="F330" t="n">
-        <v>474.7742524226358</v>
+        <v>580.2436503818432</v>
       </c>
       <c r="G330" t="n">
-        <v>448.1975249779459</v>
+        <v>547.762998221324</v>
       </c>
       <c r="H330" t="n">
-        <v>431.8718209762079</v>
+        <v>527.8105976084337</v>
       </c>
       <c r="I330" t="n">
-        <v>395.2339038560285</v>
+        <v>483.0336985585753</v>
       </c>
       <c r="J330" t="n">
-        <v>326.5140800347594</v>
+        <v>399.0480122578049</v>
       </c>
       <c r="K330" t="n">
-        <v>258.5535912833386</v>
+        <v>315.990344590192</v>
       </c>
       <c r="L330" t="n">
-        <v>250.3907392824696</v>
+        <v>306.0141442837468</v>
       </c>
       <c r="M330" t="n">
-        <v>225.3326819774764</v>
+        <v>275.3895293895432</v>
       </c>
       <c r="N330" t="n">
-        <v>484.8354420981252</v>
+        <v>592.5398972711821</v>
       </c>
       <c r="O330" t="n">
-        <v>196.2881155557798</v>
+        <v>239.8928166712618</v>
       </c>
       <c r="P330" t="n">
-        <v>173.1283959254073</v>
+        <v>211.5882483599523</v>
       </c>
       <c r="Q330" t="n">
-        <v>125.66995405989</v>
+        <v>153.587083787597</v>
       </c>
       <c r="R330" t="n">
-        <v>92.44904475402778</v>
+        <v>112.9862685869482</v>
       </c>
       <c r="S330" t="n">
-        <v>65.49264977441396</v>
+        <v>80.04160710985042</v>
       </c>
       <c r="T330" t="n">
-        <v>94.34738242864849</v>
+        <v>115.3063151698424</v>
       </c>
       <c r="U330" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="X330" t="n">
-        <v>4.499999999999999</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="331">
@@ -24893,58 +24893,58 @@
         <v>30002211</v>
       </c>
       <c r="C331" t="n">
-        <v>851.8104683284142</v>
+        <v>1041.037109856511</v>
       </c>
       <c r="D331" t="n">
-        <v>3833.147107477864</v>
+        <v>4684.666994354301</v>
       </c>
       <c r="E331" t="n">
-        <v>415.027567406538</v>
+        <v>507.2244535002604</v>
       </c>
       <c r="F331" t="n">
-        <v>401.3859033579862</v>
+        <v>490.5523426930208</v>
       </c>
       <c r="G331" t="n">
-        <v>378.9172802191943</v>
+        <v>463.0923954810963</v>
       </c>
       <c r="H331" t="n">
-        <v>365.1151260053651</v>
+        <v>446.2241421937713</v>
       </c>
       <c r="I331" t="n">
-        <v>334.140524106888</v>
+        <v>408.3686435373327</v>
       </c>
       <c r="J331" t="n">
-        <v>276.0430842765837</v>
+        <v>337.3650657464997</v>
       </c>
       <c r="K331" t="n">
-        <v>218.5876051073878</v>
+        <v>267.1460578760073</v>
       </c>
       <c r="L331" t="n">
-        <v>211.6865280004732</v>
+        <v>258.7119312323447</v>
       </c>
       <c r="M331" t="n">
-        <v>190.5018261838982</v>
+        <v>232.8211238611018</v>
       </c>
       <c r="N331" t="n">
-        <v>409.8918821176713</v>
+        <v>500.9478941375348</v>
       </c>
       <c r="O331" t="n">
-        <v>165.9468308965044</v>
+        <v>202.8113244080701</v>
       </c>
       <c r="P331" t="n">
-        <v>146.3670307327002</v>
+        <v>178.8819418376789</v>
       </c>
       <c r="Q331" t="n">
-        <v>106.2444894134293</v>
+        <v>129.8463218163853</v>
       </c>
       <c r="R331" t="n">
-        <v>78.15871048993968</v>
+        <v>95.52138780147982</v>
       </c>
       <c r="S331" t="n">
-        <v>55.36910702059384</v>
+        <v>67.66915562938512</v>
       </c>
       <c r="T331" t="n">
-        <v>79.76361214271053</v>
+        <v>97.48281260233158</v>
       </c>
       <c r="U331" t="n">
         <v>0</v>
@@ -24956,7 +24956,7 @@
         <v>0</v>
       </c>
       <c r="X331" t="n">
-        <v>4.5</v>
+        <v>4.500000000000001</v>
       </c>
     </row>
     <row r="332">
@@ -24967,58 +24967,58 @@
         <v>30002112</v>
       </c>
       <c r="C332" t="n">
-        <v>-134.127344654629</v>
+        <v>843.9602290234354</v>
       </c>
       <c r="D332" t="n">
-        <v>-603.5730509458307</v>
+        <v>3478.528543787495</v>
       </c>
       <c r="E332" t="n">
-        <v>-65.26070653241715</v>
+        <v>376.1122702629177</v>
       </c>
       <c r="F332" t="n">
-        <v>-66.90787914201718</v>
+        <v>385.6053000296706</v>
       </c>
       <c r="G332" t="n">
-        <v>-64.47115271955106</v>
+        <v>371.5618923581934</v>
       </c>
       <c r="H332" t="n">
-        <v>-56.15361169090964</v>
+        <v>323.6260147756645</v>
       </c>
       <c r="I332" t="n">
-        <v>-49.67382522669801</v>
+        <v>286.2815340403394</v>
       </c>
       <c r="J332" t="n">
-        <v>-40.14472748521031</v>
+        <v>231.3631800178024</v>
       </c>
       <c r="K332" t="n">
-        <v>-34.53617281450612</v>
+        <v>199.0398059359663</v>
       </c>
       <c r="L332" t="n">
-        <v>-34.72675476933588</v>
+        <v>200.1381730164171</v>
       </c>
       <c r="M332" t="n">
-        <v>-30.69730772436394</v>
+        <v>176.9155547440299</v>
       </c>
       <c r="N332" t="n">
-        <v>-63.61353392281716</v>
+        <v>366.619240496165</v>
       </c>
       <c r="O332" t="n">
-        <v>-25.44269096977215</v>
+        <v>146.6320052401738</v>
       </c>
       <c r="P332" t="n">
-        <v>-21.7127298538184</v>
+        <v>125.1353923799236</v>
       </c>
       <c r="Q332" t="n">
-        <v>-17.05708495726298</v>
+        <v>98.30385370034128</v>
       </c>
       <c r="R332" t="n">
-        <v>-11.57104725752077</v>
+        <v>66.68657274165207</v>
       </c>
       <c r="S332" t="n">
-        <v>-9.447419760846371</v>
+        <v>54.4476252737724</v>
       </c>
       <c r="T332" t="n">
-        <v>-12.15640611878359</v>
+        <v>70.06012877446508</v>
       </c>
       <c r="U332" t="n">
         <v>0</v>
@@ -25027,10 +25027,10 @@
         <v>0.08706904250731821</v>
       </c>
       <c r="W332" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X332" t="n">
-        <v>4.5</v>
+        <v>4.121673538826083</v>
       </c>
     </row>
     <row r="333">
@@ -25041,58 +25041,58 @@
         <v>30002112</v>
       </c>
       <c r="C333" t="n">
-        <v>-190.9656194351849</v>
+        <v>1201.599780634728</v>
       </c>
       <c r="D333" t="n">
-        <v>-859.3452874583321</v>
+        <v>4952.602020101386</v>
       </c>
       <c r="E333" t="n">
-        <v>-92.915812803357</v>
+        <v>535.4949272489972</v>
       </c>
       <c r="F333" t="n">
-        <v>-95.26099706476842</v>
+        <v>549.010756660163</v>
       </c>
       <c r="G333" t="n">
-        <v>-91.79167489292846</v>
+        <v>529.016265217199</v>
       </c>
       <c r="H333" t="n">
-        <v>-79.94946345720646</v>
+        <v>460.7669117442874</v>
       </c>
       <c r="I333" t="n">
-        <v>-70.72377991644761</v>
+        <v>407.5972026557345</v>
       </c>
       <c r="J333" t="n">
-        <v>-57.15659823886106</v>
+        <v>329.4064539960979</v>
       </c>
       <c r="K333" t="n">
-        <v>-49.17134273719583</v>
+        <v>283.385613356426</v>
       </c>
       <c r="L333" t="n">
-        <v>-49.44268637074757</v>
+        <v>284.9494283296187</v>
       </c>
       <c r="M333" t="n">
-        <v>-43.70570668993954</v>
+        <v>251.8859117535438</v>
       </c>
       <c r="N333" t="n">
-        <v>-90.57062854194565</v>
+        <v>521.9790978378315</v>
       </c>
       <c r="O333" t="n">
-        <v>-36.2243750791561</v>
+        <v>208.7692989212299</v>
       </c>
       <c r="P333" t="n">
-        <v>-30.9137925367865</v>
+        <v>178.1632058744578</v>
       </c>
       <c r="Q333" t="n">
-        <v>-24.28525520287993</v>
+        <v>139.9614401007497</v>
       </c>
       <c r="R333" t="n">
-        <v>-16.47443489421224</v>
+        <v>94.94590908670163</v>
       </c>
       <c r="S333" t="n">
-        <v>-13.45089154892152</v>
+        <v>77.52054224255404</v>
       </c>
       <c r="T333" t="n">
-        <v>-17.30784748297827</v>
+        <v>99.74905507579363</v>
       </c>
       <c r="U333" t="n">
         <v>0</v>
@@ -25101,10 +25101,10 @@
         <v>0.123965725846975</v>
       </c>
       <c r="W333" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X333" t="n">
-        <v>4.5</v>
+        <v>4.121673538826083</v>
       </c>
     </row>
     <row r="334">
@@ -25115,58 +25115,58 @@
         <v>30002112</v>
       </c>
       <c r="C334" t="n">
-        <v>-145.133126314869</v>
+        <v>913.2111489941191</v>
       </c>
       <c r="D334" t="n">
-        <v>-653.0990684169104</v>
+        <v>3763.958228170024</v>
       </c>
       <c r="E334" t="n">
-        <v>-70.61565550973583</v>
+        <v>406.97405714843</v>
       </c>
       <c r="F334" t="n">
-        <v>-72.39798640599744</v>
+        <v>417.2460348111251</v>
       </c>
       <c r="G334" t="n">
-        <v>-69.76131508012288</v>
+        <v>402.0502992605268</v>
       </c>
       <c r="H334" t="n">
-        <v>-60.76128055437222</v>
+        <v>350.1810566827856</v>
       </c>
       <c r="I334" t="n">
-        <v>-53.74979702858284</v>
+        <v>309.7722850510266</v>
       </c>
       <c r="J334" t="n">
-        <v>-43.43879184359847</v>
+        <v>250.3476208866751</v>
       </c>
       <c r="K334" t="n">
-        <v>-37.3700287918648</v>
+        <v>215.3719614070854</v>
       </c>
       <c r="L334" t="n">
-        <v>-37.5762488955645</v>
+        <v>216.5604546903724</v>
       </c>
       <c r="M334" t="n">
-        <v>-33.21616670305681</v>
+        <v>191.4323109865895</v>
       </c>
       <c r="N334" t="n">
-        <v>-68.83332461347428</v>
+        <v>396.7020794857351</v>
       </c>
       <c r="O334" t="n">
-        <v>-27.53038384390829</v>
+        <v>158.6638533188185</v>
       </c>
       <c r="P334" t="n">
-        <v>-23.49436181435726</v>
+        <v>135.4033419173438</v>
       </c>
       <c r="Q334" t="n">
-        <v>-18.45669928112204</v>
+        <v>106.3701488541892</v>
       </c>
       <c r="R334" t="n">
-        <v>-12.52050629605245</v>
+        <v>72.15852077099824</v>
       </c>
       <c r="S334" t="n">
-        <v>-10.22262514054165</v>
+        <v>58.91530990008562</v>
       </c>
       <c r="T334" t="n">
-        <v>-13.15389661455864</v>
+        <v>75.808892998237</v>
       </c>
       <c r="U334" t="n">
         <v>0</v>
@@ -25175,10 +25175,10 @@
         <v>0.09421346837863603</v>
       </c>
       <c r="W334" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X334" t="n">
-        <v>4.5</v>
+        <v>4.121673538826083</v>
       </c>
     </row>
     <row r="335">
@@ -25189,58 +25189,58 @@
         <v>30002112</v>
       </c>
       <c r="C335" t="n">
-        <v>-57.12926516636949</v>
+        <v>359.4705303225114</v>
       </c>
       <c r="D335" t="n">
-        <v>-257.0816932486627</v>
+        <v>1481.620172818074</v>
       </c>
       <c r="E335" t="n">
-        <v>-27.79668991461249</v>
+        <v>160.1986356734595</v>
       </c>
       <c r="F335" t="n">
-        <v>-28.4982751210514</v>
+        <v>164.2420305246252</v>
       </c>
       <c r="G335" t="n">
-        <v>-27.46039287350956</v>
+        <v>158.2604794638098</v>
       </c>
       <c r="H335" t="n">
-        <v>-23.91767749223541</v>
+        <v>137.8430062897415</v>
       </c>
       <c r="I335" t="n">
-        <v>-21.15772246525261</v>
+        <v>121.9367587760646</v>
       </c>
       <c r="J335" t="n">
-        <v>-17.09896507263084</v>
+        <v>98.54521831477516</v>
       </c>
       <c r="K335" t="n">
-        <v>-14.7100964358306</v>
+        <v>84.77762592898765</v>
       </c>
       <c r="L335" t="n">
-        <v>-14.79127158368304</v>
+        <v>85.24545673821345</v>
       </c>
       <c r="M335" t="n">
-        <v>-13.07499702908869</v>
+        <v>75.35417677172532</v>
       </c>
       <c r="N335" t="n">
-        <v>-27.0951047081736</v>
+        <v>156.1552408222938</v>
       </c>
       <c r="O335" t="n">
-        <v>-10.83688223830012</v>
+        <v>62.45541303164285</v>
       </c>
       <c r="P335" t="n">
-        <v>-9.248168630331026</v>
+        <v>53.29929576536669</v>
       </c>
       <c r="Q335" t="n">
-        <v>-7.265175732792963</v>
+        <v>41.87085742570814</v>
       </c>
       <c r="R335" t="n">
-        <v>-4.928491119612144</v>
+        <v>28.40401341728005</v>
       </c>
       <c r="S335" t="n">
-        <v>-4.02396804354215</v>
+        <v>23.19104154304983</v>
       </c>
       <c r="T335" t="n">
-        <v>-5.177814788016054</v>
+        <v>29.8409223313307</v>
       </c>
       <c r="U335" t="n">
         <v>0</v>
@@ -25249,10 +25249,10 @@
         <v>0.03708558034896434</v>
       </c>
       <c r="W335" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X335" t="n">
-        <v>4.5</v>
+        <v>4.121673538826083</v>
       </c>
     </row>
     <row r="336">
@@ -25263,58 +25263,58 @@
         <v>30002211</v>
       </c>
       <c r="C336" t="n">
-        <v>339.4554161773722</v>
+        <v>414.8642198256989</v>
       </c>
       <c r="D336" t="n">
-        <v>1527.549372798175</v>
+        <v>1866.888989215645</v>
       </c>
       <c r="E336" t="n">
-        <v>165.3928436633763</v>
+        <v>202.1342708973228</v>
       </c>
       <c r="F336" t="n">
-        <v>159.9564972939306</v>
+        <v>195.490259672933</v>
       </c>
       <c r="G336" t="n">
-        <v>151.0025150383726</v>
+        <v>184.5471823621729</v>
       </c>
       <c r="H336" t="n">
-        <v>145.5022116528156</v>
+        <v>177.825006299849</v>
       </c>
       <c r="I336" t="n">
-        <v>133.158507543368</v>
+        <v>162.7391925785871</v>
       </c>
       <c r="J336" t="n">
-        <v>110.0060677111397</v>
+        <v>134.4435212464792</v>
       </c>
       <c r="K336" t="n">
-        <v>87.109455943356</v>
+        <v>106.4605092661074</v>
       </c>
       <c r="L336" t="n">
-        <v>84.35930425057749</v>
+        <v>103.0994212349454</v>
       </c>
       <c r="M336" t="n">
-        <v>75.91697812390862</v>
+        <v>92.78166262765747</v>
       </c>
       <c r="N336" t="n">
-        <v>163.3462191478202</v>
+        <v>199.6329960834348</v>
       </c>
       <c r="O336" t="n">
-        <v>66.1315546589061</v>
+        <v>80.82244242375555</v>
       </c>
       <c r="P336" t="n">
-        <v>58.32879869334849</v>
+        <v>71.28633219580757</v>
       </c>
       <c r="Q336" t="n">
-        <v>42.33954466556657</v>
+        <v>51.7451227123077</v>
       </c>
       <c r="R336" t="n">
-        <v>31.14706684611921</v>
+        <v>38.06627607385777</v>
       </c>
       <c r="S336" t="n">
-        <v>22.06517055833908</v>
+        <v>26.96686908722985</v>
       </c>
       <c r="T336" t="n">
-        <v>31.78663700723049</v>
+        <v>38.84792445319777</v>
       </c>
       <c r="U336" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="X336" t="n">
-        <v>4.5</v>
+        <v>4.500000000000001</v>
       </c>
     </row>
     <row r="337">
@@ -25337,58 +25337,58 @@
         <v>30002112</v>
       </c>
       <c r="C337" t="n">
-        <v>-151.4577382436205</v>
+        <v>953.007067906984</v>
       </c>
       <c r="D337" t="n">
-        <v>-681.5598220962924</v>
+        <v>3927.984014106448</v>
       </c>
       <c r="E337" t="n">
-        <v>-73.69294481324427</v>
+        <v>424.70917415369</v>
       </c>
       <c r="F337" t="n">
-        <v>-75.55294613206001</v>
+        <v>435.4287840979113</v>
       </c>
       <c r="G337" t="n">
-        <v>-72.80137393315083</v>
+        <v>419.5708487258817</v>
       </c>
       <c r="H337" t="n">
-        <v>-63.40913586871771</v>
+        <v>365.4412480984504</v>
       </c>
       <c r="I337" t="n">
-        <v>-56.09210588726084</v>
+        <v>323.2715428633323</v>
       </c>
       <c r="J337" t="n">
-        <v>-45.33176767923601</v>
+        <v>261.2572704587468</v>
       </c>
       <c r="K337" t="n">
-        <v>-38.99854004822711</v>
+        <v>224.7574415577621</v>
       </c>
       <c r="L337" t="n">
-        <v>-39.21374681238762</v>
+        <v>225.9977270058539</v>
       </c>
       <c r="M337" t="n">
-        <v>-34.66366094156569</v>
+        <v>199.7745489604863</v>
       </c>
       <c r="N337" t="n">
-        <v>-71.83294349442858</v>
+        <v>413.9895642094689</v>
       </c>
       <c r="O337" t="n">
-        <v>-28.73010301542628</v>
+        <v>165.5781073202434</v>
       </c>
       <c r="P337" t="n">
-        <v>-24.51819920257085</v>
+        <v>141.3039492647342</v>
       </c>
       <c r="Q337" t="n">
-        <v>-19.26100539236444</v>
+        <v>111.0055476042081</v>
       </c>
       <c r="R337" t="n">
-        <v>-13.06612496688728</v>
+        <v>75.30304506271099</v>
       </c>
       <c r="S337" t="n">
-        <v>-10.66810673767032</v>
+        <v>61.4827214982605</v>
       </c>
       <c r="T337" t="n">
-        <v>-13.72711717109453</v>
+        <v>79.11249322470699</v>
       </c>
       <c r="U337" t="n">
         <v>0</v>
@@ -25397,10 +25397,10 @@
         <v>0.09831910326080512</v>
       </c>
       <c r="W337" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X337" t="n">
-        <v>4.5</v>
+        <v>4.121673538826083</v>
       </c>
     </row>
     <row r="338">
@@ -25411,58 +25411,58 @@
         <v>30002112</v>
       </c>
       <c r="C338" t="n">
-        <v>-100.1071034106324</v>
+        <v>629.8970142058516</v>
       </c>
       <c r="D338" t="n">
-        <v>-450.4819653478457</v>
+        <v>2596.229855637816</v>
       </c>
       <c r="E338" t="n">
-        <v>-48.70789259501041</v>
+        <v>280.7146449530355</v>
       </c>
       <c r="F338" t="n">
-        <v>-49.93727411440889</v>
+        <v>287.7998498006194</v>
       </c>
       <c r="G338" t="n">
-        <v>-48.11860227992688</v>
+        <v>277.3184310591524</v>
       </c>
       <c r="H338" t="n">
-        <v>-41.91073361585691</v>
+        <v>241.5410743494517</v>
       </c>
       <c r="I338" t="n">
-        <v>-37.07448896103318</v>
+        <v>213.6686982548241</v>
       </c>
       <c r="J338" t="n">
-        <v>-29.96236446864534</v>
+        <v>172.6799098803717</v>
       </c>
       <c r="K338" t="n">
-        <v>-25.77637119598278</v>
+        <v>148.5550801514082</v>
       </c>
       <c r="L338" t="n">
-        <v>-25.91861368583054</v>
+        <v>149.3748559188973</v>
       </c>
       <c r="M338" t="n">
-        <v>-22.91120104333511</v>
+        <v>132.0424539777003</v>
       </c>
       <c r="N338" t="n">
-        <v>-47.47851107561196</v>
+        <v>273.6294401054516</v>
       </c>
       <c r="O338" t="n">
-        <v>-18.98937239467553</v>
+        <v>109.4400649597879</v>
       </c>
       <c r="P338" t="n">
-        <v>-16.20548366479801</v>
+        <v>93.39588208178802</v>
       </c>
       <c r="Q338" t="n">
-        <v>-12.73070284137423</v>
+        <v>73.36993119026984</v>
       </c>
       <c r="R338" t="n">
-        <v>-8.636151169328087</v>
+        <v>49.77210016897792</v>
       </c>
       <c r="S338" t="n">
-        <v>-7.051163425310226</v>
+        <v>40.63745590267138</v>
       </c>
       <c r="T338" t="n">
-        <v>-9.073038816717629</v>
+        <v>52.28998288340859</v>
       </c>
       <c r="U338" t="n">
         <v>0</v>
@@ -25471,10 +25471,10 @@
         <v>0.06498473271493363</v>
       </c>
       <c r="W338" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X338" t="n">
-        <v>4.5</v>
+        <v>4.121673538826083</v>
       </c>
     </row>
     <row r="339">
@@ -25485,58 +25485,58 @@
         <v>30002112</v>
       </c>
       <c r="C339" t="n">
-        <v>-117.9196997588323</v>
+        <v>741.9779842141547</v>
       </c>
       <c r="D339" t="n">
-        <v>-530.6386489147453</v>
+        <v>3058.191023926998</v>
       </c>
       <c r="E339" t="n">
-        <v>-57.37475039237872</v>
+        <v>330.6637143918541</v>
       </c>
       <c r="F339" t="n">
-        <v>-58.82288239018388</v>
+        <v>339.009627917389</v>
       </c>
       <c r="G339" t="n">
-        <v>-56.68060447607547</v>
+        <v>326.6631938589532</v>
       </c>
       <c r="H339" t="n">
-        <v>-49.3681362888115</v>
+        <v>284.5197792795992</v>
       </c>
       <c r="I339" t="n">
-        <v>-43.67135256190865</v>
+        <v>251.6879211130321</v>
       </c>
       <c r="J339" t="n">
-        <v>-35.29372943411033</v>
+        <v>203.4057767504335</v>
       </c>
       <c r="K339" t="n">
-        <v>-30.36289982174904</v>
+        <v>174.9882860684468</v>
       </c>
       <c r="L339" t="n">
-        <v>-30.53045228430501</v>
+        <v>175.9539289556988</v>
       </c>
       <c r="M339" t="n">
-        <v>-26.98791450455029</v>
+        <v>155.5374793395142</v>
       </c>
       <c r="N339" t="n">
-        <v>-55.92661839457361</v>
+        <v>322.3178008663193</v>
       </c>
       <c r="O339" t="n">
-        <v>-22.3682537512215</v>
+        <v>128.9133254481384</v>
       </c>
       <c r="P339" t="n">
-        <v>-19.08901269834045</v>
+        <v>110.0143146547784</v>
       </c>
       <c r="Q339" t="n">
-        <v>-14.99594539875899</v>
+        <v>86.4250384090516</v>
       </c>
       <c r="R339" t="n">
-        <v>-10.17282808375509</v>
+        <v>58.62831815458406</v>
       </c>
       <c r="S339" t="n">
-        <v>-8.305814929560041</v>
+        <v>47.86829741091922</v>
       </c>
       <c r="T339" t="n">
-        <v>-10.68745350446271</v>
+        <v>61.59422130828657</v>
       </c>
       <c r="U339" t="n">
         <v>0</v>
@@ -25545,10 +25545,10 @@
         <v>0.07654781638441707</v>
       </c>
       <c r="W339" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X339" t="n">
-        <v>4.500000000000001</v>
+        <v>4.121673538826083</v>
       </c>
     </row>
     <row r="340">
@@ -25559,58 +25559,58 @@
         <v>30002112</v>
       </c>
       <c r="C340" t="n">
-        <v>-50.32918924046749</v>
+        <v>316.6828821320651</v>
       </c>
       <c r="D340" t="n">
-        <v>-226.4813515821037</v>
+        <v>1305.263455482912</v>
       </c>
       <c r="E340" t="n">
-        <v>-24.48805989184457</v>
+        <v>141.1302495733925</v>
       </c>
       <c r="F340" t="n">
-        <v>-25.10613566299877</v>
+        <v>144.692360586822</v>
       </c>
       <c r="G340" t="n">
-        <v>-24.19179216682853</v>
+        <v>139.4227914016661</v>
       </c>
       <c r="H340" t="n">
-        <v>-21.07076492571108</v>
+        <v>121.4356027305474</v>
       </c>
       <c r="I340" t="n">
-        <v>-18.63932635488963</v>
+        <v>107.4226701487922</v>
       </c>
       <c r="J340" t="n">
-        <v>-15.06368139779926</v>
+        <v>86.81541635209319</v>
       </c>
       <c r="K340" t="n">
-        <v>-12.95915893734036</v>
+        <v>74.68657554603608</v>
       </c>
       <c r="L340" t="n">
-        <v>-13.03067183648217</v>
+        <v>75.09872062197007</v>
       </c>
       <c r="M340" t="n">
-        <v>-11.51868482605539</v>
+        <v>66.38479615936593</v>
       </c>
       <c r="N340" t="n">
-        <v>-23.86998412069039</v>
+        <v>137.5681385599632</v>
       </c>
       <c r="O340" t="n">
-        <v>-9.546972035431274</v>
+        <v>55.02136763718622</v>
       </c>
       <c r="P340" t="n">
-        <v>-8.147362437941617</v>
+        <v>46.95509972247834</v>
       </c>
       <c r="Q340" t="n">
-        <v>-6.400404473191753</v>
+        <v>36.88698429609114</v>
       </c>
       <c r="R340" t="n">
-        <v>-4.341854590752584</v>
+        <v>25.02309389599159</v>
       </c>
       <c r="S340" t="n">
-        <v>-3.544996571743875</v>
+        <v>20.43062019272725</v>
       </c>
       <c r="T340" t="n">
-        <v>-4.561501352402423</v>
+        <v>26.28896805778882</v>
       </c>
       <c r="U340" t="n">
         <v>0</v>
@@ -25619,10 +25619,10 @@
         <v>0.03267129703209173</v>
       </c>
       <c r="W340" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X340" t="n">
-        <v>4.500000000000001</v>
+        <v>4.121673538826083</v>
       </c>
     </row>
     <row r="341">
@@ -25633,58 +25633,58 @@
         <v>30002112</v>
       </c>
       <c r="C341" t="n">
-        <v>-32.10682295839012</v>
+        <v>202.0235450642141</v>
       </c>
       <c r="D341" t="n">
-        <v>-144.4807033127555</v>
+        <v>832.6750999110097</v>
       </c>
       <c r="E341" t="n">
-        <v>-15.62182533450651</v>
+        <v>90.0321265950963</v>
       </c>
       <c r="F341" t="n">
-        <v>-16.01611838112214</v>
+        <v>92.30452695346231</v>
       </c>
       <c r="G341" t="n">
-        <v>-15.43282536174862</v>
+        <v>88.94287683654073</v>
       </c>
       <c r="H341" t="n">
-        <v>-13.44180840735073</v>
+        <v>77.4681940352049</v>
       </c>
       <c r="I341" t="n">
-        <v>-11.89070518264795</v>
+        <v>68.52883394774854</v>
       </c>
       <c r="J341" t="n">
-        <v>-9.609671028673285</v>
+        <v>55.3827161720774</v>
       </c>
       <c r="K341" t="n">
-        <v>-8.267119498048194</v>
+        <v>47.64528685268239</v>
       </c>
       <c r="L341" t="n">
-        <v>-8.312740181127689</v>
+        <v>47.90820920819581</v>
       </c>
       <c r="M341" t="n">
-        <v>-7.348188596018399</v>
+        <v>42.34927940591201</v>
       </c>
       <c r="N341" t="n">
-        <v>-15.2275322878909</v>
+        <v>87.75972623673032</v>
       </c>
       <c r="O341" t="n">
-        <v>-6.090361191112367</v>
+        <v>35.10013446104193</v>
       </c>
       <c r="P341" t="n">
-        <v>-5.197499250842283</v>
+        <v>29.95436836027923</v>
       </c>
       <c r="Q341" t="n">
-        <v>-4.083051135614658</v>
+        <v>23.53155081845134</v>
       </c>
       <c r="R341" t="n">
-        <v>-2.76982718696924</v>
+        <v>15.96314301331495</v>
       </c>
       <c r="S341" t="n">
-        <v>-2.261482432654886</v>
+        <v>13.03343676616538</v>
       </c>
       <c r="T341" t="n">
-        <v>-2.909947856427685</v>
+        <v>16.77069024810618</v>
       </c>
       <c r="U341" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0.02084221036461509</v>
       </c>
       <c r="W341" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X341" t="n">
-        <v>4.5</v>
+        <v>4.121673538826083</v>
       </c>
     </row>
     <row r="342">
@@ -25707,58 +25707,58 @@
         <v>30002112</v>
       </c>
       <c r="C342" t="n">
-        <v>-186.5701288809934</v>
+        <v>1173.942338937527</v>
       </c>
       <c r="D342" t="n">
-        <v>-839.5655799644704</v>
+        <v>4838.607074506407</v>
       </c>
       <c r="E342" t="n">
-        <v>-90.77715256325656</v>
+        <v>523.1693426673218</v>
       </c>
       <c r="F342" t="n">
-        <v>-93.06835729003049</v>
+        <v>536.3740757634307</v>
       </c>
       <c r="G342" t="n">
-        <v>-89.6788891405055</v>
+        <v>516.8398011832368</v>
       </c>
       <c r="H342" t="n">
-        <v>-78.10925204911003</v>
+        <v>450.1613555491662</v>
       </c>
       <c r="I342" t="n">
-        <v>-69.09591775204909</v>
+        <v>398.2154633694321</v>
       </c>
       <c r="J342" t="n">
-        <v>-55.8410143740183</v>
+        <v>321.8244454580584</v>
       </c>
       <c r="K342" t="n">
-        <v>-48.03955695723446</v>
+        <v>276.8628749159357</v>
       </c>
       <c r="L342" t="n">
-        <v>-48.30465502479509</v>
+        <v>278.3906952741631</v>
       </c>
       <c r="M342" t="n">
-        <v>-42.69972445351349</v>
+        <v>246.0882077002109</v>
       </c>
       <c r="N342" t="n">
-        <v>-88.48594783648272</v>
+        <v>509.964609571213</v>
       </c>
       <c r="O342" t="n">
-        <v>-35.39059201934222</v>
+        <v>203.9640178233676</v>
       </c>
       <c r="P342" t="n">
-        <v>-30.20224412565588</v>
+        <v>174.0623908123443</v>
       </c>
       <c r="Q342" t="n">
-        <v>-23.72627704667512</v>
+        <v>136.7399220613589</v>
       </c>
       <c r="R342" t="n">
-        <v>-16.09523981618025</v>
+        <v>92.76052174952514</v>
       </c>
       <c r="S342" t="n">
-        <v>-13.14128992050481</v>
+        <v>75.73623775784758</v>
       </c>
       <c r="T342" t="n">
-        <v>-16.90946959511643</v>
+        <v>97.45311284979526</v>
       </c>
       <c r="U342" t="n">
         <v>0</v>
@@ -25767,10 +25767,10 @@
         <v>0.1211123840851674</v>
       </c>
       <c r="W342" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X342" t="n">
-        <v>4.5</v>
+        <v>4.121673538826083</v>
       </c>
     </row>
     <row r="343">
@@ -25781,58 +25781,58 @@
         <v>30002112</v>
       </c>
       <c r="C343" t="n">
-        <v>-141.3036740399623</v>
+        <v>889.115350875648</v>
       </c>
       <c r="D343" t="n">
-        <v>-635.8665331798305</v>
+        <v>3664.643214668226</v>
       </c>
       <c r="E343" t="n">
-        <v>-68.75240561288524</v>
+        <v>396.2357249113508</v>
       </c>
       <c r="F343" t="n">
-        <v>-70.48770829940158</v>
+        <v>406.2366683227554</v>
       </c>
       <c r="G343" t="n">
-        <v>-67.92060763091879</v>
+        <v>391.4418842678679</v>
       </c>
       <c r="H343" t="n">
-        <v>-59.15804613123733</v>
+        <v>340.9412526615191</v>
       </c>
       <c r="I343" t="n">
-        <v>-52.33156614130546</v>
+        <v>301.598698415002</v>
       </c>
       <c r="J343" t="n">
-        <v>-42.29262497964094</v>
+        <v>243.7420009936533</v>
       </c>
       <c r="K343" t="n">
-        <v>-36.38399103877554</v>
+        <v>209.6892019399452</v>
       </c>
       <c r="L343" t="n">
-        <v>-36.58476986200884</v>
+        <v>210.8463358883722</v>
       </c>
       <c r="M343" t="n">
-        <v>-32.33973188507641</v>
+        <v>186.3812181216304</v>
       </c>
       <c r="N343" t="n">
-        <v>-67.01710292636899</v>
+        <v>386.2347814999464</v>
       </c>
       <c r="O343" t="n">
-        <v>-26.80397290164426</v>
+        <v>154.477382115001</v>
       </c>
       <c r="P343" t="n">
-        <v>-22.87444450407844</v>
+        <v>131.8306176957874</v>
       </c>
       <c r="Q343" t="n">
-        <v>-17.96970467937949</v>
+        <v>103.5634883842142</v>
       </c>
       <c r="R343" t="n">
-        <v>-12.19014283916405</v>
+        <v>70.25456115449484</v>
       </c>
       <c r="S343" t="n">
-        <v>-9.952893094564532</v>
+        <v>57.36078287202284</v>
       </c>
       <c r="T343" t="n">
-        <v>-12.80682065338059</v>
+        <v>73.80861542466342</v>
       </c>
       <c r="U343" t="n">
         <v>0</v>
@@ -25841,10 +25841,10 @@
         <v>0.09172757153364779</v>
       </c>
       <c r="W343" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X343" t="n">
-        <v>4.500000000000001</v>
+        <v>4.121673538826083</v>
       </c>
     </row>
     <row r="344">
@@ -25855,58 +25855,58 @@
         <v>30002112</v>
       </c>
       <c r="C344" t="n">
-        <v>-194.897660495632</v>
+        <v>1226.341091084506</v>
       </c>
       <c r="D344" t="n">
-        <v>-877.0394722303438</v>
+        <v>5054.577624698114</v>
       </c>
       <c r="E344" t="n">
-        <v>-94.8289780746147</v>
+        <v>546.5209331228913</v>
       </c>
       <c r="F344" t="n">
-        <v>-97.22245040399071</v>
+        <v>560.3150576343368</v>
       </c>
       <c r="G344" t="n">
-        <v>-93.68169381755851</v>
+        <v>539.9088734397193</v>
       </c>
       <c r="H344" t="n">
-        <v>-81.5956475923625</v>
+        <v>470.2542447083702</v>
       </c>
       <c r="I344" t="n">
-        <v>-72.18000437928018</v>
+        <v>415.9897548947498</v>
       </c>
       <c r="J344" t="n">
-        <v>-58.33347024239443</v>
+        <v>336.1890345806021</v>
       </c>
       <c r="K344" t="n">
-        <v>-50.18379586468452</v>
+        <v>289.2206106242752</v>
       </c>
       <c r="L344" t="n">
-        <v>-50.46072654742225</v>
+        <v>290.8166250305582</v>
       </c>
       <c r="M344" t="n">
-        <v>-44.60562068382483</v>
+        <v>257.0723204405757</v>
       </c>
       <c r="N344" t="n">
-        <v>-92.43550574523879</v>
+        <v>532.7268086114459</v>
       </c>
       <c r="O344" t="n">
-        <v>-36.97024614548497</v>
+        <v>213.0679232387743</v>
       </c>
       <c r="P344" t="n">
-        <v>-31.55031706904683</v>
+        <v>181.8316412872365</v>
       </c>
       <c r="Q344" t="n">
-        <v>-24.78529610502551</v>
+        <v>142.8432893623244</v>
       </c>
       <c r="R344" t="n">
-        <v>-16.81364859478984</v>
+        <v>96.90087466717929</v>
       </c>
       <c r="S344" t="n">
-        <v>-13.72784955856959</v>
+        <v>79.11671414002639</v>
       </c>
       <c r="T344" t="n">
-        <v>-17.66422140605569</v>
+        <v>101.8029189150484</v>
       </c>
       <c r="U344" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0.1265182184137528</v>
       </c>
       <c r="W344" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X344" t="n">
-        <v>4.5</v>
+        <v>4.121673538826083</v>
       </c>
     </row>
     <row r="345">
@@ -25929,58 +25929,58 @@
         <v>30002112</v>
       </c>
       <c r="C345" t="n">
-        <v>-38.42373851152809</v>
+        <v>241.771036604255</v>
       </c>
       <c r="D345" t="n">
-        <v>-172.9068233018764</v>
+        <v>996.5012840263103</v>
       </c>
       <c r="E345" t="n">
-        <v>-18.69536990638268</v>
+        <v>107.7456618616566</v>
       </c>
       <c r="F345" t="n">
-        <v>-19.16723885896348</v>
+        <v>110.465149780985</v>
       </c>
       <c r="G345" t="n">
-        <v>-18.46918478861669</v>
+        <v>106.4421056689207</v>
       </c>
       <c r="H345" t="n">
-        <v>-16.08644156525419</v>
+        <v>92.70981543165071</v>
       </c>
       <c r="I345" t="n">
-        <v>-14.2301637022091</v>
+        <v>82.0116646085075</v>
       </c>
       <c r="J345" t="n">
-        <v>-11.50034331537809</v>
+        <v>66.27908986859103</v>
       </c>
       <c r="K345" t="n">
-        <v>-9.893649030557546</v>
+        <v>57.01934587881161</v>
       </c>
       <c r="L345" t="n">
-        <v>-9.948245438294169</v>
+        <v>57.33399737360994</v>
       </c>
       <c r="M345" t="n">
-        <v>-8.793921389005625</v>
+        <v>50.6813657693024</v>
       </c>
       <c r="N345" t="n">
-        <v>-18.2235009538019</v>
+        <v>105.0261739423282</v>
       </c>
       <c r="O345" t="n">
-        <v>-7.288620432838808</v>
+        <v>42.00597455557702</v>
       </c>
       <c r="P345" t="n">
-        <v>-6.220090738564954</v>
+        <v>35.84779530023828</v>
       </c>
       <c r="Q345" t="n">
-        <v>-4.886378492427516</v>
+        <v>28.16130878445052</v>
       </c>
       <c r="R345" t="n">
-        <v>-3.314781898294802</v>
+        <v>19.10384075561287</v>
       </c>
       <c r="S345" t="n">
-        <v>-2.706421926372462</v>
+        <v>15.59772409928863</v>
       </c>
       <c r="T345" t="n">
-        <v>-3.482470864914423</v>
+        <v>20.07027034677918</v>
       </c>
       <c r="U345" t="n">
         <v>0</v>
@@ -25989,10 +25989,10 @@
         <v>0.02494284912867585</v>
       </c>
       <c r="W345" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X345" t="n">
-        <v>4.500000000000001</v>
+        <v>4.121673538826083</v>
       </c>
     </row>
     <row r="346">

--- a/create_forecast_basic/current/Intermediates/taz_with_pop_info.xlsx
+++ b/create_forecast_basic/current/Intermediates/taz_with_pop_info.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
